--- a/BackTest/2019-11-13 BackTest FCT.xlsx
+++ b/BackTest/2019-11-13 BackTest FCT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>8</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>256.7</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>9</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-20</v>
+      </c>
       <c r="L13" t="n">
         <v>256.6</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>10</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>256.6</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>10</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
       <c r="L15" t="n">
         <v>256.6</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>10</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>256.7</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>10</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>256.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>11</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>256.7</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>13</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-60</v>
+      </c>
       <c r="L19" t="n">
         <v>256.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>14</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-66.66666666666666</v>
+      </c>
       <c r="L20" t="n">
         <v>256.1</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>15</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-71.42857142857143</v>
+      </c>
       <c r="L21" t="n">
         <v>255.6</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>15</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-66.66666666666666</v>
+      </c>
       <c r="L22" t="n">
         <v>255.1</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>15</v>
       </c>
       <c r="K23" t="n">
-        <v>-45.45454545454545</v>
+        <v>-100</v>
       </c>
       <c r="L23" t="n">
         <v>254.7</v>
@@ -1466,7 +1488,7 @@
         <v>16</v>
       </c>
       <c r="K24" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L24" t="n">
         <v>254.1</v>
@@ -1515,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="K25" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L25" t="n">
         <v>253.5</v>
@@ -1564,7 +1586,7 @@
         <v>17</v>
       </c>
       <c r="K26" t="n">
-        <v>-33.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L26" t="n">
         <v>253</v>
@@ -1613,7 +1635,7 @@
         <v>17</v>
       </c>
       <c r="K27" t="n">
-        <v>-45.45454545454545</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L27" t="n">
         <v>252.5</v>
@@ -1662,7 +1684,7 @@
         <v>17</v>
       </c>
       <c r="K28" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="L28" t="n">
         <v>252.1</v>
@@ -1711,7 +1733,7 @@
         <v>22</v>
       </c>
       <c r="K29" t="n">
-        <v>-60</v>
+        <v>-75</v>
       </c>
       <c r="L29" t="n">
         <v>251.4</v>
@@ -1809,7 +1831,7 @@
         <v>24</v>
       </c>
       <c r="K31" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L31" t="n">
         <v>250.5</v>
@@ -1860,7 +1882,7 @@
         <v>27</v>
       </c>
       <c r="K32" t="n">
-        <v>-26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>250.5</v>
@@ -1911,7 +1933,7 @@
         <v>28</v>
       </c>
       <c r="K33" t="n">
-        <v>-26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>250.4</v>
@@ -1962,7 +1984,7 @@
         <v>28</v>
       </c>
       <c r="K34" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>250.4</v>
@@ -2013,7 +2035,7 @@
         <v>28</v>
       </c>
       <c r="K35" t="n">
-        <v>-33.33333333333333</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L35" t="n">
         <v>250.4</v>
@@ -2064,7 +2086,7 @@
         <v>29</v>
       </c>
       <c r="K36" t="n">
-        <v>-26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>250.4</v>
@@ -2115,7 +2137,7 @@
         <v>30</v>
       </c>
       <c r="K37" t="n">
-        <v>-20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L37" t="n">
         <v>250.5</v>
@@ -2166,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="K38" t="n">
-        <v>-15.78947368421053</v>
+        <v>75</v>
       </c>
       <c r="L38" t="n">
         <v>250.6</v>
@@ -2217,7 +2239,7 @@
         <v>35</v>
       </c>
       <c r="K39" t="n">
-        <v>-27.27272727272727</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L39" t="n">
         <v>250.7</v>
@@ -2268,7 +2290,7 @@
         <v>39</v>
       </c>
       <c r="K40" t="n">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="L40" t="n">
         <v>251.2</v>
@@ -2370,7 +2392,7 @@
         <v>40</v>
       </c>
       <c r="K42" t="n">
-        <v>4</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L42" t="n">
         <v>251.6</v>
@@ -2421,7 +2443,7 @@
         <v>44</v>
       </c>
       <c r="K43" t="n">
-        <v>-10.3448275862069</v>
+        <v>-12.5</v>
       </c>
       <c r="L43" t="n">
         <v>251.4</v>
@@ -2472,7 +2494,7 @@
         <v>47</v>
       </c>
       <c r="K44" t="n">
-        <v>3.225806451612903</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L44" t="n">
         <v>251.5</v>
@@ -2523,7 +2545,7 @@
         <v>47</v>
       </c>
       <c r="K45" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>251.6</v>
@@ -2574,7 +2596,7 @@
         <v>47</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L46" t="n">
         <v>251.6</v>
@@ -2625,7 +2647,7 @@
         <v>47</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L47" t="n">
         <v>251.5</v>
@@ -2676,7 +2698,7 @@
         <v>48</v>
       </c>
       <c r="K48" t="n">
-        <v>-3.225806451612903</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L48" t="n">
         <v>251.3</v>
@@ -2727,7 +2749,7 @@
         <v>48</v>
       </c>
       <c r="K49" t="n">
-        <v>15.38461538461539</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L49" t="n">
         <v>251.6</v>
@@ -2778,7 +2800,7 @@
         <v>48</v>
       </c>
       <c r="K50" t="n">
-        <v>15.38461538461539</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L50" t="n">
         <v>251.5</v>
@@ -2829,7 +2851,7 @@
         <v>49</v>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>251.3</v>
@@ -2880,7 +2902,7 @@
         <v>49</v>
       </c>
       <c r="K52" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L52" t="n">
         <v>251</v>
@@ -2931,7 +2953,7 @@
         <v>49</v>
       </c>
       <c r="K53" t="n">
-        <v>-4.761904761904762</v>
+        <v>-100</v>
       </c>
       <c r="L53" t="n">
         <v>251.1</v>
@@ -2982,7 +3004,7 @@
         <v>51</v>
       </c>
       <c r="K54" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>251.1</v>
@@ -3033,7 +3055,7 @@
         <v>54</v>
       </c>
       <c r="K55" t="n">
-        <v>-7.692307692307693</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L55" t="n">
         <v>250.8</v>
@@ -3084,7 +3106,7 @@
         <v>56</v>
       </c>
       <c r="K56" t="n">
-        <v>-18.51851851851852</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L56" t="n">
         <v>250.3</v>
@@ -3135,7 +3157,7 @@
         <v>56</v>
       </c>
       <c r="K57" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L57" t="n">
         <v>249.8</v>
@@ -3186,7 +3208,7 @@
         <v>58</v>
       </c>
       <c r="K58" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L58" t="n">
         <v>249.6</v>
@@ -3237,7 +3259,7 @@
         <v>59</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L59" t="n">
         <v>249.3</v>
@@ -3339,7 +3361,7 @@
         <v>61</v>
       </c>
       <c r="K61" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L61" t="n">
         <v>248.6</v>
@@ -3390,7 +3412,7 @@
         <v>67</v>
       </c>
       <c r="K62" t="n">
-        <v>-3.703703703703703</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L62" t="n">
         <v>248.8</v>
@@ -3441,7 +3463,7 @@
         <v>68</v>
       </c>
       <c r="K63" t="n">
-        <v>8.333333333333332</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L63" t="n">
         <v>248.9</v>
@@ -3492,7 +3514,7 @@
         <v>68</v>
       </c>
       <c r="K64" t="n">
-        <v>-4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L64" t="n">
         <v>248.8</v>
@@ -3543,7 +3565,7 @@
         <v>71</v>
       </c>
       <c r="K65" t="n">
-        <v>-16.66666666666666</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L65" t="n">
         <v>248.7</v>
@@ -3594,7 +3616,7 @@
         <v>74</v>
       </c>
       <c r="K66" t="n">
-        <v>-3.703703703703703</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L66" t="n">
         <v>249.1</v>
@@ -3645,7 +3667,7 @@
         <v>77</v>
       </c>
       <c r="K67" t="n">
-        <v>6.666666666666667</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L67" t="n">
         <v>249.8</v>
@@ -3696,7 +3718,7 @@
         <v>82</v>
       </c>
       <c r="K68" t="n">
-        <v>23.52941176470588</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L68" t="n">
         <v>250.8</v>
@@ -3747,7 +3769,7 @@
         <v>86</v>
       </c>
       <c r="K69" t="n">
-        <v>10.52631578947368</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L69" t="n">
         <v>251.5</v>
@@ -3798,7 +3820,7 @@
         <v>89</v>
       </c>
       <c r="K70" t="n">
-        <v>17.07317073170732</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L70" t="n">
         <v>252.5</v>
@@ -3849,7 +3871,7 @@
         <v>91</v>
       </c>
       <c r="K71" t="n">
-        <v>14.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L71" t="n">
         <v>253.5</v>
@@ -3900,7 +3922,7 @@
         <v>93</v>
       </c>
       <c r="K72" t="n">
-        <v>9.090909090909092</v>
+        <v>12</v>
       </c>
       <c r="L72" t="n">
         <v>253.7</v>
@@ -3951,7 +3973,7 @@
         <v>96</v>
       </c>
       <c r="K73" t="n">
-        <v>14.8936170212766</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L73" t="n">
         <v>254.3</v>
@@ -4002,7 +4024,7 @@
         <v>98</v>
       </c>
       <c r="K74" t="n">
-        <v>6.382978723404255</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L74" t="n">
         <v>254.7</v>
@@ -4053,7 +4075,7 @@
         <v>99</v>
       </c>
       <c r="K75" t="n">
-        <v>11.11111111111111</v>
+        <v>12</v>
       </c>
       <c r="L75" t="n">
         <v>255.3</v>
@@ -4104,7 +4126,7 @@
         <v>100</v>
       </c>
       <c r="K76" t="n">
-        <v>13.63636363636363</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L76" t="n">
         <v>255.5</v>
@@ -4155,7 +4177,7 @@
         <v>101</v>
       </c>
       <c r="K77" t="n">
-        <v>15.55555555555556</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L77" t="n">
         <v>255.5</v>
@@ -4206,7 +4228,7 @@
         <v>101</v>
       </c>
       <c r="K78" t="n">
-        <v>11.62790697674419</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L78" t="n">
         <v>255</v>
@@ -4257,7 +4279,7 @@
         <v>101</v>
       </c>
       <c r="K79" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>254.9</v>
@@ -4308,7 +4330,7 @@
         <v>104</v>
       </c>
       <c r="K80" t="n">
-        <v>20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L80" t="n">
         <v>254.8</v>
@@ -4359,7 +4381,7 @@
         <v>105</v>
       </c>
       <c r="K81" t="n">
-        <v>22.72727272727273</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L81" t="n">
         <v>254.8</v>
@@ -4410,7 +4432,7 @@
         <v>106</v>
       </c>
       <c r="K82" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L82" t="n">
         <v>254.9</v>
@@ -4461,7 +4483,7 @@
         <v>106</v>
       </c>
       <c r="K83" t="n">
-        <v>10.52631578947368</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>254.7</v>
@@ -4512,7 +4534,7 @@
         <v>107</v>
       </c>
       <c r="K84" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>254.6</v>
@@ -4563,7 +4585,7 @@
         <v>108</v>
       </c>
       <c r="K85" t="n">
-        <v>13.51351351351351</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>254.5</v>
@@ -4614,7 +4636,7 @@
         <v>109</v>
       </c>
       <c r="K86" t="n">
-        <v>2.857142857142857</v>
+        <v>-25</v>
       </c>
       <c r="L86" t="n">
         <v>254.4</v>
@@ -4716,7 +4738,7 @@
         <v>113</v>
       </c>
       <c r="K88" t="n">
-        <v>-9.67741935483871</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L88" t="n">
         <v>254.6</v>
@@ -4767,7 +4789,7 @@
         <v>114</v>
       </c>
       <c r="K89" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>254.9</v>
@@ -4818,7 +4840,7 @@
         <v>116</v>
       </c>
       <c r="K90" t="n">
-        <v>3.703703703703703</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L90" t="n">
         <v>255.1</v>
@@ -4869,7 +4891,7 @@
         <v>116</v>
       </c>
       <c r="K91" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="L91" t="n">
         <v>255.4</v>
@@ -4920,7 +4942,7 @@
         <v>117</v>
       </c>
       <c r="K92" t="n">
-        <v>25</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L92" t="n">
         <v>255.9</v>
@@ -4971,7 +4993,7 @@
         <v>119</v>
       </c>
       <c r="K93" t="n">
-        <v>21.73913043478261</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L93" t="n">
         <v>256.6</v>
@@ -5022,7 +5044,7 @@
         <v>122</v>
       </c>
       <c r="K94" t="n">
-        <v>16.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L94" t="n">
         <v>257.1</v>
@@ -5073,7 +5095,7 @@
         <v>122</v>
       </c>
       <c r="K95" t="n">
-        <v>21.73913043478261</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L95" t="n">
         <v>257.7</v>
@@ -5124,7 +5146,7 @@
         <v>122</v>
       </c>
       <c r="K96" t="n">
-        <v>27.27272727272727</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L96" t="n">
         <v>258.4</v>
@@ -5175,7 +5197,7 @@
         <v>122</v>
       </c>
       <c r="K97" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>258.9</v>
@@ -5226,7 +5248,7 @@
         <v>123</v>
       </c>
       <c r="K98" t="n">
-        <v>18.18181818181818</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L98" t="n">
         <v>259.1</v>
@@ -5277,7 +5299,7 @@
         <v>124</v>
       </c>
       <c r="K99" t="n">
-        <v>13.04347826086956</v>
+        <v>-25</v>
       </c>
       <c r="L99" t="n">
         <v>259.1</v>
@@ -5328,7 +5350,7 @@
         <v>124</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L100" t="n">
         <v>258.9</v>
@@ -5379,7 +5401,7 @@
         <v>124</v>
       </c>
       <c r="K101" t="n">
-        <v>5.263157894736842</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L101" t="n">
         <v>258.7</v>
@@ -5430,7 +5452,7 @@
         <v>124</v>
       </c>
       <c r="K102" t="n">
-        <v>11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L102" t="n">
         <v>258.4</v>
@@ -5481,7 +5503,7 @@
         <v>124</v>
       </c>
       <c r="K103" t="n">
-        <v>11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L103" t="n">
         <v>257.9</v>
@@ -5532,7 +5554,7 @@
         <v>124</v>
       </c>
       <c r="K104" t="n">
-        <v>17.64705882352941</v>
+        <v>-100</v>
       </c>
       <c r="L104" t="n">
         <v>257.7</v>
@@ -5583,7 +5605,7 @@
         <v>124</v>
       </c>
       <c r="K105" t="n">
-        <v>25</v>
+        <v>-100</v>
       </c>
       <c r="L105" t="n">
         <v>257.5</v>
@@ -5634,7 +5656,7 @@
         <v>124</v>
       </c>
       <c r="K106" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L106" t="n">
         <v>257.3</v>
@@ -5685,7 +5707,7 @@
         <v>125</v>
       </c>
       <c r="K107" t="n">
-        <v>14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L107" t="n">
         <v>257</v>
@@ -5736,7 +5758,7 @@
         <v>126</v>
       </c>
       <c r="K108" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>256.9</v>
@@ -5787,7 +5809,7 @@
         <v>127</v>
       </c>
       <c r="K109" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>257</v>
@@ -5838,7 +5860,7 @@
         <v>127</v>
       </c>
       <c r="K110" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>257.1</v>
@@ -5889,7 +5911,7 @@
         <v>127</v>
       </c>
       <c r="K111" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>257.2</v>
@@ -5940,7 +5962,7 @@
         <v>127</v>
       </c>
       <c r="K112" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>257.3</v>
@@ -5991,7 +6013,7 @@
         <v>128</v>
       </c>
       <c r="K113" t="n">
-        <v>-55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>257.3</v>
@@ -6042,7 +6064,7 @@
         <v>129</v>
       </c>
       <c r="K114" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L114" t="n">
         <v>257.4</v>
@@ -6093,7 +6115,7 @@
         <v>129</v>
       </c>
       <c r="K115" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L115" t="n">
         <v>257.5</v>
@@ -6144,7 +6166,7 @@
         <v>129</v>
       </c>
       <c r="K116" t="n">
-        <v>-14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L116" t="n">
         <v>257.6</v>
@@ -6195,7 +6217,7 @@
         <v>129</v>
       </c>
       <c r="K117" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L117" t="n">
         <v>257.8</v>
@@ -6297,7 +6319,7 @@
         <v>129</v>
       </c>
       <c r="K119" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>257.9</v>
@@ -6348,7 +6370,7 @@
         <v>129</v>
       </c>
       <c r="K120" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>257.9</v>
@@ -6450,7 +6472,7 @@
         <v>131</v>
       </c>
       <c r="K122" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>258</v>
@@ -6501,7 +6523,7 @@
         <v>132</v>
       </c>
       <c r="K123" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>258.2</v>
@@ -6552,7 +6574,7 @@
         <v>132</v>
       </c>
       <c r="K124" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>258.3</v>
@@ -6603,7 +6625,7 @@
         <v>132</v>
       </c>
       <c r="K125" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>258.4</v>
@@ -6654,7 +6676,7 @@
         <v>132</v>
       </c>
       <c r="K126" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>258.5</v>
@@ -6705,7 +6727,7 @@
         <v>133</v>
       </c>
       <c r="K127" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>258.5</v>
@@ -6756,7 +6778,7 @@
         <v>133</v>
       </c>
       <c r="K128" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>258.5</v>
@@ -6870,7 +6892,7 @@
         <v>134</v>
       </c>
       <c r="K130" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>258.6</v>
@@ -6929,7 +6951,7 @@
         <v>134</v>
       </c>
       <c r="K131" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>258.6</v>
@@ -6988,7 +7010,7 @@
         <v>134</v>
       </c>
       <c r="K132" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>258.7</v>
@@ -7047,7 +7069,7 @@
         <v>134</v>
       </c>
       <c r="K133" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>258.7</v>
@@ -7106,7 +7128,7 @@
         <v>134</v>
       </c>
       <c r="K134" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>258.7</v>
@@ -7165,7 +7187,7 @@
         <v>134</v>
       </c>
       <c r="K135" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>258.7</v>
@@ -7224,7 +7246,7 @@
         <v>134</v>
       </c>
       <c r="K136" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
         <v>258.7</v>
@@ -7391,7 +7413,7 @@
         <v>135</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L139" t="n">
         <v>258.7</v>
@@ -7442,7 +7464,7 @@
         <v>135</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L140" t="n">
         <v>258.6</v>
@@ -7493,7 +7515,7 @@
         <v>137</v>
       </c>
       <c r="K141" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L141" t="n">
         <v>258.3</v>
@@ -7544,7 +7566,7 @@
         <v>138</v>
       </c>
       <c r="K142" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L142" t="n">
         <v>257.9</v>
@@ -7595,7 +7617,7 @@
         <v>139</v>
       </c>
       <c r="K143" t="n">
-        <v>-42.85714285714285</v>
+        <v>-60</v>
       </c>
       <c r="L143" t="n">
         <v>257.6</v>
@@ -7646,7 +7668,7 @@
         <v>139</v>
       </c>
       <c r="K144" t="n">
-        <v>-42.85714285714285</v>
+        <v>-60</v>
       </c>
       <c r="L144" t="n">
         <v>257.3</v>
@@ -7697,7 +7719,7 @@
         <v>139</v>
       </c>
       <c r="K145" t="n">
-        <v>-42.85714285714285</v>
+        <v>-60</v>
       </c>
       <c r="L145" t="n">
         <v>257</v>
@@ -7748,7 +7770,7 @@
         <v>139</v>
       </c>
       <c r="K146" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L146" t="n">
         <v>256.7</v>
@@ -7799,7 +7821,7 @@
         <v>139</v>
       </c>
       <c r="K147" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L147" t="n">
         <v>256.5</v>
@@ -7850,7 +7872,7 @@
         <v>140</v>
       </c>
       <c r="K148" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L148" t="n">
         <v>256.4</v>
@@ -7901,7 +7923,7 @@
         <v>140</v>
       </c>
       <c r="K149" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L149" t="n">
         <v>256.3</v>
@@ -7952,7 +7974,7 @@
         <v>140</v>
       </c>
       <c r="K150" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L150" t="n">
         <v>256.2</v>
@@ -8003,7 +8025,7 @@
         <v>140</v>
       </c>
       <c r="K151" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L151" t="n">
         <v>256.3</v>
@@ -8054,7 +8076,7 @@
         <v>140</v>
       </c>
       <c r="K152" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L152" t="n">
         <v>256.5</v>
@@ -8105,7 +8127,7 @@
         <v>140</v>
       </c>
       <c r="K153" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L153" t="n">
         <v>256.6</v>
@@ -8156,7 +8178,7 @@
         <v>141</v>
       </c>
       <c r="K154" t="n">
-        <v>-42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>256.6</v>
@@ -8207,7 +8229,7 @@
         <v>141</v>
       </c>
       <c r="K155" t="n">
-        <v>-42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>256.6</v>
@@ -8258,7 +8280,7 @@
         <v>142</v>
       </c>
       <c r="K156" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L156" t="n">
         <v>256.5</v>
@@ -8309,7 +8331,7 @@
         <v>142</v>
       </c>
       <c r="K157" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L157" t="n">
         <v>256.4</v>
@@ -8360,7 +8382,7 @@
         <v>142</v>
       </c>
       <c r="K158" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L158" t="n">
         <v>256.2</v>
@@ -8411,7 +8433,7 @@
         <v>143</v>
       </c>
       <c r="K159" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L159" t="n">
         <v>256.1</v>
@@ -8462,7 +8484,7 @@
         <v>143</v>
       </c>
       <c r="K160" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L160" t="n">
         <v>256</v>
@@ -8513,7 +8535,7 @@
         <v>143</v>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>255.9</v>
@@ -8564,7 +8586,7 @@
         <v>144</v>
       </c>
       <c r="K162" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>255.9</v>
@@ -8717,7 +8739,7 @@
         <v>145</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L165" t="n">
         <v>255.8</v>
@@ -8768,7 +8790,7 @@
         <v>145</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>255.9</v>
@@ -8819,7 +8841,7 @@
         <v>145</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L167" t="n">
         <v>256</v>
@@ -8921,7 +8943,7 @@
         <v>147</v>
       </c>
       <c r="K169" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>256</v>
@@ -8972,7 +8994,7 @@
         <v>148</v>
       </c>
       <c r="K170" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L170" t="n">
         <v>255.9</v>
@@ -9023,7 +9045,7 @@
         <v>149</v>
       </c>
       <c r="K171" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L171" t="n">
         <v>255.9</v>
@@ -9074,7 +9096,7 @@
         <v>149</v>
       </c>
       <c r="K172" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>255.8</v>
@@ -9125,7 +9147,7 @@
         <v>149</v>
       </c>
       <c r="K173" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>255.8</v>
@@ -9227,7 +9249,7 @@
         <v>150</v>
       </c>
       <c r="K175" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L175" t="n">
         <v>255.9</v>
@@ -9278,7 +9300,7 @@
         <v>151</v>
       </c>
       <c r="K176" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>255.9</v>
@@ -9380,7 +9402,7 @@
         <v>152</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L178" t="n">
         <v>255.8</v>
@@ -9584,7 +9606,7 @@
         <v>155</v>
       </c>
       <c r="K182" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>255.7</v>
@@ -9686,7 +9708,7 @@
         <v>156</v>
       </c>
       <c r="K184" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>255.6</v>
@@ -9737,7 +9759,7 @@
         <v>156</v>
       </c>
       <c r="K185" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L185" t="n">
         <v>255.4</v>
@@ -9788,7 +9810,7 @@
         <v>156</v>
       </c>
       <c r="K186" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>255.3</v>
@@ -9839,7 +9861,7 @@
         <v>156</v>
       </c>
       <c r="K187" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>255.3</v>
@@ -9890,7 +9912,7 @@
         <v>156</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>255.3</v>
@@ -9992,7 +10014,7 @@
         <v>157</v>
       </c>
       <c r="K190" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>255.5</v>
@@ -10043,7 +10065,7 @@
         <v>158</v>
       </c>
       <c r="K191" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L191" t="n">
         <v>255.4</v>
@@ -10094,7 +10116,7 @@
         <v>160</v>
       </c>
       <c r="K192" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L192" t="n">
         <v>255.5</v>
@@ -10145,7 +10167,7 @@
         <v>162</v>
       </c>
       <c r="K193" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>255.4</v>
@@ -10196,7 +10218,7 @@
         <v>163</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L194" t="n">
         <v>255.5</v>
@@ -10247,7 +10269,7 @@
         <v>164</v>
       </c>
       <c r="K195" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>255.5</v>
@@ -10298,7 +10320,7 @@
         <v>164</v>
       </c>
       <c r="K196" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>255.5</v>
@@ -10400,7 +10422,7 @@
         <v>165</v>
       </c>
       <c r="K198" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>255.6</v>
@@ -10451,7 +10473,7 @@
         <v>166</v>
       </c>
       <c r="K199" t="n">
-        <v>7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L199" t="n">
         <v>255.5</v>
@@ -10502,7 +10524,7 @@
         <v>166</v>
       </c>
       <c r="K200" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>255.4</v>
@@ -10553,7 +10575,7 @@
         <v>167</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L201" t="n">
         <v>255.5</v>
@@ -10604,7 +10626,7 @@
         <v>168</v>
       </c>
       <c r="K202" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>255.3</v>
@@ -10757,7 +10779,7 @@
         <v>171</v>
       </c>
       <c r="K205" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L205" t="n">
         <v>255.4</v>
@@ -10808,7 +10830,7 @@
         <v>171</v>
       </c>
       <c r="K206" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L206" t="n">
         <v>255.5</v>
@@ -10859,7 +10881,7 @@
         <v>171</v>
       </c>
       <c r="K207" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>255.6</v>
@@ -10910,7 +10932,7 @@
         <v>171</v>
       </c>
       <c r="K208" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L208" t="n">
         <v>255.6</v>
@@ -10961,7 +10983,7 @@
         <v>171</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L209" t="n">
         <v>255.7</v>
@@ -11063,7 +11085,7 @@
         <v>171</v>
       </c>
       <c r="K211" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L211" t="n">
         <v>255.8</v>
@@ -11114,7 +11136,7 @@
         <v>171</v>
       </c>
       <c r="K212" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
         <v>255.9</v>
@@ -11165,7 +11187,7 @@
         <v>171</v>
       </c>
       <c r="K213" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L213" t="n">
         <v>255.9</v>
@@ -11216,7 +11238,7 @@
         <v>172</v>
       </c>
       <c r="K214" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L214" t="n">
         <v>255.9</v>
@@ -11267,7 +11289,7 @@
         <v>172</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L215" t="n">
         <v>255.8</v>
@@ -11318,7 +11340,7 @@
         <v>172</v>
       </c>
       <c r="K216" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L216" t="n">
         <v>255.7</v>
@@ -11369,7 +11391,7 @@
         <v>172</v>
       </c>
       <c r="K217" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L217" t="n">
         <v>255.6</v>
@@ -11420,7 +11442,7 @@
         <v>172</v>
       </c>
       <c r="K218" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L218" t="n">
         <v>255.5</v>
@@ -11471,7 +11493,7 @@
         <v>172</v>
       </c>
       <c r="K219" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L219" t="n">
         <v>255.4</v>
@@ -11522,7 +11544,7 @@
         <v>173</v>
       </c>
       <c r="K220" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>255.4</v>
@@ -11573,7 +11595,7 @@
         <v>174</v>
       </c>
       <c r="K221" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L221" t="n">
         <v>255.3</v>
@@ -11624,7 +11646,7 @@
         <v>174</v>
       </c>
       <c r="K222" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L222" t="n">
         <v>255.2</v>
@@ -11675,7 +11697,7 @@
         <v>175</v>
       </c>
       <c r="K223" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L223" t="n">
         <v>255.2</v>
@@ -11777,7 +11799,7 @@
         <v>176</v>
       </c>
       <c r="K225" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>255.2</v>
@@ -11828,7 +11850,7 @@
         <v>177</v>
       </c>
       <c r="K226" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L226" t="n">
         <v>255.3</v>
@@ -11879,7 +11901,7 @@
         <v>177</v>
       </c>
       <c r="K227" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L227" t="n">
         <v>255.4</v>
@@ -11930,7 +11952,7 @@
         <v>177</v>
       </c>
       <c r="K228" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L228" t="n">
         <v>255.5</v>
@@ -12032,7 +12054,7 @@
         <v>178</v>
       </c>
       <c r="K230" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L230" t="n">
         <v>255.7</v>
@@ -12083,7 +12105,7 @@
         <v>179</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L231" t="n">
         <v>255.8</v>
@@ -12185,7 +12207,7 @@
         <v>179</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>255.9</v>
@@ -12236,7 +12258,7 @@
         <v>179</v>
       </c>
       <c r="K234" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L234" t="n">
         <v>256</v>
@@ -12287,7 +12309,7 @@
         <v>179</v>
       </c>
       <c r="K235" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>256.1</v>
@@ -12338,7 +12360,7 @@
         <v>179</v>
       </c>
       <c r="K236" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>256.1</v>
@@ -12389,7 +12411,7 @@
         <v>179</v>
       </c>
       <c r="K237" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>256.1</v>
@@ -12440,7 +12462,7 @@
         <v>179</v>
       </c>
       <c r="K238" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>256.1</v>
@@ -12491,7 +12513,7 @@
         <v>179</v>
       </c>
       <c r="K239" t="n">
-        <v>14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L239" t="n">
         <v>256.1</v>
@@ -12542,7 +12564,7 @@
         <v>180</v>
       </c>
       <c r="K240" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L240" t="n">
         <v>256.1</v>
@@ -12593,7 +12615,7 @@
         <v>180</v>
       </c>
       <c r="K241" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L241" t="n">
         <v>256.2</v>
@@ -12644,7 +12666,7 @@
         <v>181</v>
       </c>
       <c r="K242" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>256.2</v>
@@ -12695,7 +12717,7 @@
         <v>182</v>
       </c>
       <c r="K243" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L243" t="n">
         <v>256.3</v>
@@ -12797,7 +12819,7 @@
         <v>183</v>
       </c>
       <c r="K245" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L245" t="n">
         <v>256.4</v>
@@ -12848,7 +12870,7 @@
         <v>184</v>
       </c>
       <c r="K246" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L246" t="n">
         <v>256.5</v>
@@ -13001,7 +13023,7 @@
         <v>185</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L249" t="n">
         <v>256.5</v>
@@ -13052,7 +13074,7 @@
         <v>186</v>
       </c>
       <c r="K250" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L250" t="n">
         <v>256.3</v>
@@ -13103,7 +13125,7 @@
         <v>186</v>
       </c>
       <c r="K251" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L251" t="n">
         <v>256.1</v>
@@ -13154,7 +13176,7 @@
         <v>187</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L252" t="n">
         <v>256.1</v>
@@ -13205,7 +13227,7 @@
         <v>187</v>
       </c>
       <c r="K253" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L253" t="n">
         <v>256</v>
@@ -13307,7 +13329,7 @@
         <v>187</v>
       </c>
       <c r="K255" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L255" t="n">
         <v>255.9</v>
@@ -13511,7 +13533,7 @@
         <v>187</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L259" t="n">
         <v>255.8</v>
@@ -13562,7 +13584,7 @@
         <v>187</v>
       </c>
       <c r="K260" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L260" t="n">
         <v>255.9</v>
@@ -13612,9 +13634,7 @@
       <c r="J261" t="n">
         <v>187</v>
       </c>
-      <c r="K261" t="n">
-        <v>-14.28571428571428</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>256</v>
       </c>
@@ -13663,9 +13683,7 @@
       <c r="J262" t="n">
         <v>187</v>
       </c>
-      <c r="K262" t="n">
-        <v>0</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>256</v>
       </c>
@@ -13715,7 +13733,7 @@
         <v>188</v>
       </c>
       <c r="K263" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L263" t="n">
         <v>255.9</v>
@@ -13766,7 +13784,7 @@
         <v>190</v>
       </c>
       <c r="K264" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L264" t="n">
         <v>256</v>
@@ -13868,7 +13886,7 @@
         <v>192</v>
       </c>
       <c r="K266" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L266" t="n">
         <v>256.1</v>
@@ -14021,7 +14039,7 @@
         <v>194</v>
       </c>
       <c r="K269" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L269" t="n">
         <v>256.2</v>
@@ -14072,7 +14090,7 @@
         <v>195</v>
       </c>
       <c r="K270" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>256.2</v>
@@ -14123,7 +14141,7 @@
         <v>195</v>
       </c>
       <c r="K271" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L271" t="n">
         <v>256.2</v>
@@ -14174,7 +14192,7 @@
         <v>195</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L272" t="n">
         <v>256.2</v>
@@ -14225,7 +14243,7 @@
         <v>196</v>
       </c>
       <c r="K273" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L273" t="n">
         <v>256.2</v>
@@ -14276,7 +14294,7 @@
         <v>197</v>
       </c>
       <c r="K274" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L274" t="n">
         <v>255.9</v>
@@ -14327,7 +14345,7 @@
         <v>198</v>
       </c>
       <c r="K275" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L275" t="n">
         <v>255.8</v>
@@ -14378,7 +14396,7 @@
         <v>198</v>
       </c>
       <c r="K276" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L276" t="n">
         <v>255.6</v>
@@ -14480,7 +14498,7 @@
         <v>199</v>
       </c>
       <c r="K278" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L278" t="n">
         <v>255.6</v>
@@ -14582,7 +14600,7 @@
         <v>200</v>
       </c>
       <c r="K280" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L280" t="n">
         <v>255.4</v>
@@ -14633,7 +14651,7 @@
         <v>201</v>
       </c>
       <c r="K281" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L281" t="n">
         <v>255.2</v>
@@ -14684,7 +14702,7 @@
         <v>202</v>
       </c>
       <c r="K282" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
         <v>255.1</v>
@@ -14735,7 +14753,7 @@
         <v>203</v>
       </c>
       <c r="K283" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>255</v>
@@ -14786,7 +14804,7 @@
         <v>203</v>
       </c>
       <c r="K284" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L284" t="n">
         <v>255</v>
@@ -14837,7 +14855,7 @@
         <v>205</v>
       </c>
       <c r="K285" t="n">
-        <v>-28.57142857142857</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L285" t="n">
         <v>254.7</v>
@@ -14888,7 +14906,7 @@
         <v>206</v>
       </c>
       <c r="K286" t="n">
-        <v>-42.85714285714285</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L286" t="n">
         <v>254.3</v>
@@ -14939,7 +14957,7 @@
         <v>206</v>
       </c>
       <c r="K287" t="n">
-        <v>-38.46153846153847</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L287" t="n">
         <v>253.8</v>
@@ -14990,7 +15008,7 @@
         <v>206</v>
       </c>
       <c r="K288" t="n">
-        <v>-38.46153846153847</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L288" t="n">
         <v>253.3</v>
@@ -15041,7 +15059,7 @@
         <v>206</v>
       </c>
       <c r="K289" t="n">
-        <v>-50</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L289" t="n">
         <v>252.8</v>
@@ -15092,7 +15110,7 @@
         <v>207</v>
       </c>
       <c r="K290" t="n">
-        <v>-50</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L290" t="n">
         <v>252.3</v>
@@ -15143,7 +15161,7 @@
         <v>207</v>
       </c>
       <c r="K291" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L291" t="n">
         <v>251.9</v>
@@ -15194,7 +15212,7 @@
         <v>207</v>
       </c>
       <c r="K292" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L292" t="n">
         <v>251.4</v>
@@ -15245,7 +15263,7 @@
         <v>208</v>
       </c>
       <c r="K293" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L293" t="n">
         <v>251.1</v>
@@ -15296,7 +15314,7 @@
         <v>209</v>
       </c>
       <c r="K294" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L294" t="n">
         <v>250.7</v>
@@ -15347,7 +15365,7 @@
         <v>209</v>
       </c>
       <c r="K295" t="n">
-        <v>-45.45454545454545</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L295" t="n">
         <v>250.5</v>
@@ -15398,7 +15416,7 @@
         <v>209</v>
       </c>
       <c r="K296" t="n">
-        <v>-45.45454545454545</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>250.4</v>
@@ -15449,7 +15467,7 @@
         <v>209</v>
       </c>
       <c r="K297" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L297" t="n">
         <v>250.3</v>
@@ -15500,7 +15518,7 @@
         <v>209</v>
       </c>
       <c r="K298" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L298" t="n">
         <v>250.2</v>
@@ -15551,7 +15569,7 @@
         <v>210</v>
       </c>
       <c r="K299" t="n">
-        <v>-63.63636363636363</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L299" t="n">
         <v>250</v>
@@ -15602,7 +15620,7 @@
         <v>210</v>
       </c>
       <c r="K300" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L300" t="n">
         <v>249.9</v>
@@ -15653,7 +15671,7 @@
         <v>210</v>
       </c>
       <c r="K301" t="n">
-        <v>-55.55555555555556</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L301" t="n">
         <v>249.8</v>
@@ -15704,7 +15722,7 @@
         <v>211</v>
       </c>
       <c r="K302" t="n">
-        <v>-55.55555555555556</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L302" t="n">
         <v>249.8</v>
@@ -15755,7 +15773,7 @@
         <v>212</v>
       </c>
       <c r="K303" t="n">
-        <v>-55.55555555555556</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L303" t="n">
         <v>249.6</v>
@@ -15806,7 +15824,7 @@
         <v>212</v>
       </c>
       <c r="K304" t="n">
-        <v>-55.55555555555556</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L304" t="n">
         <v>249.5</v>
@@ -15908,7 +15926,7 @@
         <v>213</v>
       </c>
       <c r="K306" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L306" t="n">
         <v>249.1</v>
@@ -15959,7 +15977,7 @@
         <v>213</v>
       </c>
       <c r="K307" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L307" t="n">
         <v>248.9</v>
@@ -16010,7 +16028,7 @@
         <v>214</v>
       </c>
       <c r="K308" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L308" t="n">
         <v>248.8</v>
@@ -16061,7 +16079,7 @@
         <v>214</v>
       </c>
       <c r="K309" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
         <v>248.8</v>
@@ -16112,7 +16130,7 @@
         <v>214</v>
       </c>
       <c r="K310" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L310" t="n">
         <v>248.8</v>
@@ -16163,7 +16181,7 @@
         <v>215</v>
       </c>
       <c r="K311" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L311" t="n">
         <v>248.7</v>
@@ -16214,7 +16232,7 @@
         <v>215</v>
       </c>
       <c r="K312" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L312" t="n">
         <v>248.5</v>
@@ -16316,7 +16334,7 @@
         <v>216</v>
       </c>
       <c r="K314" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L314" t="n">
         <v>248.1</v>
@@ -16367,7 +16385,7 @@
         <v>216</v>
       </c>
       <c r="K315" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L315" t="n">
         <v>248</v>
@@ -16418,7 +16436,7 @@
         <v>217</v>
       </c>
       <c r="K316" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
         <v>248</v>
@@ -16469,7 +16487,7 @@
         <v>217</v>
       </c>
       <c r="K317" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L317" t="n">
         <v>248</v>
@@ -16520,7 +16538,7 @@
         <v>218</v>
       </c>
       <c r="K318" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L318" t="n">
         <v>247.8</v>
@@ -16571,7 +16589,7 @@
         <v>219</v>
       </c>
       <c r="K319" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L319" t="n">
         <v>247.7</v>
@@ -16673,7 +16691,7 @@
         <v>222</v>
       </c>
       <c r="K321" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L321" t="n">
         <v>247.6</v>
@@ -16724,7 +16742,7 @@
         <v>223</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L322" t="n">
         <v>247.8</v>
@@ -16775,7 +16793,7 @@
         <v>224</v>
       </c>
       <c r="K323" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L323" t="n">
         <v>248.2</v>
@@ -16826,7 +16844,7 @@
         <v>225</v>
       </c>
       <c r="K324" t="n">
-        <v>23.07692307692308</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L324" t="n">
         <v>248.7</v>
@@ -16877,7 +16895,7 @@
         <v>226</v>
       </c>
       <c r="K325" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L325" t="n">
         <v>249.1</v>
@@ -16928,7 +16946,7 @@
         <v>227</v>
       </c>
       <c r="K326" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L326" t="n">
         <v>249.3</v>
@@ -16979,7 +16997,7 @@
         <v>228</v>
       </c>
       <c r="K327" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L327" t="n">
         <v>249.4</v>
@@ -17030,7 +17048,7 @@
         <v>228</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L328" t="n">
         <v>249.6</v>
@@ -17081,7 +17099,7 @@
         <v>228</v>
       </c>
       <c r="K329" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L329" t="n">
         <v>249.7</v>
@@ -17183,7 +17201,7 @@
         <v>228</v>
       </c>
       <c r="K331" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L331" t="n">
         <v>249.9</v>
@@ -17234,7 +17252,7 @@
         <v>229</v>
       </c>
       <c r="K332" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L332" t="n">
         <v>249.9</v>
@@ -17285,7 +17303,7 @@
         <v>229</v>
       </c>
       <c r="K333" t="n">
-        <v>23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L333" t="n">
         <v>249.8</v>
@@ -17336,7 +17354,7 @@
         <v>229</v>
       </c>
       <c r="K334" t="n">
-        <v>23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L334" t="n">
         <v>249.6</v>
@@ -17387,7 +17405,7 @@
         <v>230</v>
       </c>
       <c r="K335" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L335" t="n">
         <v>249.6</v>
@@ -17438,7 +17456,7 @@
         <v>230</v>
       </c>
       <c r="K336" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L336" t="n">
         <v>249.7</v>
@@ -17489,7 +17507,7 @@
         <v>231</v>
       </c>
       <c r="K337" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L337" t="n">
         <v>249.8</v>
@@ -17540,7 +17558,7 @@
         <v>231</v>
       </c>
       <c r="K338" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L338" t="n">
         <v>249.9</v>
@@ -17591,7 +17609,7 @@
         <v>231</v>
       </c>
       <c r="K339" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L339" t="n">
         <v>250</v>
@@ -17642,7 +17660,7 @@
         <v>231</v>
       </c>
       <c r="K340" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L340" t="n">
         <v>250.1</v>
@@ -17693,7 +17711,7 @@
         <v>232</v>
       </c>
       <c r="K341" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L341" t="n">
         <v>250.1</v>
@@ -17846,7 +17864,7 @@
         <v>234</v>
       </c>
       <c r="K344" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L344" t="n">
         <v>249.9</v>
@@ -17897,7 +17915,7 @@
         <v>234</v>
       </c>
       <c r="K345" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L345" t="n">
         <v>249.7</v>
@@ -17948,7 +17966,7 @@
         <v>234</v>
       </c>
       <c r="K346" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L346" t="n">
         <v>249.5</v>
@@ -17999,7 +18017,7 @@
         <v>235</v>
       </c>
       <c r="K347" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>249.5</v>
@@ -18050,7 +18068,7 @@
         <v>235</v>
       </c>
       <c r="K348" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L348" t="n">
         <v>249.5</v>
@@ -18101,7 +18119,7 @@
         <v>236</v>
       </c>
       <c r="K349" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L349" t="n">
         <v>249.6</v>
@@ -18152,7 +18170,7 @@
         <v>237</v>
       </c>
       <c r="K350" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L350" t="n">
         <v>249.6</v>
@@ -18254,7 +18272,7 @@
         <v>239</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L352" t="n">
         <v>249.8</v>
@@ -18305,7 +18323,7 @@
         <v>240</v>
       </c>
       <c r="K353" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L353" t="n">
         <v>250</v>
@@ -18356,7 +18374,7 @@
         <v>240</v>
       </c>
       <c r="K354" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L354" t="n">
         <v>250.2</v>
@@ -18407,7 +18425,7 @@
         <v>240</v>
       </c>
       <c r="K355" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>250.4</v>
@@ -18458,7 +18476,7 @@
         <v>240</v>
       </c>
       <c r="K356" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L356" t="n">
         <v>250.6</v>
@@ -18509,7 +18527,7 @@
         <v>240</v>
       </c>
       <c r="K357" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L357" t="n">
         <v>250.7</v>
@@ -18560,7 +18578,7 @@
         <v>240</v>
       </c>
       <c r="K358" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>250.8</v>
@@ -18611,7 +18629,7 @@
         <v>240</v>
       </c>
       <c r="K359" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L359" t="n">
         <v>250.8</v>
@@ -18662,7 +18680,7 @@
         <v>240</v>
       </c>
       <c r="K360" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L360" t="n">
         <v>250.9</v>
@@ -18713,7 +18731,7 @@
         <v>241</v>
       </c>
       <c r="K361" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L361" t="n">
         <v>250.8</v>
@@ -18764,7 +18782,7 @@
         <v>241</v>
       </c>
       <c r="K362" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L362" t="n">
         <v>250.8</v>
@@ -18815,7 +18833,7 @@
         <v>242</v>
       </c>
       <c r="K363" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
         <v>250.8</v>
@@ -18866,7 +18884,7 @@
         <v>242</v>
       </c>
       <c r="K364" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L364" t="n">
         <v>250.8</v>
@@ -18917,7 +18935,7 @@
         <v>242</v>
       </c>
       <c r="K365" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L365" t="n">
         <v>250.8</v>
@@ -18968,7 +18986,7 @@
         <v>243</v>
       </c>
       <c r="K366" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L366" t="n">
         <v>250.7</v>
@@ -19019,7 +19037,7 @@
         <v>243</v>
       </c>
       <c r="K367" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L367" t="n">
         <v>250.6</v>
@@ -19070,7 +19088,7 @@
         <v>243</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L368" t="n">
         <v>250.5</v>
@@ -19121,7 +19139,7 @@
         <v>243</v>
       </c>
       <c r="K369" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L369" t="n">
         <v>250.4</v>
@@ -19223,7 +19241,7 @@
         <v>244</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L371" t="n">
         <v>250.4</v>
@@ -19274,7 +19292,7 @@
         <v>244</v>
       </c>
       <c r="K372" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L372" t="n">
         <v>250.5</v>
@@ -19427,7 +19445,7 @@
         <v>245</v>
       </c>
       <c r="K375" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L375" t="n">
         <v>250.4</v>
@@ -19478,7 +19496,7 @@
         <v>245</v>
       </c>
       <c r="K376" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>250.4</v>
@@ -19529,7 +19547,7 @@
         <v>245</v>
       </c>
       <c r="K377" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L377" t="n">
         <v>250.4</v>
@@ -19580,7 +19598,7 @@
         <v>245</v>
       </c>
       <c r="K378" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>250.4</v>
@@ -19631,7 +19649,7 @@
         <v>245</v>
       </c>
       <c r="K379" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L379" t="n">
         <v>250.4</v>
@@ -19733,7 +19751,7 @@
         <v>246</v>
       </c>
       <c r="K381" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>250.5</v>
@@ -19784,7 +19802,7 @@
         <v>246</v>
       </c>
       <c r="K382" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L382" t="n">
         <v>250.5</v>
@@ -19835,7 +19853,7 @@
         <v>247</v>
       </c>
       <c r="K383" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L383" t="n">
         <v>250.6</v>
@@ -19886,7 +19904,7 @@
         <v>247</v>
       </c>
       <c r="K384" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L384" t="n">
         <v>250.7</v>
@@ -19937,7 +19955,7 @@
         <v>247</v>
       </c>
       <c r="K385" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L385" t="n">
         <v>250.9</v>
@@ -19988,7 +20006,7 @@
         <v>248</v>
       </c>
       <c r="K386" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L386" t="n">
         <v>251.2</v>
@@ -20039,7 +20057,7 @@
         <v>249</v>
       </c>
       <c r="K387" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L387" t="n">
         <v>251.4</v>
@@ -20090,7 +20108,7 @@
         <v>249</v>
       </c>
       <c r="K388" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L388" t="n">
         <v>251.6</v>
@@ -20141,7 +20159,7 @@
         <v>250</v>
       </c>
       <c r="K389" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L389" t="n">
         <v>251.7</v>
@@ -20192,7 +20210,7 @@
         <v>251</v>
       </c>
       <c r="K390" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L390" t="n">
         <v>251.8</v>
@@ -20243,7 +20261,7 @@
         <v>253</v>
       </c>
       <c r="K391" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L391" t="n">
         <v>252.1</v>
@@ -20396,7 +20414,7 @@
         <v>255</v>
       </c>
       <c r="K394" t="n">
-        <v>45.45454545454545</v>
+        <v>50</v>
       </c>
       <c r="L394" t="n">
         <v>253</v>
@@ -20447,7 +20465,7 @@
         <v>255</v>
       </c>
       <c r="K395" t="n">
-        <v>60</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L395" t="n">
         <v>253.4</v>
@@ -20498,7 +20516,7 @@
         <v>256</v>
       </c>
       <c r="K396" t="n">
-        <v>45.45454545454545</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L396" t="n">
         <v>253.6</v>
@@ -20549,7 +20567,7 @@
         <v>256</v>
       </c>
       <c r="K397" t="n">
-        <v>45.45454545454545</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L397" t="n">
         <v>253.9</v>
@@ -20600,7 +20618,7 @@
         <v>257</v>
       </c>
       <c r="K398" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L398" t="n">
         <v>254.1</v>
@@ -20702,7 +20720,7 @@
         <v>258</v>
       </c>
       <c r="K400" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L400" t="n">
         <v>254.7</v>
@@ -20753,7 +20771,7 @@
         <v>259</v>
       </c>
       <c r="K401" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L401" t="n">
         <v>254.7</v>
@@ -20804,7 +20822,7 @@
         <v>259</v>
       </c>
       <c r="K402" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>254.7</v>
@@ -20855,7 +20873,7 @@
         <v>259</v>
       </c>
       <c r="K403" t="n">
-        <v>16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L403" t="n">
         <v>254.7</v>
@@ -20906,7 +20924,7 @@
         <v>259</v>
       </c>
       <c r="K404" t="n">
-        <v>16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L404" t="n">
         <v>254.5</v>
@@ -20957,7 +20975,7 @@
         <v>261</v>
       </c>
       <c r="K405" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L405" t="n">
         <v>254.5</v>
@@ -21008,7 +21026,7 @@
         <v>265</v>
       </c>
       <c r="K406" t="n">
-        <v>41.17647058823529</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L406" t="n">
         <v>255</v>
@@ -21059,7 +21077,7 @@
         <v>265</v>
       </c>
       <c r="K407" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L407" t="n">
         <v>255.5</v>
@@ -21110,7 +21128,7 @@
         <v>265</v>
       </c>
       <c r="K408" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L408" t="n">
         <v>256.1</v>
@@ -21161,7 +21179,7 @@
         <v>265</v>
       </c>
       <c r="K409" t="n">
-        <v>60</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L409" t="n">
         <v>256.7</v>
@@ -21212,7 +21230,7 @@
         <v>265</v>
       </c>
       <c r="K410" t="n">
-        <v>57.14285714285714</v>
+        <v>100</v>
       </c>
       <c r="L410" t="n">
         <v>257.2</v>
@@ -21263,7 +21281,7 @@
         <v>267</v>
       </c>
       <c r="K411" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L411" t="n">
         <v>257.6</v>
@@ -21314,7 +21332,7 @@
         <v>268</v>
       </c>
       <c r="K412" t="n">
-        <v>33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L412" t="n">
         <v>258.1</v>
@@ -21365,7 +21383,7 @@
         <v>268</v>
       </c>
       <c r="K413" t="n">
-        <v>33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L413" t="n">
         <v>258.6</v>
@@ -21416,7 +21434,7 @@
         <v>269</v>
       </c>
       <c r="K414" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L414" t="n">
         <v>259</v>
@@ -21467,7 +21485,7 @@
         <v>272</v>
       </c>
       <c r="K415" t="n">
-        <v>-5.88235294117647</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L415" t="n">
         <v>258.9</v>
@@ -21518,7 +21536,7 @@
         <v>272</v>
       </c>
       <c r="K416" t="n">
-        <v>0</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L416" t="n">
         <v>258.4</v>
@@ -21569,7 +21587,7 @@
         <v>273</v>
       </c>
       <c r="K417" t="n">
-        <v>-5.88235294117647</v>
+        <v>-75</v>
       </c>
       <c r="L417" t="n">
         <v>257.8</v>
@@ -21620,7 +21638,7 @@
         <v>274</v>
       </c>
       <c r="K418" t="n">
-        <v>5.88235294117647</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L418" t="n">
         <v>257.3</v>
@@ -21671,7 +21689,7 @@
         <v>275</v>
       </c>
       <c r="K419" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L419" t="n">
         <v>256.7</v>
@@ -21722,7 +21740,7 @@
         <v>276</v>
       </c>
       <c r="K420" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L420" t="n">
         <v>256.2</v>
@@ -21773,7 +21791,7 @@
         <v>276</v>
       </c>
       <c r="K421" t="n">
-        <v>5.88235294117647</v>
+        <v>-50</v>
       </c>
       <c r="L421" t="n">
         <v>255.9</v>
@@ -21824,7 +21842,7 @@
         <v>276</v>
       </c>
       <c r="K422" t="n">
-        <v>5.88235294117647</v>
+        <v>-50</v>
       </c>
       <c r="L422" t="n">
         <v>255.5</v>
@@ -21875,7 +21893,7 @@
         <v>276</v>
       </c>
       <c r="K423" t="n">
-        <v>5.88235294117647</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L423" t="n">
         <v>255.1</v>
@@ -21926,7 +21944,7 @@
         <v>276</v>
       </c>
       <c r="K424" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L424" t="n">
         <v>254.8</v>
@@ -21977,7 +21995,7 @@
         <v>277</v>
       </c>
       <c r="K425" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L425" t="n">
         <v>254.9</v>
@@ -22028,7 +22046,7 @@
         <v>277</v>
       </c>
       <c r="K426" t="n">
-        <v>-33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L426" t="n">
         <v>255</v>
@@ -22079,7 +22097,7 @@
         <v>277</v>
       </c>
       <c r="K427" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L427" t="n">
         <v>255.2</v>
@@ -22130,7 +22148,7 @@
         <v>277</v>
       </c>
       <c r="K428" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L428" t="n">
         <v>255.3</v>
@@ -22181,7 +22199,7 @@
         <v>278</v>
       </c>
       <c r="K429" t="n">
-        <v>-38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L429" t="n">
         <v>255.4</v>
@@ -22232,7 +22250,7 @@
         <v>278</v>
       </c>
       <c r="K430" t="n">
-        <v>-38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L430" t="n">
         <v>255.4</v>
@@ -22283,7 +22301,7 @@
         <v>280</v>
       </c>
       <c r="K431" t="n">
-        <v>-38.46153846153847</v>
+        <v>-50</v>
       </c>
       <c r="L431" t="n">
         <v>255.2</v>
@@ -22334,7 +22352,7 @@
         <v>281</v>
       </c>
       <c r="K432" t="n">
-        <v>-53.84615384615385</v>
+        <v>-60</v>
       </c>
       <c r="L432" t="n">
         <v>254.9</v>
@@ -22385,7 +22403,7 @@
         <v>282</v>
       </c>
       <c r="K433" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L433" t="n">
         <v>254.7</v>
@@ -22436,7 +22454,7 @@
         <v>283</v>
       </c>
       <c r="K434" t="n">
-        <v>-42.85714285714285</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L434" t="n">
         <v>254.4</v>
@@ -22487,7 +22505,7 @@
         <v>283</v>
       </c>
       <c r="K435" t="n">
-        <v>-27.27272727272727</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L435" t="n">
         <v>254</v>
@@ -22538,7 +22556,7 @@
         <v>284</v>
       </c>
       <c r="K436" t="n">
-        <v>-33.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L436" t="n">
         <v>253.5</v>
@@ -22589,7 +22607,7 @@
         <v>285</v>
       </c>
       <c r="K437" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L437" t="n">
         <v>253.1</v>
@@ -22640,7 +22658,7 @@
         <v>285</v>
       </c>
       <c r="K438" t="n">
-        <v>-27.27272727272727</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L438" t="n">
         <v>252.7</v>
@@ -22691,7 +22709,7 @@
         <v>285</v>
       </c>
       <c r="K439" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L439" t="n">
         <v>252.4</v>
@@ -22742,7 +22760,7 @@
         <v>286</v>
       </c>
       <c r="K440" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L440" t="n">
         <v>252</v>
@@ -22793,7 +22811,7 @@
         <v>287</v>
       </c>
       <c r="K441" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L441" t="n">
         <v>251.9</v>
@@ -22844,7 +22862,7 @@
         <v>288</v>
       </c>
       <c r="K442" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L442" t="n">
         <v>252</v>
@@ -22895,7 +22913,7 @@
         <v>288</v>
       </c>
       <c r="K443" t="n">
-        <v>-16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L443" t="n">
         <v>252</v>
@@ -22946,7 +22964,7 @@
         <v>288</v>
       </c>
       <c r="K444" t="n">
-        <v>-16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L444" t="n">
         <v>252.1</v>
@@ -22997,7 +23015,7 @@
         <v>288</v>
       </c>
       <c r="K445" t="n">
-        <v>-27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L445" t="n">
         <v>252.2</v>
@@ -23048,7 +23066,7 @@
         <v>288</v>
       </c>
       <c r="K446" t="n">
-        <v>-27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L446" t="n">
         <v>252.4</v>
@@ -23099,7 +23117,7 @@
         <v>288</v>
       </c>
       <c r="K447" t="n">
-        <v>-27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L447" t="n">
         <v>252.5</v>
@@ -23150,7 +23168,7 @@
         <v>289</v>
       </c>
       <c r="K448" t="n">
-        <v>-16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L448" t="n">
         <v>252.7</v>
@@ -23201,7 +23219,7 @@
         <v>289</v>
       </c>
       <c r="K449" t="n">
-        <v>-9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L449" t="n">
         <v>252.9</v>
@@ -23252,7 +23270,7 @@
         <v>290</v>
       </c>
       <c r="K450" t="n">
-        <v>-16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L450" t="n">
         <v>253.1</v>
@@ -23303,7 +23321,7 @@
         <v>292</v>
       </c>
       <c r="K451" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L451" t="n">
         <v>253</v>
@@ -23354,7 +23372,7 @@
         <v>293</v>
       </c>
       <c r="K452" t="n">
-        <v>-16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L452" t="n">
         <v>252.7</v>
@@ -23405,7 +23423,7 @@
         <v>295</v>
       </c>
       <c r="K453" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L453" t="n">
         <v>252.6</v>
@@ -23456,7 +23474,7 @@
         <v>295</v>
       </c>
       <c r="K454" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L454" t="n">
         <v>252.5</v>
@@ -23507,7 +23525,7 @@
         <v>296</v>
       </c>
       <c r="K455" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L455" t="n">
         <v>252.5</v>
@@ -23558,7 +23576,7 @@
         <v>296</v>
       </c>
       <c r="K456" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>252.5</v>
@@ -23609,7 +23627,7 @@
         <v>297</v>
       </c>
       <c r="K457" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L457" t="n">
         <v>252.4</v>
@@ -23660,7 +23678,7 @@
         <v>297</v>
       </c>
       <c r="K458" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L458" t="n">
         <v>252.2</v>
@@ -23711,7 +23729,7 @@
         <v>297</v>
       </c>
       <c r="K459" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L459" t="n">
         <v>252</v>
@@ -23762,7 +23780,7 @@
         <v>297</v>
       </c>
       <c r="K460" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L460" t="n">
         <v>251.9</v>
@@ -23813,7 +23831,7 @@
         <v>297</v>
       </c>
       <c r="K461" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L461" t="n">
         <v>252</v>
@@ -23864,7 +23882,7 @@
         <v>297</v>
       </c>
       <c r="K462" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L462" t="n">
         <v>252.2</v>
@@ -23915,7 +23933,7 @@
         <v>297</v>
       </c>
       <c r="K463" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L463" t="n">
         <v>252.2</v>
@@ -23966,7 +23984,7 @@
         <v>298</v>
       </c>
       <c r="K464" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L464" t="n">
         <v>252.1</v>
@@ -24017,7 +24035,7 @@
         <v>299</v>
       </c>
       <c r="K465" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L465" t="n">
         <v>251.8</v>
@@ -24068,7 +24086,7 @@
         <v>300</v>
       </c>
       <c r="K466" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L466" t="n">
         <v>251.6</v>
@@ -24119,7 +24137,7 @@
         <v>301</v>
       </c>
       <c r="K467" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L467" t="n">
         <v>251.4</v>
@@ -24170,7 +24188,7 @@
         <v>302</v>
       </c>
       <c r="K468" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L468" t="n">
         <v>251.3</v>
@@ -24221,7 +24239,7 @@
         <v>303</v>
       </c>
       <c r="K469" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L469" t="n">
         <v>251.3</v>
@@ -24272,7 +24290,7 @@
         <v>303</v>
       </c>
       <c r="K470" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L470" t="n">
         <v>251.3</v>
@@ -24323,7 +24341,7 @@
         <v>303</v>
       </c>
       <c r="K471" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L471" t="n">
         <v>251.3</v>
@@ -24374,7 +24392,7 @@
         <v>303</v>
       </c>
       <c r="K472" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
         <v>251.3</v>
@@ -24425,7 +24443,7 @@
         <v>303</v>
       </c>
       <c r="K473" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L473" t="n">
         <v>251.3</v>
@@ -24476,7 +24494,7 @@
         <v>303</v>
       </c>
       <c r="K474" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L474" t="n">
         <v>251.4</v>
@@ -24527,7 +24545,7 @@
         <v>304</v>
       </c>
       <c r="K475" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L475" t="n">
         <v>251.5</v>
@@ -24578,7 +24596,7 @@
         <v>304</v>
       </c>
       <c r="K476" t="n">
-        <v>-25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L476" t="n">
         <v>251.5</v>
@@ -24629,7 +24647,7 @@
         <v>304</v>
       </c>
       <c r="K477" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L477" t="n">
         <v>251.6</v>
@@ -24680,7 +24698,7 @@
         <v>304</v>
       </c>
       <c r="K478" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L478" t="n">
         <v>251.6</v>
@@ -24731,7 +24749,7 @@
         <v>304</v>
       </c>
       <c r="K479" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L479" t="n">
         <v>251.5</v>
@@ -24782,7 +24800,7 @@
         <v>304</v>
       </c>
       <c r="K480" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L480" t="n">
         <v>251.4</v>
@@ -24833,7 +24851,7 @@
         <v>305</v>
       </c>
       <c r="K481" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L481" t="n">
         <v>251.2</v>
@@ -24884,7 +24902,7 @@
         <v>306</v>
       </c>
       <c r="K482" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L482" t="n">
         <v>251.1</v>
@@ -24935,7 +24953,7 @@
         <v>307</v>
       </c>
       <c r="K483" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L483" t="n">
         <v>250.9</v>
@@ -25037,7 +25055,7 @@
         <v>308</v>
       </c>
       <c r="K485" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L485" t="n">
         <v>250.8</v>
@@ -25139,7 +25157,7 @@
         <v>308</v>
       </c>
       <c r="K487" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L487" t="n">
         <v>250.8</v>
@@ -25241,7 +25259,7 @@
         <v>308</v>
       </c>
       <c r="K489" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L489" t="n">
         <v>250.8</v>
@@ -25292,7 +25310,7 @@
         <v>308</v>
       </c>
       <c r="K490" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L490" t="n">
         <v>250.8</v>
@@ -25343,7 +25361,7 @@
         <v>308</v>
       </c>
       <c r="K491" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L491" t="n">
         <v>250.9</v>
@@ -25394,7 +25412,7 @@
         <v>309</v>
       </c>
       <c r="K492" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L492" t="n">
         <v>250.8</v>
@@ -25445,7 +25463,7 @@
         <v>310</v>
       </c>
       <c r="K493" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L493" t="n">
         <v>250.9</v>
@@ -25496,7 +25514,7 @@
         <v>310</v>
       </c>
       <c r="K494" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L494" t="n">
         <v>250.9</v>
@@ -25598,7 +25616,7 @@
         <v>311</v>
       </c>
       <c r="K496" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L496" t="n">
         <v>250.8</v>
@@ -25802,7 +25820,7 @@
         <v>313</v>
       </c>
       <c r="K500" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L500" t="n">
         <v>250.7</v>
@@ -25853,7 +25871,7 @@
         <v>314</v>
       </c>
       <c r="K501" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L501" t="n">
         <v>250.7</v>
@@ -25904,7 +25922,7 @@
         <v>315</v>
       </c>
       <c r="K502" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L502" t="n">
         <v>250.7</v>
@@ -25955,7 +25973,7 @@
         <v>316</v>
       </c>
       <c r="K503" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L503" t="n">
         <v>250.5</v>
@@ -26006,7 +26024,7 @@
         <v>317</v>
       </c>
       <c r="K504" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L504" t="n">
         <v>250.4</v>
@@ -26057,7 +26075,7 @@
         <v>318</v>
       </c>
       <c r="K505" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L505" t="n">
         <v>250.2</v>
@@ -26108,7 +26126,7 @@
         <v>319</v>
       </c>
       <c r="K506" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L506" t="n">
         <v>250.2</v>
@@ -26261,7 +26279,7 @@
         <v>320</v>
       </c>
       <c r="K509" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L509" t="n">
         <v>250.2</v>
@@ -26363,7 +26381,7 @@
         <v>320</v>
       </c>
       <c r="K511" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L511" t="n">
         <v>250.3</v>
@@ -26414,7 +26432,7 @@
         <v>321</v>
       </c>
       <c r="K512" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L512" t="n">
         <v>250.3</v>
@@ -26465,7 +26483,7 @@
         <v>321</v>
       </c>
       <c r="K513" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L513" t="n">
         <v>250.4</v>
@@ -26516,7 +26534,7 @@
         <v>322</v>
       </c>
       <c r="K514" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L514" t="n">
         <v>250.3</v>
@@ -26567,7 +26585,7 @@
         <v>322</v>
       </c>
       <c r="K515" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L515" t="n">
         <v>250.3</v>
@@ -26618,7 +26636,7 @@
         <v>322</v>
       </c>
       <c r="K516" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L516" t="n">
         <v>250.2</v>
@@ -26669,7 +26687,7 @@
         <v>322</v>
       </c>
       <c r="K517" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L517" t="n">
         <v>250</v>
@@ -26720,7 +26738,7 @@
         <v>322</v>
       </c>
       <c r="K518" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L518" t="n">
         <v>249.8</v>
@@ -26771,7 +26789,7 @@
         <v>322</v>
       </c>
       <c r="K519" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L519" t="n">
         <v>249.6</v>
@@ -26822,7 +26840,7 @@
         <v>322</v>
       </c>
       <c r="K520" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L520" t="n">
         <v>249.4</v>
@@ -26873,7 +26891,7 @@
         <v>323</v>
       </c>
       <c r="K521" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L521" t="n">
         <v>249.1</v>
@@ -26924,7 +26942,7 @@
         <v>323</v>
       </c>
       <c r="K522" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L522" t="n">
         <v>248.9</v>
@@ -26975,7 +26993,7 @@
         <v>324</v>
       </c>
       <c r="K523" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L523" t="n">
         <v>248.6</v>
@@ -27026,7 +27044,7 @@
         <v>325</v>
       </c>
       <c r="K524" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L524" t="n">
         <v>248.5</v>
@@ -27077,7 +27095,7 @@
         <v>325</v>
       </c>
       <c r="K525" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L525" t="n">
         <v>248.4</v>
@@ -27179,7 +27197,7 @@
         <v>325</v>
       </c>
       <c r="K527" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L527" t="n">
         <v>248.2</v>
@@ -27230,7 +27248,7 @@
         <v>325</v>
       </c>
       <c r="K528" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L528" t="n">
         <v>248.1</v>
@@ -27281,7 +27299,7 @@
         <v>325</v>
       </c>
       <c r="K529" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L529" t="n">
         <v>248</v>
@@ -27332,7 +27350,7 @@
         <v>326</v>
       </c>
       <c r="K530" t="n">
-        <v>-66.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L530" t="n">
         <v>247.8</v>
@@ -27383,7 +27401,7 @@
         <v>327</v>
       </c>
       <c r="K531" t="n">
-        <v>-42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L531" t="n">
         <v>247.8</v>
@@ -27434,7 +27452,7 @@
         <v>327</v>
       </c>
       <c r="K532" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L532" t="n">
         <v>247.8</v>
@@ -27485,7 +27503,7 @@
         <v>328</v>
       </c>
       <c r="K533" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L533" t="n">
         <v>247.8</v>
@@ -27536,7 +27554,7 @@
         <v>329</v>
       </c>
       <c r="K534" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L534" t="n">
         <v>247.8</v>
@@ -27587,7 +27605,7 @@
         <v>330</v>
       </c>
       <c r="K535" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L535" t="n">
         <v>247.9</v>
@@ -27638,7 +27656,7 @@
         <v>330</v>
       </c>
       <c r="K536" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L536" t="n">
         <v>248</v>
@@ -27689,7 +27707,7 @@
         <v>330</v>
       </c>
       <c r="K537" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L537" t="n">
         <v>248.1</v>
@@ -27740,7 +27758,7 @@
         <v>331</v>
       </c>
       <c r="K538" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L538" t="n">
         <v>248.1</v>
@@ -27791,7 +27809,7 @@
         <v>331</v>
       </c>
       <c r="K539" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L539" t="n">
         <v>248.1</v>
@@ -27842,7 +27860,7 @@
         <v>331</v>
       </c>
       <c r="K540" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L540" t="n">
         <v>248.2</v>
@@ -27893,7 +27911,7 @@
         <v>333</v>
       </c>
       <c r="K541" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L541" t="n">
         <v>248</v>
@@ -27995,7 +28013,7 @@
         <v>333</v>
       </c>
       <c r="K543" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L543" t="n">
         <v>247.7</v>
@@ -28046,7 +28064,7 @@
         <v>333</v>
       </c>
       <c r="K544" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L544" t="n">
         <v>247.5</v>
@@ -28097,7 +28115,7 @@
         <v>335</v>
       </c>
       <c r="K545" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L545" t="n">
         <v>247.4</v>
@@ -28148,7 +28166,7 @@
         <v>335</v>
       </c>
       <c r="K546" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L546" t="n">
         <v>247.3</v>
@@ -28352,7 +28370,7 @@
         <v>335</v>
       </c>
       <c r="K550" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L550" t="n">
         <v>247.2</v>
@@ -28403,7 +28421,7 @@
         <v>335</v>
       </c>
       <c r="K551" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L551" t="n">
         <v>247.4</v>
@@ -28454,7 +28472,7 @@
         <v>335</v>
       </c>
       <c r="K552" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L552" t="n">
         <v>247.6</v>
@@ -28505,7 +28523,7 @@
         <v>336</v>
       </c>
       <c r="K553" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L553" t="n">
         <v>247.7</v>
@@ -28556,7 +28574,7 @@
         <v>337</v>
       </c>
       <c r="K554" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L554" t="n">
         <v>247.7</v>
@@ -28607,7 +28625,7 @@
         <v>337</v>
       </c>
       <c r="K555" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L555" t="n">
         <v>247.5</v>
@@ -28658,7 +28676,7 @@
         <v>338</v>
       </c>
       <c r="K556" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L556" t="n">
         <v>247.4</v>
@@ -28709,7 +28727,7 @@
         <v>339</v>
       </c>
       <c r="K557" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L557" t="n">
         <v>247.2</v>
@@ -28760,7 +28778,7 @@
         <v>339</v>
       </c>
       <c r="K558" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L558" t="n">
         <v>247</v>
@@ -28811,7 +28829,7 @@
         <v>339</v>
       </c>
       <c r="K559" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L559" t="n">
         <v>246.8</v>
@@ -28862,7 +28880,7 @@
         <v>341</v>
       </c>
       <c r="K560" t="n">
-        <v>-40</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L560" t="n">
         <v>246.4</v>
@@ -28913,7 +28931,7 @@
         <v>342</v>
       </c>
       <c r="K561" t="n">
-        <v>-33.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L561" t="n">
         <v>245.9</v>
@@ -28964,7 +28982,7 @@
         <v>342</v>
       </c>
       <c r="K562" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L562" t="n">
         <v>245.4</v>
@@ -29015,7 +29033,7 @@
         <v>343</v>
       </c>
       <c r="K563" t="n">
-        <v>-40</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L563" t="n">
         <v>244.9</v>
@@ -29066,7 +29084,7 @@
         <v>345</v>
       </c>
       <c r="K564" t="n">
-        <v>-50</v>
+        <v>-75</v>
       </c>
       <c r="L564" t="n">
         <v>244.3</v>
@@ -29117,7 +29135,7 @@
         <v>346</v>
       </c>
       <c r="K565" t="n">
-        <v>-63.63636363636363</v>
+        <v>-75</v>
       </c>
       <c r="L565" t="n">
         <v>243.8</v>
@@ -29219,7 +29237,7 @@
         <v>348</v>
       </c>
       <c r="K567" t="n">
-        <v>-53.84615384615385</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L567" t="n">
         <v>242.8</v>
@@ -29270,7 +29288,7 @@
         <v>349</v>
       </c>
       <c r="K568" t="n">
-        <v>-42.85714285714285</v>
+        <v>-40</v>
       </c>
       <c r="L568" t="n">
         <v>242.4</v>
@@ -29321,7 +29339,7 @@
         <v>349</v>
       </c>
       <c r="K569" t="n">
-        <v>-42.85714285714285</v>
+        <v>-25</v>
       </c>
       <c r="L569" t="n">
         <v>242</v>
@@ -29372,7 +29390,7 @@
         <v>350</v>
       </c>
       <c r="K570" t="n">
-        <v>-46.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L570" t="n">
         <v>241.7</v>
@@ -29423,7 +29441,7 @@
         <v>350</v>
       </c>
       <c r="K571" t="n">
-        <v>-46.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L571" t="n">
         <v>241.5</v>
@@ -29474,7 +29492,7 @@
         <v>350</v>
       </c>
       <c r="K572" t="n">
-        <v>-46.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L572" t="n">
         <v>241.3</v>
@@ -29525,7 +29543,7 @@
         <v>351</v>
       </c>
       <c r="K573" t="n">
-        <v>-46.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L573" t="n">
         <v>241.1</v>
@@ -29576,7 +29594,7 @@
         <v>353</v>
       </c>
       <c r="K574" t="n">
-        <v>-50</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L574" t="n">
         <v>240.9</v>
@@ -29627,7 +29645,7 @@
         <v>354</v>
       </c>
       <c r="K575" t="n">
-        <v>-52.94117647058824</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L575" t="n">
         <v>240.5</v>
@@ -29678,7 +29696,7 @@
         <v>354</v>
       </c>
       <c r="K576" t="n">
-        <v>-62.5</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L576" t="n">
         <v>240</v>
@@ -29729,7 +29747,7 @@
         <v>355</v>
       </c>
       <c r="K577" t="n">
-        <v>-50</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L577" t="n">
         <v>239.7</v>
@@ -29780,7 +29798,7 @@
         <v>355</v>
       </c>
       <c r="K578" t="n">
-        <v>-50</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L578" t="n">
         <v>239.3</v>
@@ -29831,7 +29849,7 @@
         <v>355</v>
       </c>
       <c r="K579" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="L579" t="n">
         <v>238.9</v>
@@ -29882,7 +29900,7 @@
         <v>355</v>
       </c>
       <c r="K580" t="n">
-        <v>-42.85714285714285</v>
+        <v>-60</v>
       </c>
       <c r="L580" t="n">
         <v>238.6</v>
@@ -29933,7 +29951,7 @@
         <v>355</v>
       </c>
       <c r="K581" t="n">
-        <v>-38.46153846153847</v>
+        <v>-60</v>
       </c>
       <c r="L581" t="n">
         <v>238.3</v>
@@ -29984,7 +30002,7 @@
         <v>356</v>
       </c>
       <c r="K582" t="n">
-        <v>-42.85714285714285</v>
+        <v>-60</v>
       </c>
       <c r="L582" t="n">
         <v>237.9</v>
@@ -30035,7 +30053,7 @@
         <v>357</v>
       </c>
       <c r="K583" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L583" t="n">
         <v>237.7</v>
@@ -30086,7 +30104,7 @@
         <v>358</v>
       </c>
       <c r="K584" t="n">
-        <v>-7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L584" t="n">
         <v>237.8</v>
@@ -30137,7 +30155,7 @@
         <v>359</v>
       </c>
       <c r="K585" t="n">
-        <v>-23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L585" t="n">
         <v>237.9</v>
@@ -30188,7 +30206,7 @@
         <v>359</v>
       </c>
       <c r="K586" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L586" t="n">
         <v>238</v>
@@ -30239,7 +30257,7 @@
         <v>359</v>
       </c>
       <c r="K587" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L587" t="n">
         <v>238</v>
@@ -30290,7 +30308,7 @@
         <v>360</v>
       </c>
       <c r="K588" t="n">
-        <v>-27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L588" t="n">
         <v>238.1</v>
@@ -30341,7 +30359,7 @@
         <v>361</v>
       </c>
       <c r="K589" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L589" t="n">
         <v>238.1</v>
@@ -30392,7 +30410,7 @@
         <v>361</v>
       </c>
       <c r="K590" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L590" t="n">
         <v>238.1</v>
@@ -30443,7 +30461,7 @@
         <v>361</v>
       </c>
       <c r="K591" t="n">
-        <v>-27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L591" t="n">
         <v>238.1</v>
@@ -30494,7 +30512,7 @@
         <v>362</v>
       </c>
       <c r="K592" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L592" t="n">
         <v>238.1</v>
@@ -30545,7 +30563,7 @@
         <v>362</v>
       </c>
       <c r="K593" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L593" t="n">
         <v>238</v>
@@ -30596,7 +30614,7 @@
         <v>362</v>
       </c>
       <c r="K594" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L594" t="n">
         <v>237.8</v>
@@ -30647,7 +30665,7 @@
         <v>362</v>
       </c>
       <c r="K595" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L595" t="n">
         <v>237.7</v>
@@ -30698,7 +30716,7 @@
         <v>363</v>
       </c>
       <c r="K596" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L596" t="n">
         <v>237.5</v>
@@ -30749,7 +30767,7 @@
         <v>364</v>
       </c>
       <c r="K597" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L597" t="n">
         <v>237.2</v>
@@ -30800,7 +30818,7 @@
         <v>366</v>
       </c>
       <c r="K598" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L598" t="n">
         <v>237</v>
@@ -30851,7 +30869,7 @@
         <v>367</v>
       </c>
       <c r="K599" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L599" t="n">
         <v>236.8</v>
@@ -30902,7 +30920,7 @@
         <v>367</v>
       </c>
       <c r="K600" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L600" t="n">
         <v>236.6</v>
@@ -30953,7 +30971,7 @@
         <v>368</v>
       </c>
       <c r="K601" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L601" t="n">
         <v>236.5</v>
@@ -31055,7 +31073,7 @@
         <v>369</v>
       </c>
       <c r="K603" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L603" t="n">
         <v>236.4</v>
@@ -31106,7 +31124,7 @@
         <v>369</v>
       </c>
       <c r="K604" t="n">
-        <v>-27.27272727272727</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L604" t="n">
         <v>236.3</v>
@@ -31157,7 +31175,7 @@
         <v>369</v>
       </c>
       <c r="K605" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L605" t="n">
         <v>236.2</v>
@@ -31208,7 +31226,7 @@
         <v>370</v>
       </c>
       <c r="K606" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L606" t="n">
         <v>236.3</v>
@@ -31259,7 +31277,7 @@
         <v>370</v>
       </c>
       <c r="K607" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L607" t="n">
         <v>236.5</v>
@@ -31310,7 +31328,7 @@
         <v>370</v>
       </c>
       <c r="K608" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L608" t="n">
         <v>236.5</v>
@@ -31361,7 +31379,7 @@
         <v>370</v>
       </c>
       <c r="K609" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L609" t="n">
         <v>236.6</v>
@@ -31412,7 +31430,7 @@
         <v>370</v>
       </c>
       <c r="K610" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L610" t="n">
         <v>236.7</v>
@@ -31463,7 +31481,7 @@
         <v>371</v>
       </c>
       <c r="K611" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L611" t="n">
         <v>236.6</v>
@@ -31514,7 +31532,7 @@
         <v>372</v>
       </c>
       <c r="K612" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L612" t="n">
         <v>236.6</v>
@@ -31565,7 +31583,7 @@
         <v>373</v>
       </c>
       <c r="K613" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L613" t="n">
         <v>236.6</v>
@@ -31616,7 +31634,7 @@
         <v>374</v>
       </c>
       <c r="K614" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L614" t="n">
         <v>236.7</v>
@@ -31667,7 +31685,7 @@
         <v>375</v>
       </c>
       <c r="K615" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L615" t="n">
         <v>236.7</v>
@@ -31718,7 +31736,7 @@
         <v>375</v>
       </c>
       <c r="K616" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L616" t="n">
         <v>236.6</v>
@@ -31769,7 +31787,7 @@
         <v>375</v>
       </c>
       <c r="K617" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L617" t="n">
         <v>236.5</v>
@@ -31820,7 +31838,7 @@
         <v>375</v>
       </c>
       <c r="K618" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L618" t="n">
         <v>236.4</v>
@@ -31871,7 +31889,7 @@
         <v>375</v>
       </c>
       <c r="K619" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L619" t="n">
         <v>236.3</v>
@@ -31973,7 +31991,7 @@
         <v>375</v>
       </c>
       <c r="K621" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L621" t="n">
         <v>236.2</v>
@@ -32024,7 +32042,7 @@
         <v>376</v>
       </c>
       <c r="K622" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L622" t="n">
         <v>236.2</v>
@@ -32075,7 +32093,7 @@
         <v>376</v>
       </c>
       <c r="K623" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L623" t="n">
         <v>236.3</v>
@@ -32126,7 +32144,7 @@
         <v>376</v>
       </c>
       <c r="K624" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L624" t="n">
         <v>236.3</v>
@@ -32177,7 +32195,7 @@
         <v>376</v>
       </c>
       <c r="K625" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L625" t="n">
         <v>236.4</v>
@@ -32228,7 +32246,7 @@
         <v>376</v>
       </c>
       <c r="K626" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L626" t="n">
         <v>236.5</v>
@@ -32279,7 +32297,7 @@
         <v>376</v>
       </c>
       <c r="K627" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L627" t="n">
         <v>236.6</v>
@@ -32330,7 +32348,7 @@
         <v>376</v>
       </c>
       <c r="K628" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L628" t="n">
         <v>236.7</v>
@@ -32381,7 +32399,7 @@
         <v>377</v>
       </c>
       <c r="K629" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L629" t="n">
         <v>236.9</v>
@@ -32432,7 +32450,7 @@
         <v>377</v>
       </c>
       <c r="K630" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L630" t="n">
         <v>237.1</v>
@@ -32483,7 +32501,7 @@
         <v>379</v>
       </c>
       <c r="K631" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L631" t="n">
         <v>237.1</v>
@@ -32534,7 +32552,7 @@
         <v>380</v>
       </c>
       <c r="K632" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L632" t="n">
         <v>236.9</v>
@@ -32585,7 +32603,7 @@
         <v>381</v>
       </c>
       <c r="K633" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L633" t="n">
         <v>236.8</v>
@@ -32687,7 +32705,7 @@
         <v>382</v>
       </c>
       <c r="K635" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L635" t="n">
         <v>236.8</v>
@@ -32738,7 +32756,7 @@
         <v>384</v>
       </c>
       <c r="K636" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L636" t="n">
         <v>236.6</v>
@@ -32789,7 +32807,7 @@
         <v>386</v>
       </c>
       <c r="K637" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L637" t="n">
         <v>236.6</v>
@@ -32840,7 +32858,7 @@
         <v>386</v>
       </c>
       <c r="K638" t="n">
-        <v>9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L638" t="n">
         <v>236.6</v>
@@ -32891,7 +32909,7 @@
         <v>388</v>
       </c>
       <c r="K639" t="n">
-        <v>23.07692307692308</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L639" t="n">
         <v>236.7</v>
@@ -32942,7 +32960,7 @@
         <v>389</v>
       </c>
       <c r="K640" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L640" t="n">
         <v>236.7</v>
@@ -32993,7 +33011,7 @@
         <v>391</v>
       </c>
       <c r="K641" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L641" t="n">
         <v>236.7</v>
@@ -33044,7 +33062,7 @@
         <v>391</v>
       </c>
       <c r="K642" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L642" t="n">
         <v>236.8</v>
@@ -33197,7 +33215,7 @@
         <v>393</v>
       </c>
       <c r="K645" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L645" t="n">
         <v>237</v>
@@ -33248,7 +33266,7 @@
         <v>393</v>
       </c>
       <c r="K646" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L646" t="n">
         <v>237.3</v>
@@ -33299,7 +33317,7 @@
         <v>393</v>
       </c>
       <c r="K647" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L647" t="n">
         <v>237.4</v>
@@ -33350,7 +33368,7 @@
         <v>393</v>
       </c>
       <c r="K648" t="n">
-        <v>5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L648" t="n">
         <v>237.5</v>
@@ -33452,7 +33470,7 @@
         <v>393</v>
       </c>
       <c r="K650" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L650" t="n">
         <v>237.4</v>
@@ -33503,7 +33521,7 @@
         <v>394</v>
       </c>
       <c r="K651" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L651" t="n">
         <v>237.5</v>
@@ -33554,7 +33572,7 @@
         <v>394</v>
       </c>
       <c r="K652" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L652" t="n">
         <v>237.6</v>
@@ -33605,7 +33623,7 @@
         <v>394</v>
       </c>
       <c r="K653" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L653" t="n">
         <v>237.6</v>
@@ -33656,7 +33674,7 @@
         <v>394</v>
       </c>
       <c r="K654" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L654" t="n">
         <v>237.6</v>
@@ -33707,7 +33725,7 @@
         <v>395</v>
       </c>
       <c r="K655" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L655" t="n">
         <v>237.6</v>
@@ -33758,7 +33776,7 @@
         <v>396</v>
       </c>
       <c r="K656" t="n">
-        <v>16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L656" t="n">
         <v>237.5</v>
@@ -33809,7 +33827,7 @@
         <v>397</v>
       </c>
       <c r="K657" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L657" t="n">
         <v>237.5</v>
@@ -33860,7 +33878,7 @@
         <v>397</v>
       </c>
       <c r="K658" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L658" t="n">
         <v>237.5</v>
@@ -33962,7 +33980,7 @@
         <v>398</v>
       </c>
       <c r="K660" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L660" t="n">
         <v>237.3</v>
@@ -34013,7 +34031,7 @@
         <v>399</v>
       </c>
       <c r="K661" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L661" t="n">
         <v>237.2</v>
@@ -34064,7 +34082,7 @@
         <v>399</v>
       </c>
       <c r="K662" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L662" t="n">
         <v>237.1</v>
@@ -34166,7 +34184,7 @@
         <v>400</v>
       </c>
       <c r="K664" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L664" t="n">
         <v>237.1</v>
@@ -34217,7 +34235,7 @@
         <v>400</v>
       </c>
       <c r="K665" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L665" t="n">
         <v>237</v>
@@ -34268,7 +34286,7 @@
         <v>400</v>
       </c>
       <c r="K666" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L666" t="n">
         <v>237</v>
@@ -34319,7 +34337,7 @@
         <v>401</v>
       </c>
       <c r="K667" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L667" t="n">
         <v>236.8</v>
@@ -34370,7 +34388,7 @@
         <v>402</v>
       </c>
       <c r="K668" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L668" t="n">
         <v>236.5</v>
@@ -34472,7 +34490,7 @@
         <v>403</v>
       </c>
       <c r="K670" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L670" t="n">
         <v>236.3</v>
@@ -34523,7 +34541,7 @@
         <v>403</v>
       </c>
       <c r="K671" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L671" t="n">
         <v>236.3</v>
@@ -34574,7 +34592,7 @@
         <v>403</v>
       </c>
       <c r="K672" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L672" t="n">
         <v>236.3</v>
@@ -34625,7 +34643,7 @@
         <v>403</v>
       </c>
       <c r="K673" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L673" t="n">
         <v>236.2</v>
@@ -34682,7 +34700,7 @@
         <v>403</v>
       </c>
       <c r="K674" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L674" t="n">
         <v>236.1</v>
@@ -34739,7 +34757,7 @@
         <v>404</v>
       </c>
       <c r="K675" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L675" t="n">
         <v>236.1</v>
@@ -34853,7 +34871,7 @@
         <v>407</v>
       </c>
       <c r="K677" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L677" t="n">
         <v>235.9</v>
@@ -34912,7 +34930,7 @@
         <v>408</v>
       </c>
       <c r="K678" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L678" t="n">
         <v>235.9</v>
@@ -34973,7 +34991,7 @@
         <v>409</v>
       </c>
       <c r="K679" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L679" t="n">
         <v>235.9</v>
@@ -35034,7 +35052,7 @@
         <v>409</v>
       </c>
       <c r="K680" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L680" t="n">
         <v>235.9</v>
@@ -35219,7 +35237,7 @@
         <v>409</v>
       </c>
       <c r="K683" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L683" t="n">
         <v>235.9</v>
@@ -35280,7 +35298,7 @@
         <v>409</v>
       </c>
       <c r="K684" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L684" t="n">
         <v>235.9</v>
@@ -35341,7 +35359,7 @@
         <v>410</v>
       </c>
       <c r="K685" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L685" t="n">
         <v>235.7</v>
@@ -35404,7 +35422,7 @@
         <v>411</v>
       </c>
       <c r="K686" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L686" t="n">
         <v>235.8</v>
@@ -35465,7 +35483,7 @@
         <v>411</v>
       </c>
       <c r="K687" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L687" t="n">
         <v>235.8</v>
@@ -35526,7 +35544,7 @@
         <v>411</v>
       </c>
       <c r="K688" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L688" t="n">
         <v>235.9</v>
@@ -35703,7 +35721,7 @@
         <v>412</v>
       </c>
       <c r="K691" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L691" t="n">
         <v>236</v>
@@ -35766,7 +35784,7 @@
         <v>414</v>
       </c>
       <c r="K692" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L692" t="n">
         <v>235.9</v>
@@ -35821,7 +35839,7 @@
         <v>415</v>
       </c>
       <c r="K693" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L693" t="n">
         <v>235.7</v>
@@ -35882,7 +35900,7 @@
         <v>415</v>
       </c>
       <c r="K694" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L694" t="n">
         <v>235.5</v>
@@ -35939,7 +35957,7 @@
         <v>416</v>
       </c>
       <c r="K695" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L695" t="n">
         <v>235.5</v>
@@ -35998,7 +36016,7 @@
         <v>416</v>
       </c>
       <c r="K696" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L696" t="n">
         <v>235.4</v>
@@ -36057,7 +36075,7 @@
         <v>418</v>
       </c>
       <c r="K697" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L697" t="n">
         <v>235.5</v>
@@ -36114,7 +36132,7 @@
         <v>419</v>
       </c>
       <c r="K698" t="n">
-        <v>27.27272727272727</v>
+        <v>25</v>
       </c>
       <c r="L698" t="n">
         <v>235.7</v>
@@ -36171,7 +36189,7 @@
         <v>419</v>
       </c>
       <c r="K699" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L699" t="n">
         <v>235.9</v>
@@ -36228,7 +36246,7 @@
         <v>419</v>
       </c>
       <c r="K700" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L700" t="n">
         <v>236.1</v>
@@ -36285,7 +36303,7 @@
         <v>420</v>
       </c>
       <c r="K701" t="n">
-        <v>27.27272727272727</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L701" t="n">
         <v>236.3</v>
@@ -36342,7 +36360,7 @@
         <v>420</v>
       </c>
       <c r="K702" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L702" t="n">
         <v>236.7</v>
@@ -36399,7 +36417,7 @@
         <v>420</v>
       </c>
       <c r="K703" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L703" t="n">
         <v>237.2</v>
@@ -36458,7 +36476,7 @@
         <v>421</v>
       </c>
       <c r="K704" t="n">
-        <v>16.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L704" t="n">
         <v>237.6</v>
@@ -36517,7 +36535,7 @@
         <v>421</v>
       </c>
       <c r="K705" t="n">
-        <v>27.27272727272727</v>
+        <v>60</v>
       </c>
       <c r="L705" t="n">
         <v>237.9</v>
@@ -36578,7 +36596,7 @@
         <v>422</v>
       </c>
       <c r="K706" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L706" t="n">
         <v>238.1</v>
@@ -36637,7 +36655,7 @@
         <v>423</v>
       </c>
       <c r="K707" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L707" t="n">
         <v>238</v>
@@ -36698,7 +36716,7 @@
         <v>423</v>
       </c>
       <c r="K708" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L708" t="n">
         <v>237.8</v>
@@ -36757,7 +36775,7 @@
         <v>423</v>
       </c>
       <c r="K709" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L709" t="n">
         <v>237.6</v>
@@ -36814,7 +36832,7 @@
         <v>423</v>
       </c>
       <c r="K710" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L710" t="n">
         <v>237.4</v>
@@ -36871,7 +36889,7 @@
         <v>423</v>
       </c>
       <c r="K711" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L711" t="n">
         <v>237.1</v>
@@ -36922,7 +36940,7 @@
         <v>423</v>
       </c>
       <c r="K712" t="n">
-        <v>11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L712" t="n">
         <v>236.8</v>
@@ -36973,7 +36991,7 @@
         <v>424</v>
       </c>
       <c r="K713" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L713" t="n">
         <v>236.6</v>
@@ -37024,7 +37042,7 @@
         <v>425</v>
       </c>
       <c r="K714" t="n">
-        <v>20</v>
+        <v>-50</v>
       </c>
       <c r="L714" t="n">
         <v>236.4</v>
@@ -37075,7 +37093,7 @@
         <v>426</v>
       </c>
       <c r="K715" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L715" t="n">
         <v>236.3</v>
@@ -37126,7 +37144,7 @@
         <v>426</v>
       </c>
       <c r="K716" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L716" t="n">
         <v>236.3</v>
@@ -37177,7 +37195,7 @@
         <v>426</v>
       </c>
       <c r="K717" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L717" t="n">
         <v>236.4</v>
@@ -37228,7 +37246,7 @@
         <v>426</v>
       </c>
       <c r="K718" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L718" t="n">
         <v>236.5</v>
@@ -37279,7 +37297,7 @@
         <v>426</v>
       </c>
       <c r="K719" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L719" t="n">
         <v>236.6</v>
@@ -37330,7 +37348,7 @@
         <v>427</v>
       </c>
       <c r="K720" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L720" t="n">
         <v>236.6</v>
@@ -37381,7 +37399,7 @@
         <v>428</v>
       </c>
       <c r="K721" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="L721" t="n">
         <v>236.7</v>
@@ -37432,7 +37450,7 @@
         <v>428</v>
       </c>
       <c r="K722" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L722" t="n">
         <v>236.8</v>
@@ -37483,7 +37501,7 @@
         <v>429</v>
       </c>
       <c r="K723" t="n">
-        <v>-11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L723" t="n">
         <v>236.9</v>
@@ -37534,7 +37552,7 @@
         <v>429</v>
       </c>
       <c r="K724" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L724" t="n">
         <v>237.1</v>
@@ -37585,7 +37603,7 @@
         <v>430</v>
       </c>
       <c r="K725" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L725" t="n">
         <v>237.1</v>
@@ -37687,7 +37705,7 @@
         <v>430</v>
       </c>
       <c r="K727" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L727" t="n">
         <v>237.1</v>
@@ -37738,7 +37756,7 @@
         <v>431</v>
       </c>
       <c r="K728" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L728" t="n">
         <v>237</v>
@@ -37840,7 +37858,7 @@
         <v>431</v>
       </c>
       <c r="K730" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L730" t="n">
         <v>236.9</v>
@@ -37891,7 +37909,7 @@
         <v>431</v>
       </c>
       <c r="K731" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L731" t="n">
         <v>236.8</v>
@@ -37942,7 +37960,7 @@
         <v>432</v>
       </c>
       <c r="K732" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L732" t="n">
         <v>236.8</v>
@@ -37993,7 +38011,7 @@
         <v>432</v>
       </c>
       <c r="K733" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L733" t="n">
         <v>236.7</v>
@@ -38044,7 +38062,7 @@
         <v>432</v>
       </c>
       <c r="K734" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L734" t="n">
         <v>236.6</v>
@@ -38197,7 +38215,7 @@
         <v>432</v>
       </c>
       <c r="K737" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L737" t="n">
         <v>236.6</v>
@@ -38248,7 +38266,7 @@
         <v>432</v>
       </c>
       <c r="K738" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L738" t="n">
         <v>236.7</v>
@@ -38299,7 +38317,7 @@
         <v>432</v>
       </c>
       <c r="K739" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L739" t="n">
         <v>236.8</v>
@@ -38350,7 +38368,7 @@
         <v>432</v>
       </c>
       <c r="K740" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L740" t="n">
         <v>236.9</v>
@@ -38401,7 +38419,7 @@
         <v>433</v>
       </c>
       <c r="K741" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L741" t="n">
         <v>237.1</v>
@@ -38452,7 +38470,7 @@
         <v>433</v>
       </c>
       <c r="K742" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L742" t="n">
         <v>237.2</v>
@@ -38503,7 +38521,7 @@
         <v>433</v>
       </c>
       <c r="K743" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L743" t="n">
         <v>237.3</v>
@@ -38554,7 +38572,7 @@
         <v>433</v>
       </c>
       <c r="K744" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L744" t="n">
         <v>237.4</v>
@@ -38605,7 +38623,7 @@
         <v>433</v>
       </c>
       <c r="K745" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L745" t="n">
         <v>237.5</v>
@@ -38656,7 +38674,7 @@
         <v>433</v>
       </c>
       <c r="K746" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L746" t="n">
         <v>237.6</v>
@@ -38707,7 +38725,7 @@
         <v>433</v>
       </c>
       <c r="K747" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L747" t="n">
         <v>237.7</v>
@@ -39552,7 +39570,7 @@
         <v>438</v>
       </c>
       <c r="K762" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L762" t="n">
         <v>241.7</v>
@@ -39611,7 +39629,7 @@
         <v>438</v>
       </c>
       <c r="K763" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L763" t="n">
         <v>241.7</v>
@@ -39668,7 +39686,7 @@
         <v>439</v>
       </c>
       <c r="K764" t="n">
-        <v>66.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L764" t="n">
         <v>241.8</v>
@@ -39725,7 +39743,7 @@
         <v>440</v>
       </c>
       <c r="K765" t="n">
-        <v>42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L765" t="n">
         <v>241.7</v>
@@ -39782,7 +39800,7 @@
         <v>440</v>
       </c>
       <c r="K766" t="n">
-        <v>42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L766" t="n">
         <v>241.6</v>
@@ -39839,7 +39857,7 @@
         <v>440</v>
       </c>
       <c r="K767" t="n">
-        <v>42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L767" t="n">
         <v>241.5</v>
@@ -39896,7 +39914,7 @@
         <v>440</v>
       </c>
       <c r="K768" t="n">
-        <v>42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L768" t="n">
         <v>241.4</v>
@@ -39953,7 +39971,7 @@
         <v>441</v>
       </c>
       <c r="K769" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L769" t="n">
         <v>241.4</v>
@@ -40010,7 +40028,7 @@
         <v>441</v>
       </c>
       <c r="K770" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L770" t="n">
         <v>241.4</v>
@@ -40067,7 +40085,7 @@
         <v>442</v>
       </c>
       <c r="K771" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L771" t="n">
         <v>241.5</v>
@@ -40124,7 +40142,7 @@
         <v>442</v>
       </c>
       <c r="K772" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L772" t="n">
         <v>241.7</v>
@@ -40238,7 +40256,7 @@
         <v>443</v>
       </c>
       <c r="K774" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L774" t="n">
         <v>242.1</v>
@@ -40295,7 +40313,7 @@
         <v>443</v>
       </c>
       <c r="K775" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L775" t="n">
         <v>242.4</v>
@@ -40352,7 +40370,7 @@
         <v>444</v>
       </c>
       <c r="K776" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L776" t="n">
         <v>242.8</v>
@@ -40409,7 +40427,7 @@
         <v>445</v>
       </c>
       <c r="K777" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L777" t="n">
         <v>243.3</v>
@@ -40460,7 +40478,7 @@
         <v>446</v>
       </c>
       <c r="K778" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L778" t="n">
         <v>243.7</v>
@@ -40511,7 +40529,7 @@
         <v>446</v>
       </c>
       <c r="K779" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L779" t="n">
         <v>244</v>
@@ -40613,7 +40631,7 @@
         <v>448</v>
       </c>
       <c r="K781" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L781" t="n">
         <v>244.2</v>
@@ -40664,7 +40682,7 @@
         <v>448</v>
       </c>
       <c r="K782" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L782" t="n">
         <v>244.2</v>
@@ -40715,7 +40733,7 @@
         <v>449</v>
       </c>
       <c r="K783" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L783" t="n">
         <v>244.3</v>
@@ -40766,7 +40784,7 @@
         <v>450</v>
       </c>
       <c r="K784" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L784" t="n">
         <v>244.2</v>
@@ -40817,7 +40835,7 @@
         <v>451</v>
       </c>
       <c r="K785" t="n">
-        <v>9.090909090909092</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L785" t="n">
         <v>244</v>
@@ -40868,7 +40886,7 @@
         <v>451</v>
       </c>
       <c r="K786" t="n">
-        <v>9.090909090909092</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L786" t="n">
         <v>243.7</v>
@@ -40919,7 +40937,7 @@
         <v>452</v>
       </c>
       <c r="K787" t="n">
-        <v>0</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L787" t="n">
         <v>243.2</v>
@@ -40970,7 +40988,7 @@
         <v>453</v>
       </c>
       <c r="K788" t="n">
-        <v>7.692307692307693</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L788" t="n">
         <v>242.9</v>
@@ -41021,7 +41039,7 @@
         <v>454</v>
       </c>
       <c r="K789" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L789" t="n">
         <v>242.7</v>
@@ -41072,7 +41090,7 @@
         <v>454</v>
       </c>
       <c r="K790" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L790" t="n">
         <v>242.6</v>
@@ -41174,7 +41192,7 @@
         <v>454</v>
       </c>
       <c r="K792" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L792" t="n">
         <v>242.6</v>
@@ -41225,7 +41243,7 @@
         <v>456</v>
       </c>
       <c r="K793" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L793" t="n">
         <v>242.3</v>
@@ -41276,7 +41294,7 @@
         <v>459</v>
       </c>
       <c r="K794" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L794" t="n">
         <v>242.4</v>
@@ -41327,7 +41345,7 @@
         <v>459</v>
       </c>
       <c r="K795" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L795" t="n">
         <v>242.6</v>
@@ -41378,7 +41396,7 @@
         <v>460</v>
       </c>
       <c r="K796" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L796" t="n">
         <v>242.9</v>
@@ -41429,7 +41447,7 @@
         <v>461</v>
       </c>
       <c r="K797" t="n">
-        <v>-12.5</v>
+        <v>25</v>
       </c>
       <c r="L797" t="n">
         <v>243.2</v>
@@ -41480,7 +41498,7 @@
         <v>462</v>
       </c>
       <c r="K798" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L798" t="n">
         <v>243.5</v>
@@ -41531,7 +41549,7 @@
         <v>463</v>
       </c>
       <c r="K799" t="n">
-        <v>-5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L799" t="n">
         <v>243.6</v>
@@ -41582,7 +41600,7 @@
         <v>463</v>
       </c>
       <c r="K800" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L800" t="n">
         <v>243.7</v>
@@ -41633,7 +41651,7 @@
         <v>465</v>
       </c>
       <c r="K801" t="n">
-        <v>-5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L801" t="n">
         <v>243.6</v>
@@ -41684,7 +41702,7 @@
         <v>465</v>
       </c>
       <c r="K802" t="n">
-        <v>-5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L802" t="n">
         <v>243.5</v>
@@ -41735,7 +41753,7 @@
         <v>465</v>
       </c>
       <c r="K803" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L803" t="n">
         <v>243.6</v>
@@ -41786,7 +41804,7 @@
         <v>465</v>
       </c>
       <c r="K804" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L804" t="n">
         <v>243.4</v>
@@ -41837,7 +41855,7 @@
         <v>465</v>
       </c>
       <c r="K805" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L805" t="n">
         <v>243.2</v>
@@ -41888,7 +41906,7 @@
         <v>466</v>
       </c>
       <c r="K806" t="n">
-        <v>-6.666666666666667</v>
+        <v>-60</v>
       </c>
       <c r="L806" t="n">
         <v>242.8</v>
@@ -41939,7 +41957,7 @@
         <v>466</v>
       </c>
       <c r="K807" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L807" t="n">
         <v>242.5</v>
@@ -41990,7 +42008,7 @@
         <v>466</v>
       </c>
       <c r="K808" t="n">
-        <v>-7.692307692307693</v>
+        <v>-100</v>
       </c>
       <c r="L808" t="n">
         <v>242.1</v>

--- a/BackTest/2019-11-13 BackTest FCT.xlsx
+++ b/BackTest/2019-11-13 BackTest FCT.xlsx
@@ -14279,7 +14279,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
@@ -14314,7 +14314,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
@@ -14769,7 +14769,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
@@ -14804,7 +14804,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
@@ -20786,14 +20786,20 @@
         <v>244.4833333333333</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
       </c>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>237</v>
+      </c>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -20821,14 +20827,20 @@
         <v>244.3333333333333</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>238</v>
+      </c>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -20856,14 +20868,20 @@
         <v>244.1666666666667</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
       </c>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>239</v>
+      </c>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -20891,14 +20909,20 @@
         <v>244</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
       </c>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>238</v>
+      </c>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -20926,14 +20950,20 @@
         <v>243.8333333333333</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
       </c>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>238</v>
+      </c>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -20961,14 +20991,20 @@
         <v>243.6833333333333</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
       </c>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>238</v>
+      </c>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -20996,14 +21032,20 @@
         <v>243.5166666666667</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
       </c>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>239</v>
+      </c>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21031,14 +21073,20 @@
         <v>243.3666666666667</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
       </c>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>238</v>
+      </c>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21066,14 +21114,20 @@
         <v>243.2</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
       </c>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>238</v>
+      </c>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21101,14 +21155,20 @@
         <v>243.0166666666667</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
       </c>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>238</v>
+      </c>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21136,14 +21196,20 @@
         <v>242.85</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
       </c>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>237</v>
+      </c>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21178,7 +21244,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21213,7 +21283,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21248,7 +21322,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21283,7 +21361,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21311,14 +21393,20 @@
         <v>241.8333333333333</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
       </c>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>235</v>
+      </c>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21346,14 +21434,20 @@
         <v>241.6333333333333</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
       </c>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>237</v>
+      </c>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -21381,14 +21475,20 @@
         <v>241.4333333333333</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
       </c>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>236</v>
+      </c>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -21416,14 +21516,20 @@
         <v>241.2833333333333</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
       </c>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>236</v>
+      </c>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -21458,7 +21564,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -21486,14 +21596,20 @@
         <v>240.9666666666667</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
       </c>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>237</v>
+      </c>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -21521,14 +21637,20 @@
         <v>240.8</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
       </c>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>236</v>
+      </c>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -21563,7 +21685,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -21598,7 +21724,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -21626,18 +21756,18 @@
         <v>240.2333333333333</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
       </c>
-      <c r="J607" t="n">
-        <v>237</v>
-      </c>
-      <c r="K607" t="n">
-        <v>237</v>
-      </c>
-      <c r="L607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -21665,20 +21795,16 @@
         <v>240.05</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
       </c>
-      <c r="J608" t="n">
-        <v>237</v>
-      </c>
-      <c r="K608" t="n">
-        <v>237</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M608" t="n">
@@ -21714,12 +21840,10 @@
         <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="n">
-        <v>237</v>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M609" t="n">
@@ -21749,18 +21873,18 @@
         <v>239.6833333333333</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
       </c>
-      <c r="J610" t="n">
-        <v>237</v>
-      </c>
-      <c r="K610" t="n">
-        <v>237</v>
-      </c>
-      <c r="L610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -21788,20 +21912,16 @@
         <v>239.4833333333333</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
       </c>
-      <c r="J611" t="n">
-        <v>236</v>
-      </c>
-      <c r="K611" t="n">
-        <v>237</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M611" t="n">
@@ -21831,17 +21951,13 @@
         <v>239.3</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
       </c>
-      <c r="J612" t="n">
-        <v>236</v>
-      </c>
-      <c r="K612" t="n">
-        <v>237</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21874,17 +21990,13 @@
         <v>239.1166666666667</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
       </c>
-      <c r="J613" t="n">
-        <v>237</v>
-      </c>
-      <c r="K613" t="n">
-        <v>237</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21925,9 +22037,7 @@
       <c r="J614" t="n">
         <v>236</v>
       </c>
-      <c r="K614" t="n">
-        <v>237</v>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21960,17 +22070,13 @@
         <v>238.8</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
       </c>
-      <c r="J615" t="n">
-        <v>236</v>
-      </c>
-      <c r="K615" t="n">
-        <v>237</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22003,17 +22109,13 @@
         <v>238.6166666666667</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
       </c>
-      <c r="J616" t="n">
-        <v>236</v>
-      </c>
-      <c r="K616" t="n">
-        <v>237</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22046,17 +22148,13 @@
         <v>238.45</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
       </c>
-      <c r="J617" t="n">
-        <v>236</v>
-      </c>
-      <c r="K617" t="n">
-        <v>237</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22095,9 +22193,7 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="n">
-        <v>237</v>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22136,9 +22232,7 @@
         <v>0</v>
       </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="n">
-        <v>237</v>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22177,9 +22271,7 @@
         <v>0</v>
       </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="n">
-        <v>237</v>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22218,9 +22310,7 @@
         <v>0</v>
       </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="n">
-        <v>237</v>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22253,17 +22343,13 @@
         <v>237.7666666666667</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
       </c>
-      <c r="J622" t="n">
-        <v>237</v>
-      </c>
-      <c r="K622" t="n">
-        <v>237</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22296,17 +22382,13 @@
         <v>237.6833333333333</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
       </c>
-      <c r="J623" t="n">
-        <v>237</v>
-      </c>
-      <c r="K623" t="n">
-        <v>237</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22339,17 +22421,13 @@
         <v>237.6333333333333</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
       </c>
-      <c r="J624" t="n">
-        <v>236</v>
-      </c>
-      <c r="K624" t="n">
-        <v>237</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22382,17 +22460,13 @@
         <v>237.5666666666667</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
       </c>
-      <c r="J625" t="n">
-        <v>237</v>
-      </c>
-      <c r="K625" t="n">
-        <v>237</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22425,17 +22499,13 @@
         <v>237.4833333333333</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
-      <c r="J626" t="n">
-        <v>237</v>
-      </c>
-      <c r="K626" t="n">
-        <v>237</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22468,17 +22538,13 @@
         <v>237.4166666666667</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
       </c>
-      <c r="J627" t="n">
-        <v>237</v>
-      </c>
-      <c r="K627" t="n">
-        <v>237</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22511,17 +22577,13 @@
         <v>237.3333333333333</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
       </c>
-      <c r="J628" t="n">
-        <v>236</v>
-      </c>
-      <c r="K628" t="n">
-        <v>237</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22554,17 +22616,13 @@
         <v>237.2666666666667</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
       </c>
-      <c r="J629" t="n">
-        <v>237</v>
-      </c>
-      <c r="K629" t="n">
-        <v>237</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22597,17 +22655,13 @@
         <v>237.2166666666667</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
       </c>
-      <c r="J630" t="n">
-        <v>238</v>
-      </c>
-      <c r="K630" t="n">
-        <v>237</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22640,17 +22694,13 @@
         <v>237.1333333333333</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
       </c>
-      <c r="J631" t="n">
-        <v>237</v>
-      </c>
-      <c r="K631" t="n">
-        <v>237</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22683,17 +22733,13 @@
         <v>237.0333333333333</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
       </c>
-      <c r="J632" t="n">
-        <v>235</v>
-      </c>
-      <c r="K632" t="n">
-        <v>237</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22726,17 +22772,13 @@
         <v>236.9666666666667</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
       </c>
-      <c r="J633" t="n">
-        <v>235</v>
-      </c>
-      <c r="K633" t="n">
-        <v>237</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22769,17 +22811,13 @@
         <v>236.95</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
       </c>
-      <c r="J634" t="n">
-        <v>236</v>
-      </c>
-      <c r="K634" t="n">
-        <v>237</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22812,17 +22850,13 @@
         <v>236.95</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
       </c>
-      <c r="J635" t="n">
-        <v>237</v>
-      </c>
-      <c r="K635" t="n">
-        <v>237</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22855,17 +22889,13 @@
         <v>236.9166666666667</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
       </c>
-      <c r="J636" t="n">
-        <v>236</v>
-      </c>
-      <c r="K636" t="n">
-        <v>237</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22898,17 +22928,13 @@
         <v>236.9</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
       </c>
-      <c r="J637" t="n">
-        <v>235</v>
-      </c>
-      <c r="K637" t="n">
-        <v>237</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22941,17 +22967,13 @@
         <v>236.8833333333333</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
       </c>
-      <c r="J638" t="n">
-        <v>237</v>
-      </c>
-      <c r="K638" t="n">
-        <v>237</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22984,17 +23006,13 @@
         <v>236.9</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
       </c>
-      <c r="J639" t="n">
-        <v>237</v>
-      </c>
-      <c r="K639" t="n">
-        <v>237</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23027,17 +23045,13 @@
         <v>236.9</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
       </c>
-      <c r="J640" t="n">
-        <v>238</v>
-      </c>
-      <c r="K640" t="n">
-        <v>237</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23070,17 +23084,13 @@
         <v>236.8666666666667</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
       </c>
-      <c r="J641" t="n">
-        <v>238</v>
-      </c>
-      <c r="K641" t="n">
-        <v>237</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23119,9 +23129,7 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="n">
-        <v>237</v>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23160,9 +23168,7 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="n">
-        <v>237</v>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23201,9 +23207,7 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="n">
-        <v>237</v>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23242,9 +23246,7 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="n">
-        <v>237</v>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23283,9 +23285,7 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="n">
-        <v>237</v>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23324,9 +23324,7 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="n">
-        <v>237</v>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23365,9 +23363,7 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="n">
-        <v>237</v>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23406,9 +23402,7 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="n">
-        <v>237</v>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23447,9 +23441,7 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="n">
-        <v>237</v>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23488,9 +23480,7 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="n">
-        <v>237</v>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23529,9 +23519,7 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="n">
-        <v>237</v>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23570,9 +23558,7 @@
         <v>0</v>
       </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="n">
-        <v>237</v>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23611,9 +23597,7 @@
         <v>0</v>
       </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="n">
-        <v>237</v>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23652,9 +23636,7 @@
         <v>0</v>
       </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="n">
-        <v>237</v>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23693,9 +23675,7 @@
         <v>0</v>
       </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="n">
-        <v>237</v>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23734,9 +23714,7 @@
         <v>0</v>
       </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="n">
-        <v>237</v>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23775,9 +23753,7 @@
         <v>0</v>
       </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="n">
-        <v>237</v>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23816,9 +23792,7 @@
         <v>0</v>
       </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="n">
-        <v>237</v>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23857,9 +23831,7 @@
         <v>0</v>
       </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="n">
-        <v>237</v>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23892,17 +23864,13 @@
         <v>236.8833333333333</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
       </c>
-      <c r="J661" t="n">
-        <v>236</v>
-      </c>
-      <c r="K661" t="n">
-        <v>237</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23935,17 +23903,13 @@
         <v>236.8666666666667</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
       </c>
-      <c r="J662" t="n">
-        <v>236</v>
-      </c>
-      <c r="K662" t="n">
-        <v>237</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23984,9 +23948,7 @@
         <v>0</v>
       </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="n">
-        <v>237</v>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24025,9 +23987,7 @@
         <v>0</v>
       </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="n">
-        <v>237</v>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24066,9 +24026,7 @@
         <v>0</v>
       </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="n">
-        <v>237</v>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24107,9 +24065,7 @@
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="n">
-        <v>237</v>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24142,17 +24098,13 @@
         <v>236.9</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
       </c>
-      <c r="J667" t="n">
-        <v>236</v>
-      </c>
-      <c r="K667" t="n">
-        <v>237</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24191,9 +24143,7 @@
         <v>0</v>
       </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="n">
-        <v>237</v>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24226,17 +24176,13 @@
         <v>236.85</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
       </c>
-      <c r="J669" t="n">
-        <v>236</v>
-      </c>
-      <c r="K669" t="n">
-        <v>237</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24269,17 +24215,13 @@
         <v>236.8333333333333</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
       </c>
-      <c r="J670" t="n">
-        <v>236</v>
-      </c>
-      <c r="K670" t="n">
-        <v>237</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24312,17 +24254,13 @@
         <v>236.8333333333333</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
       </c>
-      <c r="J671" t="n">
-        <v>236</v>
-      </c>
-      <c r="K671" t="n">
-        <v>237</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24355,17 +24293,13 @@
         <v>236.8166666666667</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
       </c>
-      <c r="J672" t="n">
-        <v>236</v>
-      </c>
-      <c r="K672" t="n">
-        <v>237</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24398,17 +24332,13 @@
         <v>236.8166666666667</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
       </c>
-      <c r="J673" t="n">
-        <v>235</v>
-      </c>
-      <c r="K673" t="n">
-        <v>237</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24441,17 +24371,13 @@
         <v>236.8</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
       </c>
-      <c r="J674" t="n">
-        <v>236</v>
-      </c>
-      <c r="K674" t="n">
-        <v>237</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24484,17 +24410,13 @@
         <v>236.8166666666667</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
       </c>
-      <c r="J675" t="n">
-        <v>237</v>
-      </c>
-      <c r="K675" t="n">
-        <v>237</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24527,17 +24449,13 @@
         <v>236.8</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
       </c>
-      <c r="J676" t="n">
-        <v>236</v>
-      </c>
-      <c r="K676" t="n">
-        <v>237</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24570,17 +24488,13 @@
         <v>236.8</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
       </c>
-      <c r="J677" t="n">
-        <v>236</v>
-      </c>
-      <c r="K677" t="n">
-        <v>237</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24613,17 +24527,13 @@
         <v>236.7833333333333</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
       </c>
-      <c r="J678" t="n">
-        <v>235</v>
-      </c>
-      <c r="K678" t="n">
-        <v>237</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24656,17 +24566,13 @@
         <v>236.7833333333333</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
       </c>
-      <c r="J679" t="n">
-        <v>236</v>
-      </c>
-      <c r="K679" t="n">
-        <v>237</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24699,17 +24605,13 @@
         <v>236.7833333333333</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
       </c>
-      <c r="J680" t="n">
-        <v>236</v>
-      </c>
-      <c r="K680" t="n">
-        <v>237</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24742,17 +24644,13 @@
         <v>236.7833333333333</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
       </c>
-      <c r="J681" t="n">
-        <v>236</v>
-      </c>
-      <c r="K681" t="n">
-        <v>237</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24785,17 +24683,13 @@
         <v>236.7666666666667</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
       </c>
-      <c r="J682" t="n">
-        <v>235</v>
-      </c>
-      <c r="K682" t="n">
-        <v>237</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24828,17 +24722,13 @@
         <v>236.75</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
       </c>
-      <c r="J683" t="n">
-        <v>236</v>
-      </c>
-      <c r="K683" t="n">
-        <v>237</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24871,17 +24761,13 @@
         <v>236.7333333333333</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
       </c>
-      <c r="J684" t="n">
-        <v>235</v>
-      </c>
-      <c r="K684" t="n">
-        <v>237</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24914,17 +24800,13 @@
         <v>236.7</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
       </c>
-      <c r="J685" t="n">
-        <v>235</v>
-      </c>
-      <c r="K685" t="n">
-        <v>237</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24957,17 +24839,13 @@
         <v>236.6833333333333</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
       </c>
-      <c r="J686" t="n">
-        <v>235</v>
-      </c>
-      <c r="K686" t="n">
-        <v>237</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25000,17 +24878,13 @@
         <v>236.6666666666667</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
       </c>
-      <c r="J687" t="n">
-        <v>235</v>
-      </c>
-      <c r="K687" t="n">
-        <v>237</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25043,17 +24917,13 @@
         <v>236.65</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
       </c>
-      <c r="J688" t="n">
-        <v>236</v>
-      </c>
-      <c r="K688" t="n">
-        <v>237</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25086,17 +24956,13 @@
         <v>236.6166666666667</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
       </c>
-      <c r="J689" t="n">
-        <v>236</v>
-      </c>
-      <c r="K689" t="n">
-        <v>237</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25129,17 +24995,13 @@
         <v>236.5833333333333</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
       </c>
-      <c r="J690" t="n">
-        <v>236</v>
-      </c>
-      <c r="K690" t="n">
-        <v>237</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25172,17 +25034,13 @@
         <v>236.6</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
       </c>
-      <c r="J691" t="n">
-        <v>237</v>
-      </c>
-      <c r="K691" t="n">
-        <v>237</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25215,17 +25073,13 @@
         <v>236.6</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
       </c>
-      <c r="J692" t="n">
-        <v>236</v>
-      </c>
-      <c r="K692" t="n">
-        <v>237</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25258,17 +25112,13 @@
         <v>236.5666666666667</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693" t="n">
         <v>0</v>
       </c>
-      <c r="J693" t="n">
-        <v>235</v>
-      </c>
-      <c r="K693" t="n">
-        <v>237</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25301,17 +25151,13 @@
         <v>236.5166666666667</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
       </c>
-      <c r="J694" t="n">
-        <v>234</v>
-      </c>
-      <c r="K694" t="n">
-        <v>237</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25344,17 +25190,13 @@
         <v>236.4833333333333</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
       </c>
-      <c r="J695" t="n">
-        <v>235</v>
-      </c>
-      <c r="K695" t="n">
-        <v>237</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25387,17 +25229,13 @@
         <v>236.4833333333333</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
       </c>
-      <c r="J696" t="n">
-        <v>234</v>
-      </c>
-      <c r="K696" t="n">
-        <v>237</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25430,17 +25268,13 @@
         <v>236.4833333333333</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
       </c>
-      <c r="J697" t="n">
-        <v>235</v>
-      </c>
-      <c r="K697" t="n">
-        <v>237</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25473,17 +25307,13 @@
         <v>236.5</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
       </c>
-      <c r="J698" t="n">
-        <v>238</v>
-      </c>
-      <c r="K698" t="n">
-        <v>237</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25516,17 +25346,13 @@
         <v>236.4833333333333</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
       </c>
-      <c r="J699" t="n">
-        <v>238</v>
-      </c>
-      <c r="K699" t="n">
-        <v>237</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25559,17 +25385,13 @@
         <v>236.4833333333333</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
       </c>
-      <c r="J700" t="n">
-        <v>238</v>
-      </c>
-      <c r="K700" t="n">
-        <v>237</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25602,17 +25424,13 @@
         <v>236.5333333333333</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
       </c>
-      <c r="J701" t="n">
-        <v>238</v>
-      </c>
-      <c r="K701" t="n">
-        <v>237</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25651,9 +25469,7 @@
         <v>0</v>
       </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="n">
-        <v>237</v>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25692,9 +25508,7 @@
         <v>0</v>
       </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="n">
-        <v>237</v>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25733,9 +25547,7 @@
         <v>0</v>
       </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="n">
-        <v>237</v>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25774,9 +25586,7 @@
         <v>0</v>
       </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="n">
-        <v>237</v>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25815,9 +25625,7 @@
         <v>0</v>
       </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="n">
-        <v>237</v>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25856,9 +25664,7 @@
         <v>0</v>
       </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="n">
-        <v>237</v>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25891,17 +25697,13 @@
         <v>236.55</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
       </c>
-      <c r="J708" t="n">
-        <v>237</v>
-      </c>
-      <c r="K708" t="n">
-        <v>237</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25934,17 +25736,13 @@
         <v>236.5166666666667</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
       </c>
-      <c r="J709" t="n">
-        <v>236</v>
-      </c>
-      <c r="K709" t="n">
-        <v>237</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25977,17 +25775,13 @@
         <v>236.4833333333333</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
       </c>
-      <c r="J710" t="n">
-        <v>236</v>
-      </c>
-      <c r="K710" t="n">
-        <v>237</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26020,17 +25814,13 @@
         <v>236.4666666666667</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
       </c>
-      <c r="J711" t="n">
-        <v>236</v>
-      </c>
-      <c r="K711" t="n">
-        <v>237</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26063,17 +25853,13 @@
         <v>236.45</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
       </c>
-      <c r="J712" t="n">
-        <v>236</v>
-      </c>
-      <c r="K712" t="n">
-        <v>237</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26106,17 +25892,13 @@
         <v>236.45</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
       </c>
-      <c r="J713" t="n">
-        <v>237</v>
-      </c>
-      <c r="K713" t="n">
-        <v>237</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26149,17 +25931,13 @@
         <v>236.4333333333333</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
       </c>
-      <c r="J714" t="n">
-        <v>236</v>
-      </c>
-      <c r="K714" t="n">
-        <v>237</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26192,17 +25970,13 @@
         <v>236.4166666666667</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
       </c>
-      <c r="J715" t="n">
-        <v>236</v>
-      </c>
-      <c r="K715" t="n">
-        <v>237</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26235,17 +26009,13 @@
         <v>236.4166666666667</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
       </c>
-      <c r="J716" t="n">
-        <v>237</v>
-      </c>
-      <c r="K716" t="n">
-        <v>237</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26278,17 +26048,13 @@
         <v>236.4</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
       </c>
-      <c r="J717" t="n">
-        <v>237</v>
-      </c>
-      <c r="K717" t="n">
-        <v>237</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26321,17 +26087,13 @@
         <v>236.3833333333333</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
       </c>
-      <c r="J718" t="n">
-        <v>237</v>
-      </c>
-      <c r="K718" t="n">
-        <v>237</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26364,17 +26126,13 @@
         <v>236.3833333333333</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
       </c>
-      <c r="J719" t="n">
-        <v>237</v>
-      </c>
-      <c r="K719" t="n">
-        <v>237</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26407,17 +26165,13 @@
         <v>236.3666666666667</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
       </c>
-      <c r="J720" t="n">
-        <v>236</v>
-      </c>
-      <c r="K720" t="n">
-        <v>237</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26450,17 +26204,13 @@
         <v>236.3833333333333</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
       </c>
-      <c r="J721" t="n">
-        <v>236</v>
-      </c>
-      <c r="K721" t="n">
-        <v>237</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26499,9 +26249,7 @@
         <v>0</v>
       </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="n">
-        <v>237</v>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26534,17 +26282,13 @@
         <v>236.4166666666667</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
       </c>
-      <c r="J723" t="n">
-        <v>238</v>
-      </c>
-      <c r="K723" t="n">
-        <v>237</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26577,17 +26321,13 @@
         <v>236.4333333333333</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
       </c>
-      <c r="J724" t="n">
-        <v>238</v>
-      </c>
-      <c r="K724" t="n">
-        <v>237</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26620,17 +26360,13 @@
         <v>236.4333333333333</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
       </c>
-      <c r="J725" t="n">
-        <v>237</v>
-      </c>
-      <c r="K725" t="n">
-        <v>237</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26663,17 +26399,13 @@
         <v>236.4333333333333</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
       </c>
-      <c r="J726" t="n">
-        <v>237</v>
-      </c>
-      <c r="K726" t="n">
-        <v>237</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26712,9 +26444,7 @@
         <v>0</v>
       </c>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="n">
-        <v>237</v>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26753,9 +26483,7 @@
         <v>0</v>
       </c>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="n">
-        <v>237</v>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26794,9 +26522,7 @@
         <v>0</v>
       </c>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="n">
-        <v>237</v>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26835,9 +26561,7 @@
         <v>0</v>
       </c>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="n">
-        <v>237</v>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26876,9 +26600,7 @@
         <v>0</v>
       </c>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="n">
-        <v>237</v>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26917,9 +26639,7 @@
         <v>0</v>
       </c>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="n">
-        <v>237</v>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26958,9 +26678,7 @@
         <v>0</v>
       </c>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="n">
-        <v>237</v>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26999,9 +26717,7 @@
         <v>0</v>
       </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="n">
-        <v>237</v>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27040,9 +26756,7 @@
         <v>0</v>
       </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="n">
-        <v>237</v>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27081,9 +26795,7 @@
         <v>0</v>
       </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="n">
-        <v>237</v>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27116,17 +26828,13 @@
         <v>236.5666666666667</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
       </c>
-      <c r="J737" t="n">
-        <v>237</v>
-      </c>
-      <c r="K737" t="n">
-        <v>237</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27159,17 +26867,13 @@
         <v>236.6</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738" t="n">
         <v>0</v>
       </c>
-      <c r="J738" t="n">
-        <v>237</v>
-      </c>
-      <c r="K738" t="n">
-        <v>237</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27202,17 +26906,13 @@
         <v>236.6166666666667</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I739" t="n">
         <v>0</v>
       </c>
-      <c r="J739" t="n">
-        <v>237</v>
-      </c>
-      <c r="K739" t="n">
-        <v>237</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27245,17 +26945,13 @@
         <v>236.6333333333333</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I740" t="n">
         <v>0</v>
       </c>
-      <c r="J740" t="n">
-        <v>237</v>
-      </c>
-      <c r="K740" t="n">
-        <v>237</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27294,9 +26990,7 @@
         <v>0</v>
       </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="n">
-        <v>237</v>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27335,9 +27029,7 @@
         <v>0</v>
       </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="n">
-        <v>237</v>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27376,9 +27068,7 @@
         <v>0</v>
       </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="n">
-        <v>237</v>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27417,9 +27107,7 @@
         <v>0</v>
       </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="n">
-        <v>237</v>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27458,9 +27146,7 @@
         <v>0</v>
       </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="n">
-        <v>237</v>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27499,9 +27185,7 @@
         <v>0</v>
       </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="n">
-        <v>237</v>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27540,9 +27224,7 @@
         <v>0</v>
       </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="n">
-        <v>237</v>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27581,9 +27263,7 @@
         <v>0</v>
       </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="n">
-        <v>237</v>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27622,9 +27302,7 @@
         <v>0</v>
       </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="n">
-        <v>237</v>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27663,9 +27341,7 @@
         <v>0</v>
       </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="n">
-        <v>237</v>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27704,9 +27380,7 @@
         <v>0</v>
       </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="n">
-        <v>237</v>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27745,9 +27419,7 @@
         <v>0</v>
       </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="n">
-        <v>237</v>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27786,9 +27458,7 @@
         <v>0</v>
       </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="n">
-        <v>237</v>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27827,9 +27497,7 @@
         <v>0</v>
       </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="n">
-        <v>237</v>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27868,9 +27536,7 @@
         <v>0</v>
       </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="n">
-        <v>237</v>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27909,9 +27575,7 @@
         <v>0</v>
       </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="n">
-        <v>237</v>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27950,9 +27614,7 @@
         <v>0</v>
       </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="n">
-        <v>237</v>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27991,9 +27653,7 @@
         <v>0</v>
       </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="n">
-        <v>237</v>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28032,9 +27692,7 @@
         <v>0</v>
       </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="n">
-        <v>237</v>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28073,9 +27731,7 @@
         <v>0</v>
       </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="n">
-        <v>237</v>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28114,9 +27770,7 @@
         <v>0</v>
       </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="n">
-        <v>237</v>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28155,9 +27809,7 @@
         <v>0</v>
       </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="n">
-        <v>237</v>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28196,9 +27848,7 @@
         <v>0</v>
       </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="n">
-        <v>237</v>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28237,9 +27887,7 @@
         <v>0</v>
       </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="n">
-        <v>237</v>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28278,9 +27926,7 @@
         <v>0</v>
       </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="n">
-        <v>237</v>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28319,9 +27965,7 @@
         <v>0</v>
       </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="n">
-        <v>237</v>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28360,9 +28004,7 @@
         <v>0</v>
       </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="n">
-        <v>237</v>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28401,9 +28043,7 @@
         <v>0</v>
       </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="n">
-        <v>237</v>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28442,9 +28082,7 @@
         <v>0</v>
       </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="n">
-        <v>237</v>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28483,9 +28121,7 @@
         <v>0</v>
       </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="n">
-        <v>237</v>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28524,9 +28160,7 @@
         <v>0</v>
       </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="n">
-        <v>237</v>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28565,9 +28199,7 @@
         <v>0</v>
       </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="n">
-        <v>237</v>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28606,9 +28238,7 @@
         <v>0</v>
       </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="n">
-        <v>237</v>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28647,9 +28277,7 @@
         <v>0</v>
       </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="n">
-        <v>237</v>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28688,9 +28316,7 @@
         <v>0</v>
       </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="n">
-        <v>237</v>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28729,9 +28355,7 @@
         <v>0</v>
       </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="n">
-        <v>237</v>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28770,9 +28394,7 @@
         <v>0</v>
       </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="n">
-        <v>237</v>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28811,9 +28433,7 @@
         <v>0</v>
       </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="n">
-        <v>237</v>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28852,9 +28472,7 @@
         <v>0</v>
       </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="n">
-        <v>237</v>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28893,9 +28511,7 @@
         <v>0</v>
       </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="n">
-        <v>237</v>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28934,9 +28550,7 @@
         <v>0</v>
       </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="n">
-        <v>237</v>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28975,9 +28589,7 @@
         <v>0</v>
       </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="n">
-        <v>237</v>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29016,9 +28628,7 @@
         <v>0</v>
       </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="n">
-        <v>237</v>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29057,9 +28667,7 @@
         <v>0</v>
       </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="n">
-        <v>237</v>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29098,9 +28706,7 @@
         <v>0</v>
       </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="n">
-        <v>237</v>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29139,9 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="n">
-        <v>237</v>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29180,9 +28784,7 @@
         <v>0</v>
       </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="n">
-        <v>237</v>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-11-13 BackTest FCT.xlsx
+++ b/BackTest/2019-11-13 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>77373.99808983569</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>77373.99808983569</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>70740.96858983568</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>59740.96858983568</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>45474.20338983569</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>30881.51178983569</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>30881.51178983569</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>30881.51178983569</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>30881.51178983569</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>31977.14378983569</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>31977.14378983569</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>27950.32508983569</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>27950.32508983569</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>29312.81228983569</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>37311.38038983569</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>41329.63128983569</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>48460.08918983569</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>32838.75908983569</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>13849.9902898357</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>29481.7255898357</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>3777.959589835704</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-41234.35381016429</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-31580.06451016429</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-29258.59681016429</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-30012.03641016429</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-29699.03641016429</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-60710.8291101643</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-56187.8619101643</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-55928.4995101643</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-55928.4995101643</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-56261.4651101643</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-55163.4651101643</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-55163.4651101643</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-58955.1417101643</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-146257.4848101643</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-254890.9347101644</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>225112.9129898357</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>225112.9129898357</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>98314.86728983566</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>88502.33278983567</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>97897.34248983566</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>99978.02318983566</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>99978.02318983566</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>99978.02318983566</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>99978.02318983566</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>96009.65168983566</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>101964.0312898357</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1599.223110164341</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1599.223110164341</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1599.223110164341</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1599.223110164341</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-4243.089210164341</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-30997.18921016434</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>87236.86528983567</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>87236.86528983567</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>87236.86528983567</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>87236.86528983567</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>87236.86528983567</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>90328.77148983566</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>90328.77148983566</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>90328.77148983566</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>90328.77148983566</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>90328.77148983566</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>90328.77148983566</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>55117.72488983566</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>55117.72488983566</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>115920.1280898357</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>115922.1280898357</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>104595.7063898357</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>104595.7063898357</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>104595.7063898357</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>104595.7063898357</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>82386.92718983565</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>82386.92718983565</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>150123.5551898357</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>151643.2841898357</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>151643.2841898357</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>207306.0402898357</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>207304.0402898357</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>207304.0402898357</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>207304.0402898357</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>207304.0402898357</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>207319.1467898357</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>207319.1467898357</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>206567.1467898357</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>206589.1467898357</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>206581.1467898357</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>224519.3677898357</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>224099.0002898357</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>224099.0002898357</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>240008.9699898357</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>240008.9699898357</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>240008.9699898357</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>240008.9699898357</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>240008.9699898357</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>240008.9699898357</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>225793.9699898357</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>225793.9699898357</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>225793.9699898357</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>225793.9699898357</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>225793.9699898357</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>225793.9699898357</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>227781.0302898357</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>218889.4408898357</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>218889.4408898357</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>228440.8732898357</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>227826.4274898357</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>230276.0986898357</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>230276.0986898357</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>230276.0986898357</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>230276.0986898357</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>230278.0986898357</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>227723.9918898357</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>227723.9918898357</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>227723.9918898357</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>227723.9918898357</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>227723.9918898357</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>227723.9918898357</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>227723.9918898357</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>227723.9918898357</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>227723.9918898357</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>259545.4858898357</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>259545.4858898357</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>254444.4565898357</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>254446.4565898357</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>254446.4565898357</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>251946.4565898357</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>251948.4565898357</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>249669.1015898357</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>249669.1015898357</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>249669.1015898357</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>228974.3085898357</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>228974.3085898357</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>261694.5284898357</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>261694.5284898357</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>261694.5284898357</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>261694.5284898357</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>261694.5284898357</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>261694.5284898357</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>261694.5284898357</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>261694.5284898357</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>261694.5284898357</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>261694.5284898357</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>262334.8688187753</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>262337.8302187753</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>262275.2111187753</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>262275.2111187753</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>262277.2111187753</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>219056.3299187753</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>219056.3299187753</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>219056.3299187753</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>213142.1441187753</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>201267.3753562753</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>225533.5831562753</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>225533.5831562753</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>226910.0610562753</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>226910.0610562753</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>226910.0610562753</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>203035.9577562753</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>201043.1462562753</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>211730.7687562753</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>207588.1785562753</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>207588.1785562753</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>112022.3177562753</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>54958.5932562753</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>54958.5932562753</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>54958.5932562753</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>54958.5932562753</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>36113.8407562753</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>36113.8407562753</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>36113.8407562753</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>41996.5454562753</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>17851.2050562753</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>17851.2050562753</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>17851.2050562753</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>17851.2050562753</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>17851.2050562753</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-27545.9511437247</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-27545.9511437247</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-27545.9511437247</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-36754.0329437247</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-36754.0329437247</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-116928.2344437247</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-116928.2344437247</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-116928.2344437247</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-116674.3200437247</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-184504.8704437247</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-184504.8704437247</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-178572.4828437247</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-185337.3704437247</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-183205.5159437247</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-183205.5159437247</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-183205.5159437247</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-124758.0354437247</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-124758.0354437247</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-124758.0354437247</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-124756.0354437247</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-166843.9924437247</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-166843.9924437247</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-138204.0861437248</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-116184.9925437248</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-116193.9853437248</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-116193.9853437248</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-121580.9958437248</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-121580.9958437248</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-110452.5940437248</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-123300.0552437248</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>59184.52844598936</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>59184.52844598936</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>59184.52844598936</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>59184.52844598936</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>45015.26243570352</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>50695.62872541767</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>50695.62872541767</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-28050.90157458233</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-56265.35423144508</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-56265.35423144508</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-61497.23693144508</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-63260.60053144507</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>9591.51076855493</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-49871.59653144507</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-49871.59653144507</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-57526.55803144507</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-57524.55803144507</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-57524.55803144507</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-57524.55803144507</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-69169.15513144508</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-34852.13953144507</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-34852.13953144507</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-23183.75113144507</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-36438.96003144507</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-36438.96003144507</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-99927.20163144507</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-143653.6952314451</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22330,10 +22330,14 @@
         <v>-843224.9706665259</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>236</v>
+      </c>
+      <c r="J665" t="n">
+        <v>236</v>
+      </c>
       <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
@@ -22366,8 +22370,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>236</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22399,8 +22409,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>236</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22462,10 +22478,14 @@
         <v>-843224.9706665259</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>237</v>
+      </c>
+      <c r="J669" t="n">
+        <v>237</v>
+      </c>
       <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
@@ -22498,8 +22518,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>237</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22531,8 +22557,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>237</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22564,8 +22596,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>237</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22597,8 +22635,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>237</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22630,8 +22674,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>237</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22663,8 +22713,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>237</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22696,8 +22752,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>237</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22729,8 +22791,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>237</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22762,8 +22830,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>237</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22795,8 +22869,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>237</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22828,8 +22908,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>237</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22858,11 +22944,19 @@
         <v>-855628.087266526</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>236</v>
+      </c>
+      <c r="J681" t="n">
+        <v>237</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22894,8 +22988,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>237</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22924,11 +23024,19 @@
         <v>-855628.087266526</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>237</v>
+      </c>
+      <c r="J683" t="n">
+        <v>237</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22960,8 +23068,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>237</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -22993,8 +23107,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>237</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23026,8 +23146,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>237</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23059,8 +23185,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>237</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23092,8 +23224,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>237</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23122,15 +23260,17 @@
         <v>-854106.9058205344</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I689" t="n">
         <v>238</v>
       </c>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>237</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L689" t="n">
@@ -23164,7 +23304,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>237</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23198,12 +23340,14 @@
         <v>-933354.0574745429</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I691" t="n">
         <v>236</v>
       </c>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>237</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23237,12 +23381,12 @@
         <v>-903915.8356745429</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
-      </c>
-      <c r="I692" t="n">
-        <v>235</v>
-      </c>
-      <c r="J692" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>237</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23276,10 +23420,14 @@
         <v>-900072.580374543</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>236</v>
+      </c>
+      <c r="J693" t="n">
+        <v>237</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23316,7 +23464,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>237</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23350,10 +23500,14 @@
         <v>-928424.897874543</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>237</v>
+      </c>
+      <c r="J695" t="n">
+        <v>237</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23390,7 +23544,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>237</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23424,10 +23580,14 @@
         <v>-882753.035874543</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>237</v>
+      </c>
+      <c r="J697" t="n">
+        <v>237</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23464,7 +23624,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>237</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23498,10 +23660,14 @@
         <v>-908327.5793285514</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>239</v>
+      </c>
+      <c r="J699" t="n">
+        <v>237</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23535,10 +23701,14 @@
         <v>-1004676.840028551</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>238</v>
+      </c>
+      <c r="J700" t="n">
+        <v>237</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23575,7 +23745,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>237</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23612,7 +23784,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>237</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23649,7 +23823,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>237</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23686,7 +23862,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>237</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23720,10 +23898,14 @@
         <v>-989531.5598285514</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>238</v>
+      </c>
+      <c r="J705" t="n">
+        <v>237</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23757,10 +23939,14 @@
         <v>-989531.5598285514</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>238</v>
+      </c>
+      <c r="J706" t="n">
+        <v>237</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23794,10 +23980,14 @@
         <v>-989531.5598285514</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>238</v>
+      </c>
+      <c r="J707" t="n">
+        <v>237</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23834,7 +24024,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>237</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23868,10 +24060,14 @@
         <v>-989531.5598285514</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>238</v>
+      </c>
+      <c r="J709" t="n">
+        <v>237</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23908,7 +24104,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>237</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23942,12 +24140,14 @@
         <v>-1020788.805028551</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I711" t="n">
         <v>237</v>
       </c>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>237</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23981,12 +24181,14 @@
         <v>-1020788.805028551</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I712" t="n">
         <v>237</v>
       </c>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>237</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24023,7 +24225,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>237</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24060,7 +24264,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>237</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24094,12 +24300,12 @@
         <v>-1045350.225428551</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
-      </c>
-      <c r="I715" t="n">
-        <v>238</v>
-      </c>
-      <c r="J715" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>237</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24136,7 +24342,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>237</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24173,7 +24381,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>237</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24210,7 +24420,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>237</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24247,7 +24459,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>237</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24281,12 +24495,12 @@
         <v>-1156154.677228551</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
-      </c>
-      <c r="I720" t="n">
-        <v>237</v>
-      </c>
-      <c r="J720" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>237</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24323,7 +24537,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>237</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24360,7 +24576,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>237</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24397,7 +24615,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>237</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24434,7 +24654,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>237</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24471,7 +24693,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>237</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24508,7 +24732,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>237</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24545,7 +24771,9 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>237</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24579,10 +24807,14 @@
         <v>-1178604.135328551</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>235</v>
+      </c>
+      <c r="J728" t="n">
+        <v>237</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24616,10 +24848,14 @@
         <v>-1178604.135328551</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>236</v>
+      </c>
+      <c r="J729" t="n">
+        <v>237</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24653,10 +24889,14 @@
         <v>-1178604.135328551</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>236</v>
+      </c>
+      <c r="J730" t="n">
+        <v>237</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24690,12 +24930,14 @@
         <v>-1178604.135328551</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I731" t="n">
         <v>236</v>
       </c>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>237</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24729,12 +24971,14 @@
         <v>-1178604.135328551</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I732" t="n">
         <v>236</v>
       </c>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>237</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24768,12 +25012,14 @@
         <v>-1178604.135328551</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I733" t="n">
         <v>236</v>
       </c>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>237</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24807,12 +25053,14 @@
         <v>-1178078.919828551</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I734" t="n">
         <v>236</v>
       </c>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>237</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24846,10 +25094,14 @@
         <v>-1196816.055228551</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>237</v>
+      </c>
+      <c r="J735" t="n">
+        <v>237</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24883,10 +25135,14 @@
         <v>-1196713.855228551</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>235</v>
+      </c>
+      <c r="J736" t="n">
+        <v>237</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24920,12 +25176,14 @@
         <v>-1196716.055228551</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I737" t="n">
         <v>236</v>
       </c>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>237</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24959,12 +25217,12 @@
         <v>-1196713.855228551</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
-      </c>
-      <c r="I738" t="n">
-        <v>235</v>
-      </c>
-      <c r="J738" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>237</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24998,12 +25256,14 @@
         <v>-1196713.855228551</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I739" t="n">
         <v>236</v>
       </c>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>237</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25037,12 +25297,14 @@
         <v>-1196713.855228551</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I740" t="n">
         <v>236</v>
       </c>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>237</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25076,12 +25338,14 @@
         <v>-1196713.855228551</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I741" t="n">
         <v>236</v>
       </c>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>237</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25115,12 +25379,12 @@
         <v>-1196713.855228551</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
-      </c>
-      <c r="I742" t="n">
-        <v>236</v>
-      </c>
-      <c r="J742" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>237</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25154,12 +25418,14 @@
         <v>-1196713.855228551</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I743" t="n">
         <v>236</v>
       </c>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>237</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25193,10 +25459,14 @@
         <v>-1197085.732728551</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>236</v>
+      </c>
+      <c r="J744" t="n">
+        <v>237</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25230,10 +25500,14 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>235</v>
+      </c>
+      <c r="J745" t="n">
+        <v>237</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25267,10 +25541,14 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>236</v>
+      </c>
+      <c r="J746" t="n">
+        <v>237</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25304,10 +25582,14 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>236</v>
+      </c>
+      <c r="J747" t="n">
+        <v>237</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25341,10 +25623,14 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>236</v>
+      </c>
+      <c r="J748" t="n">
+        <v>237</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25378,12 +25664,14 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I749" t="n">
         <v>236</v>
       </c>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>237</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25420,7 +25708,9 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>237</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25454,12 +25744,12 @@
         <v>-1197550.699428551</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
-      </c>
-      <c r="I751" t="n">
-        <v>237</v>
-      </c>
-      <c r="J751" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>237</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25493,10 +25783,14 @@
         <v>-1206250.262328551</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>235</v>
+      </c>
+      <c r="J752" t="n">
+        <v>237</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25533,7 +25827,9 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>237</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25567,10 +25863,14 @@
         <v>-1205634.736028551</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>234</v>
+      </c>
+      <c r="J754" t="n">
+        <v>237</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25604,12 +25904,14 @@
         <v>-1205634.736028551</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I755" t="n">
         <v>235</v>
       </c>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>237</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25643,12 +25945,14 @@
         <v>-1150353.811375218</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I756" t="n">
         <v>235</v>
       </c>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>237</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25682,12 +25986,14 @@
         <v>-1132021.702175218</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I757" t="n">
         <v>237</v>
       </c>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>237</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25721,12 +26027,12 @@
         <v>-1132021.702175218</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
-      </c>
-      <c r="I758" t="n">
-        <v>238</v>
-      </c>
-      <c r="J758" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>237</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25763,7 +26069,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>237</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25797,12 +26105,12 @@
         <v>-1117865.031375218</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
-      </c>
-      <c r="I760" t="n">
-        <v>238</v>
-      </c>
-      <c r="J760" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>237</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25839,7 +26147,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>237</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25873,12 +26183,12 @@
         <v>-1117865.031375218</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
-      </c>
-      <c r="I762" t="n">
-        <v>239</v>
-      </c>
-      <c r="J762" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>237</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25915,7 +26225,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>237</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25949,12 +26261,12 @@
         <v>-1122641.653475218</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
-      </c>
-      <c r="I764" t="n">
-        <v>238</v>
-      </c>
-      <c r="J764" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>237</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25988,12 +26300,12 @@
         <v>-1124824.119275218</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
-      </c>
-      <c r="I765" t="n">
-        <v>238</v>
-      </c>
-      <c r="J765" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>237</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26030,7 +26342,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>237</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26064,12 +26378,14 @@
         <v>-1125035.983675218</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I767" t="n">
         <v>236</v>
       </c>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>237</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26103,12 +26419,12 @@
         <v>-1125035.983675218</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
-      </c>
-      <c r="I768" t="n">
-        <v>236</v>
-      </c>
-      <c r="J768" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>237</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26142,12 +26458,14 @@
         <v>-1125035.983675218</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I769" t="n">
         <v>236</v>
       </c>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>237</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26181,12 +26499,14 @@
         <v>-1125035.983675218</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I770" t="n">
         <v>236</v>
       </c>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>237</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26220,12 +26540,12 @@
         <v>-1125035.983675218</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
-      </c>
-      <c r="I771" t="n">
-        <v>236</v>
-      </c>
-      <c r="J771" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>237</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26262,7 +26582,9 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>237</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26299,7 +26621,9 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>237</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26333,12 +26657,12 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
-      </c>
-      <c r="I774" t="n">
-        <v>236</v>
-      </c>
-      <c r="J774" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>237</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26372,12 +26696,14 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I775" t="n">
         <v>237</v>
       </c>
-      <c r="J775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>237</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26411,12 +26737,14 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I776" t="n">
         <v>237</v>
       </c>
-      <c r="J776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>237</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26450,12 +26778,14 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I777" t="n">
         <v>237</v>
       </c>
-      <c r="J777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>237</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26489,12 +26819,14 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I778" t="n">
         <v>237</v>
       </c>
-      <c r="J778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>237</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26528,12 +26860,14 @@
         <v>-1174300.914175218</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I779" t="n">
         <v>237</v>
       </c>
-      <c r="J779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>237</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26567,12 +26901,14 @@
         <v>-1144372.035075218</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I780" t="n">
         <v>236</v>
       </c>
-      <c r="J780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>237</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26606,12 +26942,12 @@
         <v>-1144372.035075218</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
-      </c>
-      <c r="I781" t="n">
-        <v>237</v>
-      </c>
-      <c r="J781" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>237</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26645,12 +26981,12 @@
         <v>-1144180.959275218</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
-      </c>
-      <c r="I782" t="n">
-        <v>237</v>
-      </c>
-      <c r="J782" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>237</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26684,12 +27020,12 @@
         <v>-1144180.959275218</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
-      </c>
-      <c r="I783" t="n">
-        <v>238</v>
-      </c>
-      <c r="J783" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>237</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26723,12 +27059,12 @@
         <v>-1194326.685575218</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
-      </c>
-      <c r="I784" t="n">
-        <v>238</v>
-      </c>
-      <c r="J784" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>237</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26765,7 +27101,9 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>237</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26799,12 +27137,12 @@
         <v>-1194326.685575218</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
-      </c>
-      <c r="I786" t="n">
-        <v>237</v>
-      </c>
-      <c r="J786" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>237</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26841,7 +27179,9 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>237</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26875,10 +27215,14 @@
         <v>-1212342.083875218</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>236</v>
+      </c>
+      <c r="J788" t="n">
+        <v>237</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26912,12 +27256,12 @@
         <v>-1212342.083875218</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
-      </c>
-      <c r="I789" t="n">
-        <v>236</v>
-      </c>
-      <c r="J789" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>237</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26951,12 +27295,12 @@
         <v>-1212342.083875218</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
-      </c>
-      <c r="I790" t="n">
-        <v>236</v>
-      </c>
-      <c r="J790" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>237</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26990,12 +27334,12 @@
         <v>-1212237.400330914</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
-      </c>
-      <c r="I791" t="n">
-        <v>236</v>
-      </c>
-      <c r="J791" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>237</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27029,12 +27373,12 @@
         <v>-1212237.400330914</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
-      </c>
-      <c r="I792" t="n">
-        <v>237</v>
-      </c>
-      <c r="J792" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>237</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27071,7 +27415,9 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>237</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27108,7 +27454,9 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>237</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27145,7 +27493,9 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>237</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27182,7 +27532,9 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>237</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27219,7 +27571,9 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>237</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27253,12 +27607,14 @@
         <v>-1212237.400330914</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I798" t="n">
         <v>237</v>
       </c>
-      <c r="J798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>237</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27295,7 +27651,9 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>237</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27332,7 +27690,9 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>237</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27369,7 +27729,9 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>237</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27406,7 +27768,9 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>237</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27443,7 +27807,9 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>237</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27480,7 +27846,9 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>237</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27517,7 +27885,9 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>237</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27554,7 +27924,9 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>237</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27591,7 +27963,9 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>237</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27628,7 +28002,9 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>237</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27665,7 +28041,9 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>237</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27702,7 +28080,9 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>237</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27739,7 +28119,9 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>237</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27776,7 +28158,9 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>237</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27813,7 +28197,9 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>237</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27850,7 +28236,9 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>237</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27887,7 +28275,9 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>237</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27924,7 +28314,9 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>237</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27961,7 +28353,9 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>237</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27998,7 +28392,9 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>237</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28035,7 +28431,9 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>237</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28072,7 +28470,9 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>237</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28109,7 +28509,9 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>237</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28146,7 +28548,9 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>237</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28183,7 +28587,9 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>237</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28220,7 +28626,9 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>237</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28257,7 +28665,9 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>237</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28294,7 +28704,9 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>237</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28331,7 +28743,9 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>237</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28368,7 +28782,9 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>237</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28405,7 +28821,9 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>237</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28442,7 +28860,9 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>237</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28479,7 +28899,9 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>237</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28516,7 +28938,9 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>237</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28553,7 +28977,9 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>237</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28590,7 +29016,9 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>237</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28627,7 +29055,9 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>237</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28664,7 +29094,9 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>237</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28701,7 +29133,9 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>237</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28738,7 +29172,9 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>237</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28775,7 +29211,9 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>237</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28812,7 +29250,9 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>237</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28849,7 +29289,9 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>237</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28886,7 +29328,9 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>237</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28923,7 +29367,9 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>237</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28960,7 +29406,9 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>237</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28997,7 +29445,9 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>237</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29034,7 +29484,9 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>237</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29071,7 +29523,9 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>237</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29108,7 +29562,9 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>237</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29145,7 +29601,9 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>237</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29182,7 +29640,9 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>237</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29219,7 +29679,9 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>237</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29256,7 +29718,9 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>237</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29293,7 +29757,9 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>237</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29330,7 +29796,9 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>237</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29367,7 +29835,9 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>237</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29404,7 +29874,9 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>237</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29416,6 +29888,6 @@
       <c r="M856" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest FCT.xlsx
+++ b/BackTest/2019-11-13 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>70740.96858983568</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>59740.96858983568</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>43622.57038983569</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>30881.51178983569</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>30881.51178983569</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>48460.08918983569</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>48460.08918983569</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>48460.08918983569</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>43175.43358983569</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>38742.7399898357</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>38747.50558983569</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>13849.9902898357</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>29481.7255898357</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>3777.959589835704</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-41234.35381016429</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-31580.06451016429</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-29258.59681016429</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-30012.03641016429</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-29699.03641016429</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-60710.8291101643</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-56187.8619101643</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-55928.4995101643</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-55928.4995101643</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-56261.4651101643</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-55163.4651101643</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-55163.4651101643</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-58955.1417101643</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>88502.33278983567</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>97897.34248983566</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>99978.02318983566</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>99978.02318983566</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>99978.02318983566</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>99978.02318983566</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>96009.65168983566</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>101964.0312898357</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1599.223110164341</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1599.223110164341</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1599.223110164341</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1599.223110164341</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-4243.089210164341</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-30997.18921016434</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>87236.86528983567</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>87236.86528983567</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>87236.86528983567</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>87236.86528983567</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>87236.86528983567</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>90328.77148983566</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>90328.77148983566</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>90328.77148983566</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>90328.77148983566</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>90328.77148983566</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>90328.77148983566</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>55117.72488983566</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>55117.72488983566</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>115920.1280898357</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>115922.1280898357</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>104595.7063898357</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>104595.7063898357</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>104595.7063898357</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>104595.7063898357</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>82386.92718983565</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>82386.92718983565</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>150123.5551898357</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>151643.2841898357</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>151643.2841898357</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>207306.0402898357</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>207304.0402898357</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>207304.0402898357</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>207304.0402898357</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>207304.0402898357</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>207319.1467898357</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>207319.1467898357</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>206567.1467898357</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>206589.1467898357</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>206581.1467898357</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>224519.3677898357</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>224099.0002898357</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>227723.9918898357</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>227723.9918898357</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>227723.9918898357</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>259545.4858898357</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>259545.4858898357</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>254444.4565898357</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>254446.4565898357</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>254446.4565898357</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>251946.4565898357</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>251948.4565898357</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>249669.1015898357</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>249669.1015898357</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>249669.1015898357</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>228974.3085898357</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>228974.3085898357</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>261694.5284898357</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>261694.5284898357</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>262334.8688187753</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>262337.8302187753</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>262275.2111187753</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>262275.2111187753</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>219056.3299187753</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>213142.1441187753</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>226910.0610562753</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>226910.0610562753</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>226910.0610562753</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>203035.9577562753</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>201043.1462562753</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>211730.7687562753</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>207588.1785562753</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>207588.1785562753</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>112022.3177562753</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>54958.5932562753</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>54958.5932562753</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>54958.5932562753</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>54958.5932562753</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>36113.8407562753</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>36113.8407562753</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>36113.8407562753</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>41996.5454562753</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>17851.2050562753</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>17851.2050562753</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>17851.2050562753</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>17851.2050562753</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>17851.2050562753</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-27545.9511437247</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-27545.9511437247</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-27545.9511437247</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-36754.0329437247</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-36754.0329437247</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-116928.2344437247</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-116928.2344437247</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-116928.2344437247</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-116674.3200437247</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-154313.9260437247</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-28050.90157458233</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-56265.35423144508</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-56265.35423144508</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-61497.23693144508</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-63260.60053144507</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>9591.51076855493</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-49871.59653144507</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-57524.55803144507</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-57524.55803144507</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-69169.15513144508</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-34852.13953144507</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-34852.13953144507</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-23183.75113144507</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -22330,14 +22330,10 @@
         <v>-843224.9706665259</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>236</v>
-      </c>
-      <c r="J665" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
@@ -22370,14 +22366,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>236</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22409,14 +22399,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>236</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22478,14 +22462,10 @@
         <v>-843224.9706665259</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>237</v>
-      </c>
-      <c r="J669" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
@@ -22518,3405 +22498,2819 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="n">
+        <v>1</v>
+      </c>
+      <c r="M670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="n">
+        <v>236</v>
+      </c>
+      <c r="C671" t="n">
         <v>237</v>
       </c>
-      <c r="K670" t="inlineStr">
+      <c r="D671" t="n">
+        <v>237</v>
+      </c>
+      <c r="E671" t="n">
+        <v>236</v>
+      </c>
+      <c r="F671" t="n">
+        <v>2722.053</v>
+      </c>
+      <c r="G671" t="n">
+        <v>-844309.5021665259</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="n">
+        <v>1</v>
+      </c>
+      <c r="M671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="n">
+        <v>237</v>
+      </c>
+      <c r="C672" t="n">
+        <v>236</v>
+      </c>
+      <c r="D672" t="n">
+        <v>237</v>
+      </c>
+      <c r="E672" t="n">
+        <v>236</v>
+      </c>
+      <c r="F672" t="n">
+        <v>23354.4003</v>
+      </c>
+      <c r="G672" t="n">
+        <v>-867663.9024665259</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="n">
+        <v>1</v>
+      </c>
+      <c r="M672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="n">
+        <v>236</v>
+      </c>
+      <c r="C673" t="n">
+        <v>237</v>
+      </c>
+      <c r="D673" t="n">
+        <v>237</v>
+      </c>
+      <c r="E673" t="n">
+        <v>236</v>
+      </c>
+      <c r="F673" t="n">
+        <v>591.0987</v>
+      </c>
+      <c r="G673" t="n">
+        <v>-867072.8037665259</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="n">
+        <v>1</v>
+      </c>
+      <c r="M673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="n">
+        <v>236</v>
+      </c>
+      <c r="C674" t="n">
+        <v>236</v>
+      </c>
+      <c r="D674" t="n">
+        <v>237</v>
+      </c>
+      <c r="E674" t="n">
+        <v>236</v>
+      </c>
+      <c r="F674" t="n">
+        <v>6068.3806</v>
+      </c>
+      <c r="G674" t="n">
+        <v>-873141.184366526</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="n">
+        <v>1</v>
+      </c>
+      <c r="M674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="n">
+        <v>236</v>
+      </c>
+      <c r="C675" t="n">
+        <v>236</v>
+      </c>
+      <c r="D675" t="n">
+        <v>237</v>
+      </c>
+      <c r="E675" t="n">
+        <v>236</v>
+      </c>
+      <c r="F675" t="n">
+        <v>107933.9859</v>
+      </c>
+      <c r="G675" t="n">
+        <v>-873141.184366526</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="n">
+        <v>1</v>
+      </c>
+      <c r="M675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="n">
+        <v>236</v>
+      </c>
+      <c r="C676" t="n">
+        <v>236</v>
+      </c>
+      <c r="D676" t="n">
+        <v>236</v>
+      </c>
+      <c r="E676" t="n">
+        <v>236</v>
+      </c>
+      <c r="F676" t="n">
+        <v>366.3935</v>
+      </c>
+      <c r="G676" t="n">
+        <v>-873141.184366526</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
+      <c r="L676" t="n">
+        <v>1</v>
+      </c>
+      <c r="M676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="n">
+        <v>235</v>
+      </c>
+      <c r="C677" t="n">
+        <v>236</v>
+      </c>
+      <c r="D677" t="n">
+        <v>237</v>
+      </c>
+      <c r="E677" t="n">
+        <v>235</v>
+      </c>
+      <c r="F677" t="n">
+        <v>30501.23065400844</v>
+      </c>
+      <c r="G677" t="n">
+        <v>-873141.184366526</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
+      <c r="L677" t="n">
+        <v>1</v>
+      </c>
+      <c r="M677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="n">
+        <v>236</v>
+      </c>
+      <c r="C678" t="n">
+        <v>236</v>
+      </c>
+      <c r="D678" t="n">
+        <v>237</v>
+      </c>
+      <c r="E678" t="n">
+        <v>236</v>
+      </c>
+      <c r="F678" t="n">
+        <v>22973.4885</v>
+      </c>
+      <c r="G678" t="n">
+        <v>-873141.184366526</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
+      <c r="L678" t="n">
+        <v>1</v>
+      </c>
+      <c r="M678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="n">
+        <v>236</v>
+      </c>
+      <c r="C679" t="n">
+        <v>236</v>
+      </c>
+      <c r="D679" t="n">
+        <v>236</v>
+      </c>
+      <c r="E679" t="n">
+        <v>236</v>
+      </c>
+      <c r="F679" t="n">
+        <v>63.2261</v>
+      </c>
+      <c r="G679" t="n">
+        <v>-873141.184366526</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
+      <c r="L679" t="n">
+        <v>1</v>
+      </c>
+      <c r="M679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="n">
+        <v>236</v>
+      </c>
+      <c r="C680" t="n">
+        <v>236</v>
+      </c>
+      <c r="D680" t="n">
+        <v>236</v>
+      </c>
+      <c r="E680" t="n">
+        <v>236</v>
+      </c>
+      <c r="F680" t="n">
+        <v>25216.9755</v>
+      </c>
+      <c r="G680" t="n">
+        <v>-873141.184366526</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
+      <c r="L680" t="n">
+        <v>1</v>
+      </c>
+      <c r="M680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="n">
+        <v>237</v>
+      </c>
+      <c r="C681" t="n">
+        <v>237</v>
+      </c>
+      <c r="D681" t="n">
+        <v>237</v>
+      </c>
+      <c r="E681" t="n">
+        <v>235</v>
+      </c>
+      <c r="F681" t="n">
+        <v>17513.0971</v>
+      </c>
+      <c r="G681" t="n">
+        <v>-855628.087266526</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
+      <c r="L681" t="n">
+        <v>1</v>
+      </c>
+      <c r="M681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="n">
+        <v>237</v>
+      </c>
+      <c r="C682" t="n">
+        <v>237</v>
+      </c>
+      <c r="D682" t="n">
+        <v>237</v>
+      </c>
+      <c r="E682" t="n">
+        <v>237</v>
+      </c>
+      <c r="F682" t="n">
+        <v>11.1347</v>
+      </c>
+      <c r="G682" t="n">
+        <v>-855628.087266526</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
+      <c r="L682" t="n">
+        <v>1</v>
+      </c>
+      <c r="M682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="n">
+        <v>236</v>
+      </c>
+      <c r="C683" t="n">
+        <v>237</v>
+      </c>
+      <c r="D683" t="n">
+        <v>237</v>
+      </c>
+      <c r="E683" t="n">
+        <v>236</v>
+      </c>
+      <c r="F683" t="n">
+        <v>2795.0691</v>
+      </c>
+      <c r="G683" t="n">
+        <v>-855628.087266526</v>
+      </c>
+      <c r="H683" t="n">
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
+      <c r="L683" t="n">
+        <v>1</v>
+      </c>
+      <c r="M683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="n">
+        <v>237</v>
+      </c>
+      <c r="C684" t="n">
+        <v>237</v>
+      </c>
+      <c r="D684" t="n">
+        <v>237</v>
+      </c>
+      <c r="E684" t="n">
+        <v>237</v>
+      </c>
+      <c r="F684" t="n">
+        <v>66.848</v>
+      </c>
+      <c r="G684" t="n">
+        <v>-855628.087266526</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
+      <c r="L684" t="n">
+        <v>1</v>
+      </c>
+      <c r="M684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="n">
+        <v>237</v>
+      </c>
+      <c r="C685" t="n">
+        <v>237</v>
+      </c>
+      <c r="D685" t="n">
+        <v>237</v>
+      </c>
+      <c r="E685" t="n">
+        <v>236</v>
+      </c>
+      <c r="F685" t="n">
+        <v>15987.2685</v>
+      </c>
+      <c r="G685" t="n">
+        <v>-855628.087266526</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
+      <c r="L685" t="n">
+        <v>1</v>
+      </c>
+      <c r="M685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="n">
+        <v>237</v>
+      </c>
+      <c r="C686" t="n">
+        <v>237</v>
+      </c>
+      <c r="D686" t="n">
+        <v>237</v>
+      </c>
+      <c r="E686" t="n">
+        <v>237</v>
+      </c>
+      <c r="F686" t="n">
+        <v>6.8806</v>
+      </c>
+      <c r="G686" t="n">
+        <v>-855628.087266526</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
+      <c r="L686" t="n">
+        <v>1</v>
+      </c>
+      <c r="M686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="n">
+        <v>236</v>
+      </c>
+      <c r="C687" t="n">
+        <v>237</v>
+      </c>
+      <c r="D687" t="n">
+        <v>237</v>
+      </c>
+      <c r="E687" t="n">
+        <v>236</v>
+      </c>
+      <c r="F687" t="n">
+        <v>5378.6483</v>
+      </c>
+      <c r="G687" t="n">
+        <v>-855628.087266526</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
+      <c r="L687" t="n">
+        <v>1</v>
+      </c>
+      <c r="M687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="n">
+        <v>237</v>
+      </c>
+      <c r="C688" t="n">
+        <v>238</v>
+      </c>
+      <c r="D688" t="n">
+        <v>238</v>
+      </c>
+      <c r="E688" t="n">
+        <v>237</v>
+      </c>
+      <c r="F688" t="n">
+        <v>1521.181445991561</v>
+      </c>
+      <c r="G688" t="n">
+        <v>-854106.9058205344</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
+      <c r="L688" t="n">
+        <v>1</v>
+      </c>
+      <c r="M688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="n">
+        <v>238</v>
+      </c>
+      <c r="C689" t="n">
+        <v>238</v>
+      </c>
+      <c r="D689" t="n">
+        <v>238</v>
+      </c>
+      <c r="E689" t="n">
+        <v>237</v>
+      </c>
+      <c r="F689" t="n">
+        <v>16536.1235</v>
+      </c>
+      <c r="G689" t="n">
+        <v>-854106.9058205344</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
+      <c r="L689" t="n">
+        <v>1</v>
+      </c>
+      <c r="M689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="n">
+        <v>237</v>
+      </c>
+      <c r="C690" t="n">
+        <v>236</v>
+      </c>
+      <c r="D690" t="n">
+        <v>237</v>
+      </c>
+      <c r="E690" t="n">
+        <v>236</v>
+      </c>
+      <c r="F690" t="n">
+        <v>39109.68215400844</v>
+      </c>
+      <c r="G690" t="n">
+        <v>-893216.5879745429</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
+      <c r="L690" t="n">
+        <v>1</v>
+      </c>
+      <c r="M690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>235</v>
+      </c>
+      <c r="C691" t="n">
+        <v>235</v>
+      </c>
+      <c r="D691" t="n">
+        <v>237</v>
+      </c>
+      <c r="E691" t="n">
+        <v>234</v>
+      </c>
+      <c r="F691" t="n">
+        <v>40137.4695</v>
+      </c>
+      <c r="G691" t="n">
+        <v>-933354.0574745429</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
+      <c r="L691" t="n">
+        <v>1</v>
+      </c>
+      <c r="M691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="n">
+        <v>235</v>
+      </c>
+      <c r="C692" t="n">
+        <v>236</v>
+      </c>
+      <c r="D692" t="n">
+        <v>236</v>
+      </c>
+      <c r="E692" t="n">
+        <v>235</v>
+      </c>
+      <c r="F692" t="n">
+        <v>29438.2218</v>
+      </c>
+      <c r="G692" t="n">
+        <v>-903915.8356745429</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
+      <c r="L692" t="n">
+        <v>1</v>
+      </c>
+      <c r="M692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="n">
+        <v>236</v>
+      </c>
+      <c r="C693" t="n">
+        <v>237</v>
+      </c>
+      <c r="D693" t="n">
+        <v>237</v>
+      </c>
+      <c r="E693" t="n">
+        <v>236</v>
+      </c>
+      <c r="F693" t="n">
+        <v>3843.2553</v>
+      </c>
+      <c r="G693" t="n">
+        <v>-900072.580374543</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
+      <c r="L693" t="n">
+        <v>1</v>
+      </c>
+      <c r="M693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="n">
+        <v>237</v>
+      </c>
+      <c r="C694" t="n">
+        <v>237</v>
+      </c>
+      <c r="D694" t="n">
+        <v>237</v>
+      </c>
+      <c r="E694" t="n">
+        <v>237</v>
+      </c>
+      <c r="F694" t="n">
+        <v>2305.4259</v>
+      </c>
+      <c r="G694" t="n">
+        <v>-900072.580374543</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
+      <c r="L694" t="n">
+        <v>1</v>
+      </c>
+      <c r="M694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="n">
+        <v>236</v>
+      </c>
+      <c r="C695" t="n">
+        <v>235</v>
+      </c>
+      <c r="D695" t="n">
+        <v>236</v>
+      </c>
+      <c r="E695" t="n">
+        <v>235</v>
+      </c>
+      <c r="F695" t="n">
+        <v>28352.3175</v>
+      </c>
+      <c r="G695" t="n">
+        <v>-928424.897874543</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
+      <c r="L695" t="n">
+        <v>1</v>
+      </c>
+      <c r="M695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="n">
+        <v>235</v>
+      </c>
+      <c r="C696" t="n">
+        <v>237</v>
+      </c>
+      <c r="D696" t="n">
+        <v>237</v>
+      </c>
+      <c r="E696" t="n">
+        <v>234</v>
+      </c>
+      <c r="F696" t="n">
+        <v>45671.862</v>
+      </c>
+      <c r="G696" t="n">
+        <v>-882753.035874543</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
+      <c r="L696" t="n">
+        <v>1</v>
+      </c>
+      <c r="M696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="n">
+        <v>237</v>
+      </c>
+      <c r="C697" t="n">
+        <v>237</v>
+      </c>
+      <c r="D697" t="n">
+        <v>237</v>
+      </c>
+      <c r="E697" t="n">
+        <v>237</v>
+      </c>
+      <c r="F697" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G697" t="n">
+        <v>-882753.035874543</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
+      <c r="L697" t="n">
+        <v>1</v>
+      </c>
+      <c r="M697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="n">
+        <v>237</v>
+      </c>
+      <c r="C698" t="n">
+        <v>239</v>
+      </c>
+      <c r="D698" t="n">
+        <v>239</v>
+      </c>
+      <c r="E698" t="n">
+        <v>237</v>
+      </c>
+      <c r="F698" t="n">
+        <v>6509.980145991562</v>
+      </c>
+      <c r="G698" t="n">
+        <v>-876243.0557285515</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
+      <c r="L698" t="n">
+        <v>1</v>
+      </c>
+      <c r="M698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="n">
+        <v>238</v>
+      </c>
+      <c r="C699" t="n">
+        <v>238</v>
+      </c>
+      <c r="D699" t="n">
+        <v>239</v>
+      </c>
+      <c r="E699" t="n">
+        <v>238</v>
+      </c>
+      <c r="F699" t="n">
+        <v>32084.5236</v>
+      </c>
+      <c r="G699" t="n">
+        <v>-908327.5793285514</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
+      <c r="L699" t="n">
+        <v>1</v>
+      </c>
+      <c r="M699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="n">
+        <v>238</v>
+      </c>
+      <c r="C700" t="n">
+        <v>236</v>
+      </c>
+      <c r="D700" t="n">
+        <v>238</v>
+      </c>
+      <c r="E700" t="n">
+        <v>236</v>
+      </c>
+      <c r="F700" t="n">
+        <v>96349.2607</v>
+      </c>
+      <c r="G700" t="n">
+        <v>-1004676.840028551</v>
+      </c>
+      <c r="H700" t="n">
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
+      <c r="L700" t="n">
+        <v>1</v>
+      </c>
+      <c r="M700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="n">
+        <v>236</v>
+      </c>
+      <c r="C701" t="n">
+        <v>236</v>
+      </c>
+      <c r="D701" t="n">
+        <v>237</v>
+      </c>
+      <c r="E701" t="n">
+        <v>235</v>
+      </c>
+      <c r="F701" t="n">
+        <v>88361.64320000001</v>
+      </c>
+      <c r="G701" t="n">
+        <v>-1004676.840028551</v>
+      </c>
+      <c r="H701" t="n">
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
+      <c r="L701" t="n">
+        <v>1</v>
+      </c>
+      <c r="M701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="n">
+        <v>237</v>
+      </c>
+      <c r="C702" t="n">
+        <v>237</v>
+      </c>
+      <c r="D702" t="n">
+        <v>237</v>
+      </c>
+      <c r="E702" t="n">
+        <v>237</v>
+      </c>
+      <c r="F702" t="n">
+        <v>4598.7327</v>
+      </c>
+      <c r="G702" t="n">
+        <v>-1000078.107328551</v>
+      </c>
+      <c r="H702" t="n">
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
+      <c r="L702" t="n">
+        <v>1</v>
+      </c>
+      <c r="M702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="n">
+        <v>236</v>
+      </c>
+      <c r="C703" t="n">
+        <v>237</v>
+      </c>
+      <c r="D703" t="n">
+        <v>237</v>
+      </c>
+      <c r="E703" t="n">
+        <v>236</v>
+      </c>
+      <c r="F703" t="n">
+        <v>14651.1707</v>
+      </c>
+      <c r="G703" t="n">
+        <v>-1000078.107328551</v>
+      </c>
+      <c r="H703" t="n">
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
+      <c r="L703" t="n">
+        <v>1</v>
+      </c>
+      <c r="M703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="n">
+        <v>237</v>
+      </c>
+      <c r="C704" t="n">
+        <v>238</v>
+      </c>
+      <c r="D704" t="n">
+        <v>238</v>
+      </c>
+      <c r="E704" t="n">
+        <v>237</v>
+      </c>
+      <c r="F704" t="n">
+        <v>10546.5475</v>
+      </c>
+      <c r="G704" t="n">
+        <v>-989531.5598285514</v>
+      </c>
+      <c r="H704" t="n">
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
+      <c r="L704" t="n">
+        <v>1</v>
+      </c>
+      <c r="M704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="n">
+        <v>238</v>
+      </c>
+      <c r="C705" t="n">
+        <v>238</v>
+      </c>
+      <c r="D705" t="n">
+        <v>238</v>
+      </c>
+      <c r="E705" t="n">
+        <v>238</v>
+      </c>
+      <c r="F705" t="n">
+        <v>3270.6515</v>
+      </c>
+      <c r="G705" t="n">
+        <v>-989531.5598285514</v>
+      </c>
+      <c r="H705" t="n">
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
+      <c r="L705" t="n">
+        <v>1</v>
+      </c>
+      <c r="M705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="n">
+        <v>238</v>
+      </c>
+      <c r="C706" t="n">
+        <v>238</v>
+      </c>
+      <c r="D706" t="n">
+        <v>238</v>
+      </c>
+      <c r="E706" t="n">
+        <v>237</v>
+      </c>
+      <c r="F706" t="n">
+        <v>42662.79</v>
+      </c>
+      <c r="G706" t="n">
+        <v>-989531.5598285514</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
+      <c r="L706" t="n">
+        <v>1</v>
+      </c>
+      <c r="M706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="n">
+        <v>238</v>
+      </c>
+      <c r="C707" t="n">
+        <v>238</v>
+      </c>
+      <c r="D707" t="n">
+        <v>238</v>
+      </c>
+      <c r="E707" t="n">
+        <v>237</v>
+      </c>
+      <c r="F707" t="n">
+        <v>1158.1334</v>
+      </c>
+      <c r="G707" t="n">
+        <v>-989531.5598285514</v>
+      </c>
+      <c r="H707" t="n">
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
+      <c r="L707" t="n">
+        <v>1</v>
+      </c>
+      <c r="M707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="n">
+        <v>238</v>
+      </c>
+      <c r="C708" t="n">
+        <v>238</v>
+      </c>
+      <c r="D708" t="n">
+        <v>238</v>
+      </c>
+      <c r="E708" t="n">
+        <v>238</v>
+      </c>
+      <c r="F708" t="n">
+        <v>689.9625</v>
+      </c>
+      <c r="G708" t="n">
+        <v>-989531.5598285514</v>
+      </c>
+      <c r="H708" t="n">
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
+      <c r="L708" t="n">
+        <v>1</v>
+      </c>
+      <c r="M708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="n">
+        <v>238</v>
+      </c>
+      <c r="C709" t="n">
+        <v>238</v>
+      </c>
+      <c r="D709" t="n">
+        <v>238</v>
+      </c>
+      <c r="E709" t="n">
+        <v>237</v>
+      </c>
+      <c r="F709" t="n">
+        <v>34248.1238</v>
+      </c>
+      <c r="G709" t="n">
+        <v>-989531.5598285514</v>
+      </c>
+      <c r="H709" t="n">
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
+      <c r="L709" t="n">
+        <v>1</v>
+      </c>
+      <c r="M709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="n">
+        <v>237</v>
+      </c>
+      <c r="C710" t="n">
+        <v>237</v>
+      </c>
+      <c r="D710" t="n">
+        <v>237</v>
+      </c>
+      <c r="E710" t="n">
+        <v>237</v>
+      </c>
+      <c r="F710" t="n">
+        <v>31257.2452</v>
+      </c>
+      <c r="G710" t="n">
+        <v>-1020788.805028551</v>
+      </c>
+      <c r="H710" t="n">
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
+      <c r="L710" t="n">
+        <v>1</v>
+      </c>
+      <c r="M710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="n">
+        <v>236</v>
+      </c>
+      <c r="C711" t="n">
+        <v>237</v>
+      </c>
+      <c r="D711" t="n">
+        <v>237</v>
+      </c>
+      <c r="E711" t="n">
+        <v>236</v>
+      </c>
+      <c r="F711" t="n">
+        <v>10002.2</v>
+      </c>
+      <c r="G711" t="n">
+        <v>-1020788.805028551</v>
+      </c>
+      <c r="H711" t="n">
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
+      <c r="L711" t="n">
+        <v>1</v>
+      </c>
+      <c r="M711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="n">
+        <v>236</v>
+      </c>
+      <c r="C712" t="n">
+        <v>237</v>
+      </c>
+      <c r="D712" t="n">
+        <v>237</v>
+      </c>
+      <c r="E712" t="n">
+        <v>235</v>
+      </c>
+      <c r="F712" t="n">
+        <v>45457.5815</v>
+      </c>
+      <c r="G712" t="n">
+        <v>-1020788.805028551</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
+      <c r="L712" t="n">
+        <v>1</v>
+      </c>
+      <c r="M712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="n">
+        <v>237</v>
+      </c>
+      <c r="C713" t="n">
+        <v>237</v>
+      </c>
+      <c r="D713" t="n">
+        <v>237</v>
+      </c>
+      <c r="E713" t="n">
+        <v>237</v>
+      </c>
+      <c r="F713" t="n">
+        <v>2306.7185</v>
+      </c>
+      <c r="G713" t="n">
+        <v>-1020788.805028551</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
+      <c r="L713" t="n">
+        <v>1</v>
+      </c>
+      <c r="M713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="n">
+        <v>237</v>
+      </c>
+      <c r="C714" t="n">
+        <v>238</v>
+      </c>
+      <c r="D714" t="n">
+        <v>238</v>
+      </c>
+      <c r="E714" t="n">
+        <v>237</v>
+      </c>
+      <c r="F714" t="n">
+        <v>3105.0738</v>
+      </c>
+      <c r="G714" t="n">
+        <v>-1017683.731228551</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
+      <c r="L714" t="n">
+        <v>1</v>
+      </c>
+      <c r="M714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="n">
+        <v>238</v>
+      </c>
+      <c r="C715" t="n">
+        <v>237</v>
+      </c>
+      <c r="D715" t="n">
+        <v>238</v>
+      </c>
+      <c r="E715" t="n">
+        <v>237</v>
+      </c>
+      <c r="F715" t="n">
+        <v>27666.4942</v>
+      </c>
+      <c r="G715" t="n">
+        <v>-1045350.225428551</v>
+      </c>
+      <c r="H715" t="n">
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
+      <c r="L715" t="n">
+        <v>1</v>
+      </c>
+      <c r="M715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="n">
+        <v>237</v>
+      </c>
+      <c r="C716" t="n">
+        <v>238</v>
+      </c>
+      <c r="D716" t="n">
+        <v>238</v>
+      </c>
+      <c r="E716" t="n">
+        <v>237</v>
+      </c>
+      <c r="F716" t="n">
+        <v>1663.7653</v>
+      </c>
+      <c r="G716" t="n">
+        <v>-1043686.460128551</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
+      <c r="L716" t="n">
+        <v>1</v>
+      </c>
+      <c r="M716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="n">
+        <v>237</v>
+      </c>
+      <c r="C717" t="n">
+        <v>238</v>
+      </c>
+      <c r="D717" t="n">
+        <v>238</v>
+      </c>
+      <c r="E717" t="n">
+        <v>237</v>
+      </c>
+      <c r="F717" t="n">
+        <v>24813.4443</v>
+      </c>
+      <c r="G717" t="n">
+        <v>-1043686.460128551</v>
+      </c>
+      <c r="H717" t="n">
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
+      <c r="L717" t="n">
+        <v>1</v>
+      </c>
+      <c r="M717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="n">
+        <v>237</v>
+      </c>
+      <c r="C718" t="n">
+        <v>237</v>
+      </c>
+      <c r="D718" t="n">
+        <v>237</v>
+      </c>
+      <c r="E718" t="n">
+        <v>237</v>
+      </c>
+      <c r="F718" t="n">
+        <v>16253.9088</v>
+      </c>
+      <c r="G718" t="n">
+        <v>-1059940.368928551</v>
+      </c>
+      <c r="H718" t="n">
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
+      <c r="L718" t="n">
+        <v>1</v>
+      </c>
+      <c r="M718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="n">
+        <v>237</v>
+      </c>
+      <c r="C719" t="n">
+        <v>237</v>
+      </c>
+      <c r="D719" t="n">
+        <v>237</v>
+      </c>
+      <c r="E719" t="n">
+        <v>237</v>
+      </c>
+      <c r="F719" t="n">
+        <v>314.6228</v>
+      </c>
+      <c r="G719" t="n">
+        <v>-1059940.368928551</v>
+      </c>
+      <c r="H719" t="n">
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
+      <c r="L719" t="n">
+        <v>1</v>
+      </c>
+      <c r="M719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="n">
+        <v>236</v>
+      </c>
+      <c r="C720" t="n">
+        <v>236</v>
+      </c>
+      <c r="D720" t="n">
+        <v>236</v>
+      </c>
+      <c r="E720" t="n">
+        <v>235</v>
+      </c>
+      <c r="F720" t="n">
+        <v>96214.3083</v>
+      </c>
+      <c r="G720" t="n">
+        <v>-1156154.677228551</v>
+      </c>
+      <c r="H720" t="n">
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
+      <c r="L720" t="n">
+        <v>1</v>
+      </c>
+      <c r="M720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="n">
+        <v>236</v>
+      </c>
+      <c r="C721" t="n">
+        <v>236</v>
+      </c>
+      <c r="D721" t="n">
+        <v>236</v>
+      </c>
+      <c r="E721" t="n">
+        <v>236</v>
+      </c>
+      <c r="F721" t="n">
+        <v>3346.2174</v>
+      </c>
+      <c r="G721" t="n">
+        <v>-1156154.677228551</v>
+      </c>
+      <c r="H721" t="n">
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="n">
+        <v>1</v>
+      </c>
+      <c r="M721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="n">
+        <v>237</v>
+      </c>
+      <c r="C722" t="n">
+        <v>237</v>
+      </c>
+      <c r="D722" t="n">
+        <v>237</v>
+      </c>
+      <c r="E722" t="n">
+        <v>237</v>
+      </c>
+      <c r="F722" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G722" t="n">
+        <v>-1156152.477228551</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
+      <c r="L722" t="n">
+        <v>1</v>
+      </c>
+      <c r="M722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="n">
+        <v>237</v>
+      </c>
+      <c r="C723" t="n">
+        <v>237</v>
+      </c>
+      <c r="D723" t="n">
+        <v>237</v>
+      </c>
+      <c r="E723" t="n">
+        <v>237</v>
+      </c>
+      <c r="F723" t="n">
+        <v>100</v>
+      </c>
+      <c r="G723" t="n">
+        <v>-1156152.477228551</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
+      <c r="L723" t="n">
+        <v>1</v>
+      </c>
+      <c r="M723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="n">
+        <v>237</v>
+      </c>
+      <c r="C724" t="n">
+        <v>237</v>
+      </c>
+      <c r="D724" t="n">
+        <v>237</v>
+      </c>
+      <c r="E724" t="n">
+        <v>237</v>
+      </c>
+      <c r="F724" t="n">
+        <v>2137.2297</v>
+      </c>
+      <c r="G724" t="n">
+        <v>-1156152.477228551</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
+      <c r="L724" t="n">
+        <v>1</v>
+      </c>
+      <c r="M724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="n">
+        <v>237</v>
+      </c>
+      <c r="C725" t="n">
+        <v>237</v>
+      </c>
+      <c r="D725" t="n">
+        <v>238</v>
+      </c>
+      <c r="E725" t="n">
+        <v>237</v>
+      </c>
+      <c r="F725" t="n">
+        <v>23727.0973</v>
+      </c>
+      <c r="G725" t="n">
+        <v>-1156152.477228551</v>
+      </c>
+      <c r="H725" t="n">
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="n">
+        <v>1</v>
+      </c>
+      <c r="M725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="n">
+        <v>236</v>
+      </c>
+      <c r="C726" t="n">
+        <v>236</v>
+      </c>
+      <c r="D726" t="n">
+        <v>236</v>
+      </c>
+      <c r="E726" t="n">
+        <v>236</v>
+      </c>
+      <c r="F726" t="n">
+        <v>7537.7488</v>
+      </c>
+      <c r="G726" t="n">
+        <v>-1163690.226028551</v>
+      </c>
+      <c r="H726" t="n">
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
+      <c r="L726" t="n">
+        <v>1</v>
+      </c>
+      <c r="M726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="n">
+        <v>235</v>
+      </c>
+      <c r="C727" t="n">
+        <v>235</v>
+      </c>
+      <c r="D727" t="n">
+        <v>236</v>
+      </c>
+      <c r="E727" t="n">
+        <v>235</v>
+      </c>
+      <c r="F727" t="n">
+        <v>14922.1093</v>
+      </c>
+      <c r="G727" t="n">
+        <v>-1178612.335328551</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="n">
+        <v>1</v>
+      </c>
+      <c r="M727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="n">
+        <v>236</v>
+      </c>
+      <c r="C728" t="n">
+        <v>236</v>
+      </c>
+      <c r="D728" t="n">
+        <v>236</v>
+      </c>
+      <c r="E728" t="n">
+        <v>235</v>
+      </c>
+      <c r="F728" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G728" t="n">
+        <v>-1178604.135328551</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="n">
+        <v>1</v>
+      </c>
+      <c r="M728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="n">
+        <v>236</v>
+      </c>
+      <c r="C729" t="n">
+        <v>236</v>
+      </c>
+      <c r="D729" t="n">
+        <v>236</v>
+      </c>
+      <c r="E729" t="n">
+        <v>236</v>
+      </c>
+      <c r="F729" t="n">
+        <v>1158.8109</v>
+      </c>
+      <c r="G729" t="n">
+        <v>-1178604.135328551</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="n">
+        <v>1</v>
+      </c>
+      <c r="M729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="n">
+        <v>236</v>
+      </c>
+      <c r="C730" t="n">
+        <v>236</v>
+      </c>
+      <c r="D730" t="n">
+        <v>236</v>
+      </c>
+      <c r="E730" t="n">
+        <v>235</v>
+      </c>
+      <c r="F730" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G730" t="n">
+        <v>-1178604.135328551</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="n">
+        <v>1</v>
+      </c>
+      <c r="M730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="n">
+        <v>236</v>
+      </c>
+      <c r="C731" t="n">
+        <v>236</v>
+      </c>
+      <c r="D731" t="n">
+        <v>236</v>
+      </c>
+      <c r="E731" t="n">
+        <v>236</v>
+      </c>
+      <c r="F731" t="n">
+        <v>3732.0542</v>
+      </c>
+      <c r="G731" t="n">
+        <v>-1178604.135328551</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="n">
+        <v>1</v>
+      </c>
+      <c r="M731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="n">
+        <v>235</v>
+      </c>
+      <c r="C732" t="n">
+        <v>236</v>
+      </c>
+      <c r="D732" t="n">
+        <v>236</v>
+      </c>
+      <c r="E732" t="n">
+        <v>235</v>
+      </c>
+      <c r="F732" t="n">
+        <v>32046.6352</v>
+      </c>
+      <c r="G732" t="n">
+        <v>-1178604.135328551</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="n">
+        <v>1</v>
+      </c>
+      <c r="M732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="n">
+        <v>236</v>
+      </c>
+      <c r="C733" t="n">
+        <v>236</v>
+      </c>
+      <c r="D733" t="n">
+        <v>236</v>
+      </c>
+      <c r="E733" t="n">
+        <v>236</v>
+      </c>
+      <c r="F733" t="n">
+        <v>23089.0137</v>
+      </c>
+      <c r="G733" t="n">
+        <v>-1178604.135328551</v>
+      </c>
+      <c r="H733" t="n">
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="n">
+        <v>1</v>
+      </c>
+      <c r="M733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="n">
+        <v>237</v>
+      </c>
+      <c r="C734" t="n">
+        <v>237</v>
+      </c>
+      <c r="D734" t="n">
+        <v>237</v>
+      </c>
+      <c r="E734" t="n">
+        <v>237</v>
+      </c>
+      <c r="F734" t="n">
+        <v>525.2155</v>
+      </c>
+      <c r="G734" t="n">
+        <v>-1178078.919828551</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="n">
+        <v>1</v>
+      </c>
+      <c r="M734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="n">
+        <v>236</v>
+      </c>
+      <c r="C735" t="n">
+        <v>235</v>
+      </c>
+      <c r="D735" t="n">
+        <v>236</v>
+      </c>
+      <c r="E735" t="n">
+        <v>235</v>
+      </c>
+      <c r="F735" t="n">
+        <v>18737.1354</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-1196816.055228551</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="n">
+        <v>1</v>
+      </c>
+      <c r="M735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="n">
+        <v>236</v>
+      </c>
+      <c r="C736" t="n">
+        <v>236</v>
+      </c>
+      <c r="D736" t="n">
+        <v>236</v>
+      </c>
+      <c r="E736" t="n">
+        <v>236</v>
+      </c>
+      <c r="F736" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="G736" t="n">
+        <v>-1196713.855228551</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="n">
+        <v>1</v>
+      </c>
+      <c r="M736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="n">
+        <v>235</v>
+      </c>
+      <c r="C737" t="n">
+        <v>235</v>
+      </c>
+      <c r="D737" t="n">
+        <v>235</v>
+      </c>
+      <c r="E737" t="n">
+        <v>235</v>
+      </c>
+      <c r="F737" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G737" t="n">
+        <v>-1196716.055228551</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="n">
+        <v>1</v>
+      </c>
+      <c r="M737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="n">
+        <v>236</v>
+      </c>
+      <c r="C738" t="n">
+        <v>236</v>
+      </c>
+      <c r="D738" t="n">
+        <v>236</v>
+      </c>
+      <c r="E738" t="n">
+        <v>236</v>
+      </c>
+      <c r="F738" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G738" t="n">
+        <v>-1196713.855228551</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="n">
+        <v>1</v>
+      </c>
+      <c r="M738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="n">
+        <v>236</v>
+      </c>
+      <c r="C739" t="n">
+        <v>236</v>
+      </c>
+      <c r="D739" t="n">
+        <v>236</v>
+      </c>
+      <c r="E739" t="n">
+        <v>236</v>
+      </c>
+      <c r="F739" t="n">
+        <v>20</v>
+      </c>
+      <c r="G739" t="n">
+        <v>-1196713.855228551</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="n">
+        <v>1</v>
+      </c>
+      <c r="M739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>236</v>
+      </c>
+      <c r="C740" t="n">
+        <v>236</v>
+      </c>
+      <c r="D740" t="n">
+        <v>236</v>
+      </c>
+      <c r="E740" t="n">
+        <v>235</v>
+      </c>
+      <c r="F740" t="n">
+        <v>111</v>
+      </c>
+      <c r="G740" t="n">
+        <v>-1196713.855228551</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="n">
+        <v>1</v>
+      </c>
+      <c r="M740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>235</v>
+      </c>
+      <c r="C741" t="n">
+        <v>236</v>
+      </c>
+      <c r="D741" t="n">
+        <v>236</v>
+      </c>
+      <c r="E741" t="n">
+        <v>235</v>
+      </c>
+      <c r="F741" t="n">
+        <v>47</v>
+      </c>
+      <c r="G741" t="n">
+        <v>-1196713.855228551</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
+      <c r="L741" t="n">
+        <v>1</v>
+      </c>
+      <c r="M741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="n">
+        <v>236</v>
+      </c>
+      <c r="C742" t="n">
+        <v>236</v>
+      </c>
+      <c r="D742" t="n">
+        <v>236</v>
+      </c>
+      <c r="E742" t="n">
+        <v>236</v>
+      </c>
+      <c r="F742" t="n">
+        <v>30</v>
+      </c>
+      <c r="G742" t="n">
+        <v>-1196713.855228551</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="n">
+        <v>1</v>
+      </c>
+      <c r="M742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="n">
+        <v>235</v>
+      </c>
+      <c r="C743" t="n">
+        <v>236</v>
+      </c>
+      <c r="D743" t="n">
+        <v>236</v>
+      </c>
+      <c r="E743" t="n">
+        <v>235</v>
+      </c>
+      <c r="F743" t="n">
+        <v>2001.8324</v>
+      </c>
+      <c r="G743" t="n">
+        <v>-1196713.855228551</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="n">
+        <v>1</v>
+      </c>
+      <c r="M743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="n">
+        <v>235</v>
+      </c>
+      <c r="C744" t="n">
+        <v>235</v>
+      </c>
+      <c r="D744" t="n">
+        <v>235</v>
+      </c>
+      <c r="E744" t="n">
+        <v>235</v>
+      </c>
+      <c r="F744" t="n">
+        <v>371.8775</v>
+      </c>
+      <c r="G744" t="n">
+        <v>-1197085.732728551</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="n">
+        <v>1</v>
+      </c>
+      <c r="M744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="n">
+        <v>235</v>
+      </c>
+      <c r="C745" t="n">
+        <v>236</v>
+      </c>
+      <c r="D745" t="n">
+        <v>236</v>
+      </c>
+      <c r="E745" t="n">
+        <v>235</v>
+      </c>
+      <c r="F745" t="n">
+        <v>417.872</v>
+      </c>
+      <c r="G745" t="n">
+        <v>-1196667.860728551</v>
+      </c>
+      <c r="H745" t="n">
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="n">
+        <v>1</v>
+      </c>
+      <c r="M745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="n">
+        <v>235</v>
+      </c>
+      <c r="C746" t="n">
+        <v>236</v>
+      </c>
+      <c r="D746" t="n">
+        <v>236</v>
+      </c>
+      <c r="E746" t="n">
+        <v>235</v>
+      </c>
+      <c r="F746" t="n">
+        <v>13783.6117</v>
+      </c>
+      <c r="G746" t="n">
+        <v>-1196667.860728551</v>
+      </c>
+      <c r="H746" t="n">
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
+      <c r="L746" t="n">
+        <v>1</v>
+      </c>
+      <c r="M746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="n">
+        <v>236</v>
+      </c>
+      <c r="C747" t="n">
+        <v>236</v>
+      </c>
+      <c r="D747" t="n">
+        <v>236</v>
+      </c>
+      <c r="E747" t="n">
+        <v>236</v>
+      </c>
+      <c r="F747" t="n">
+        <v>50</v>
+      </c>
+      <c r="G747" t="n">
+        <v>-1196667.860728551</v>
+      </c>
+      <c r="H747" t="n">
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="n">
+        <v>1</v>
+      </c>
+      <c r="M747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="n">
+        <v>236</v>
+      </c>
+      <c r="C748" t="n">
+        <v>236</v>
+      </c>
+      <c r="D748" t="n">
+        <v>236</v>
+      </c>
+      <c r="E748" t="n">
+        <v>236</v>
+      </c>
+      <c r="F748" t="n">
+        <v>185.8211</v>
+      </c>
+      <c r="G748" t="n">
+        <v>-1196667.860728551</v>
+      </c>
+      <c r="H748" t="n">
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
+      <c r="L748" t="n">
+        <v>1</v>
+      </c>
+      <c r="M748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="n">
+        <v>236</v>
+      </c>
+      <c r="C749" t="n">
+        <v>236</v>
+      </c>
+      <c r="D749" t="n">
+        <v>236</v>
+      </c>
+      <c r="E749" t="n">
+        <v>236</v>
+      </c>
+      <c r="F749" t="n">
+        <v>2596.2972</v>
+      </c>
+      <c r="G749" t="n">
+        <v>-1196667.860728551</v>
+      </c>
+      <c r="H749" t="n">
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
+      <c r="L749" t="n">
+        <v>1</v>
+      </c>
+      <c r="M749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="n">
+        <v>237</v>
+      </c>
+      <c r="C750" t="n">
+        <v>237</v>
+      </c>
+      <c r="D750" t="n">
+        <v>237</v>
+      </c>
+      <c r="E750" t="n">
+        <v>237</v>
+      </c>
+      <c r="F750" t="n">
+        <v>10</v>
+      </c>
+      <c r="G750" t="n">
+        <v>-1196657.860728551</v>
+      </c>
+      <c r="H750" t="n">
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
+      <c r="L750" t="n">
+        <v>1</v>
+      </c>
+      <c r="M750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="n">
+        <v>236</v>
+      </c>
+      <c r="C751" t="n">
+        <v>235</v>
+      </c>
+      <c r="D751" t="n">
+        <v>236</v>
+      </c>
+      <c r="E751" t="n">
+        <v>235</v>
+      </c>
+      <c r="F751" t="n">
+        <v>892.8387</v>
+      </c>
+      <c r="G751" t="n">
+        <v>-1197550.699428551</v>
+      </c>
+      <c r="H751" t="n">
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
+      <c r="L751" t="n">
+        <v>1</v>
+      </c>
+      <c r="M751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="n">
+        <v>235</v>
+      </c>
+      <c r="C752" t="n">
+        <v>234</v>
+      </c>
+      <c r="D752" t="n">
+        <v>236</v>
+      </c>
+      <c r="E752" t="n">
+        <v>234</v>
+      </c>
+      <c r="F752" t="n">
+        <v>8699.562900000001</v>
+      </c>
+      <c r="G752" t="n">
+        <v>-1206250.262328551</v>
+      </c>
+      <c r="H752" t="n">
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
+      <c r="L752" t="n">
+        <v>1</v>
+      </c>
+      <c r="M752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="n">
+        <v>234</v>
+      </c>
+      <c r="C753" t="n">
+        <v>234</v>
+      </c>
+      <c r="D753" t="n">
+        <v>234</v>
+      </c>
+      <c r="E753" t="n">
+        <v>234</v>
+      </c>
+      <c r="F753" t="n">
+        <v>3138.1155</v>
+      </c>
+      <c r="G753" t="n">
+        <v>-1206250.262328551</v>
+      </c>
+      <c r="H753" t="n">
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
+      <c r="L753" t="n">
+        <v>1</v>
+      </c>
+      <c r="M753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="n">
+        <v>235</v>
+      </c>
+      <c r="C754" t="n">
+        <v>235</v>
+      </c>
+      <c r="D754" t="n">
+        <v>235</v>
+      </c>
+      <c r="E754" t="n">
+        <v>235</v>
+      </c>
+      <c r="F754" t="n">
+        <v>615.5263</v>
+      </c>
+      <c r="G754" t="n">
+        <v>-1205634.736028551</v>
+      </c>
+      <c r="H754" t="n">
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
+      <c r="L754" t="n">
+        <v>1</v>
+      </c>
+      <c r="M754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="n">
+        <v>234</v>
+      </c>
+      <c r="C755" t="n">
+        <v>235</v>
+      </c>
+      <c r="D755" t="n">
+        <v>235</v>
+      </c>
+      <c r="E755" t="n">
+        <v>233</v>
+      </c>
+      <c r="F755" t="n">
+        <v>36922.2665</v>
+      </c>
+      <c r="G755" t="n">
+        <v>-1205634.736028551</v>
+      </c>
+      <c r="H755" t="n">
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>235</v>
+      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L670" t="n">
-        <v>1</v>
-      </c>
-      <c r="M670" t="inlineStr"/>
-    </row>
-    <row r="671">
-      <c r="A671" s="1" t="n">
-        <v>669</v>
-      </c>
-      <c r="B671" t="n">
-        <v>236</v>
-      </c>
-      <c r="C671" t="n">
-        <v>237</v>
-      </c>
-      <c r="D671" t="n">
-        <v>237</v>
-      </c>
-      <c r="E671" t="n">
-        <v>236</v>
-      </c>
-      <c r="F671" t="n">
-        <v>2722.053</v>
-      </c>
-      <c r="G671" t="n">
-        <v>-844309.5021665259</v>
-      </c>
-      <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>237</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L671" t="n">
-        <v>1</v>
-      </c>
-      <c r="M671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" s="1" t="n">
-        <v>670</v>
-      </c>
-      <c r="B672" t="n">
-        <v>237</v>
-      </c>
-      <c r="C672" t="n">
-        <v>236</v>
-      </c>
-      <c r="D672" t="n">
-        <v>237</v>
-      </c>
-      <c r="E672" t="n">
-        <v>236</v>
-      </c>
-      <c r="F672" t="n">
-        <v>23354.4003</v>
-      </c>
-      <c r="G672" t="n">
-        <v>-867663.9024665259</v>
-      </c>
-      <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>237</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L672" t="n">
-        <v>1</v>
-      </c>
-      <c r="M672" t="inlineStr"/>
-    </row>
-    <row r="673">
-      <c r="A673" s="1" t="n">
-        <v>671</v>
-      </c>
-      <c r="B673" t="n">
-        <v>236</v>
-      </c>
-      <c r="C673" t="n">
-        <v>237</v>
-      </c>
-      <c r="D673" t="n">
-        <v>237</v>
-      </c>
-      <c r="E673" t="n">
-        <v>236</v>
-      </c>
-      <c r="F673" t="n">
-        <v>591.0987</v>
-      </c>
-      <c r="G673" t="n">
-        <v>-867072.8037665259</v>
-      </c>
-      <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>237</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L673" t="n">
-        <v>1</v>
-      </c>
-      <c r="M673" t="inlineStr"/>
-    </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
-        <v>672</v>
-      </c>
-      <c r="B674" t="n">
-        <v>236</v>
-      </c>
-      <c r="C674" t="n">
-        <v>236</v>
-      </c>
-      <c r="D674" t="n">
-        <v>237</v>
-      </c>
-      <c r="E674" t="n">
-        <v>236</v>
-      </c>
-      <c r="F674" t="n">
-        <v>6068.3806</v>
-      </c>
-      <c r="G674" t="n">
-        <v>-873141.184366526</v>
-      </c>
-      <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>237</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L674" t="n">
-        <v>1</v>
-      </c>
-      <c r="M674" t="inlineStr"/>
-    </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
-        <v>673</v>
-      </c>
-      <c r="B675" t="n">
-        <v>236</v>
-      </c>
-      <c r="C675" t="n">
-        <v>236</v>
-      </c>
-      <c r="D675" t="n">
-        <v>237</v>
-      </c>
-      <c r="E675" t="n">
-        <v>236</v>
-      </c>
-      <c r="F675" t="n">
-        <v>107933.9859</v>
-      </c>
-      <c r="G675" t="n">
-        <v>-873141.184366526</v>
-      </c>
-      <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>237</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L675" t="n">
-        <v>1</v>
-      </c>
-      <c r="M675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
-        <v>674</v>
-      </c>
-      <c r="B676" t="n">
-        <v>236</v>
-      </c>
-      <c r="C676" t="n">
-        <v>236</v>
-      </c>
-      <c r="D676" t="n">
-        <v>236</v>
-      </c>
-      <c r="E676" t="n">
-        <v>236</v>
-      </c>
-      <c r="F676" t="n">
-        <v>366.3935</v>
-      </c>
-      <c r="G676" t="n">
-        <v>-873141.184366526</v>
-      </c>
-      <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>237</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L676" t="n">
-        <v>1</v>
-      </c>
-      <c r="M676" t="inlineStr"/>
-    </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
-        <v>675</v>
-      </c>
-      <c r="B677" t="n">
-        <v>235</v>
-      </c>
-      <c r="C677" t="n">
-        <v>236</v>
-      </c>
-      <c r="D677" t="n">
-        <v>237</v>
-      </c>
-      <c r="E677" t="n">
-        <v>235</v>
-      </c>
-      <c r="F677" t="n">
-        <v>30501.23065400844</v>
-      </c>
-      <c r="G677" t="n">
-        <v>-873141.184366526</v>
-      </c>
-      <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>237</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L677" t="n">
-        <v>1</v>
-      </c>
-      <c r="M677" t="inlineStr"/>
-    </row>
-    <row r="678">
-      <c r="A678" s="1" t="n">
-        <v>676</v>
-      </c>
-      <c r="B678" t="n">
-        <v>236</v>
-      </c>
-      <c r="C678" t="n">
-        <v>236</v>
-      </c>
-      <c r="D678" t="n">
-        <v>237</v>
-      </c>
-      <c r="E678" t="n">
-        <v>236</v>
-      </c>
-      <c r="F678" t="n">
-        <v>22973.4885</v>
-      </c>
-      <c r="G678" t="n">
-        <v>-873141.184366526</v>
-      </c>
-      <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>237</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L678" t="n">
-        <v>1</v>
-      </c>
-      <c r="M678" t="inlineStr"/>
-    </row>
-    <row r="679">
-      <c r="A679" s="1" t="n">
-        <v>677</v>
-      </c>
-      <c r="B679" t="n">
-        <v>236</v>
-      </c>
-      <c r="C679" t="n">
-        <v>236</v>
-      </c>
-      <c r="D679" t="n">
-        <v>236</v>
-      </c>
-      <c r="E679" t="n">
-        <v>236</v>
-      </c>
-      <c r="F679" t="n">
-        <v>63.2261</v>
-      </c>
-      <c r="G679" t="n">
-        <v>-873141.184366526</v>
-      </c>
-      <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>237</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L679" t="n">
-        <v>1</v>
-      </c>
-      <c r="M679" t="inlineStr"/>
-    </row>
-    <row r="680">
-      <c r="A680" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="B680" t="n">
-        <v>236</v>
-      </c>
-      <c r="C680" t="n">
-        <v>236</v>
-      </c>
-      <c r="D680" t="n">
-        <v>236</v>
-      </c>
-      <c r="E680" t="n">
-        <v>236</v>
-      </c>
-      <c r="F680" t="n">
-        <v>25216.9755</v>
-      </c>
-      <c r="G680" t="n">
-        <v>-873141.184366526</v>
-      </c>
-      <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>237</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L680" t="n">
-        <v>1</v>
-      </c>
-      <c r="M680" t="inlineStr"/>
-    </row>
-    <row r="681">
-      <c r="A681" s="1" t="n">
-        <v>679</v>
-      </c>
-      <c r="B681" t="n">
-        <v>237</v>
-      </c>
-      <c r="C681" t="n">
-        <v>237</v>
-      </c>
-      <c r="D681" t="n">
-        <v>237</v>
-      </c>
-      <c r="E681" t="n">
-        <v>235</v>
-      </c>
-      <c r="F681" t="n">
-        <v>17513.0971</v>
-      </c>
-      <c r="G681" t="n">
-        <v>-855628.087266526</v>
-      </c>
-      <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>236</v>
-      </c>
-      <c r="J681" t="n">
-        <v>237</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L681" t="n">
-        <v>1</v>
-      </c>
-      <c r="M681" t="inlineStr"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="B682" t="n">
-        <v>237</v>
-      </c>
-      <c r="C682" t="n">
-        <v>237</v>
-      </c>
-      <c r="D682" t="n">
-        <v>237</v>
-      </c>
-      <c r="E682" t="n">
-        <v>237</v>
-      </c>
-      <c r="F682" t="n">
-        <v>11.1347</v>
-      </c>
-      <c r="G682" t="n">
-        <v>-855628.087266526</v>
-      </c>
-      <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>237</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L682" t="n">
-        <v>1</v>
-      </c>
-      <c r="M682" t="inlineStr"/>
-    </row>
-    <row r="683">
-      <c r="A683" s="1" t="n">
-        <v>681</v>
-      </c>
-      <c r="B683" t="n">
-        <v>236</v>
-      </c>
-      <c r="C683" t="n">
-        <v>237</v>
-      </c>
-      <c r="D683" t="n">
-        <v>237</v>
-      </c>
-      <c r="E683" t="n">
-        <v>236</v>
-      </c>
-      <c r="F683" t="n">
-        <v>2795.0691</v>
-      </c>
-      <c r="G683" t="n">
-        <v>-855628.087266526</v>
-      </c>
-      <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>237</v>
-      </c>
-      <c r="J683" t="n">
-        <v>237</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L683" t="n">
-        <v>1</v>
-      </c>
-      <c r="M683" t="inlineStr"/>
-    </row>
-    <row r="684">
-      <c r="A684" s="1" t="n">
-        <v>682</v>
-      </c>
-      <c r="B684" t="n">
-        <v>237</v>
-      </c>
-      <c r="C684" t="n">
-        <v>237</v>
-      </c>
-      <c r="D684" t="n">
-        <v>237</v>
-      </c>
-      <c r="E684" t="n">
-        <v>237</v>
-      </c>
-      <c r="F684" t="n">
-        <v>66.848</v>
-      </c>
-      <c r="G684" t="n">
-        <v>-855628.087266526</v>
-      </c>
-      <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>237</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L684" t="n">
-        <v>1</v>
-      </c>
-      <c r="M684" t="inlineStr"/>
-    </row>
-    <row r="685">
-      <c r="A685" s="1" t="n">
-        <v>683</v>
-      </c>
-      <c r="B685" t="n">
-        <v>237</v>
-      </c>
-      <c r="C685" t="n">
-        <v>237</v>
-      </c>
-      <c r="D685" t="n">
-        <v>237</v>
-      </c>
-      <c r="E685" t="n">
-        <v>236</v>
-      </c>
-      <c r="F685" t="n">
-        <v>15987.2685</v>
-      </c>
-      <c r="G685" t="n">
-        <v>-855628.087266526</v>
-      </c>
-      <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>237</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L685" t="n">
-        <v>1</v>
-      </c>
-      <c r="M685" t="inlineStr"/>
-    </row>
-    <row r="686">
-      <c r="A686" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="B686" t="n">
-        <v>237</v>
-      </c>
-      <c r="C686" t="n">
-        <v>237</v>
-      </c>
-      <c r="D686" t="n">
-        <v>237</v>
-      </c>
-      <c r="E686" t="n">
-        <v>237</v>
-      </c>
-      <c r="F686" t="n">
-        <v>6.8806</v>
-      </c>
-      <c r="G686" t="n">
-        <v>-855628.087266526</v>
-      </c>
-      <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>237</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L686" t="n">
-        <v>1</v>
-      </c>
-      <c r="M686" t="inlineStr"/>
-    </row>
-    <row r="687">
-      <c r="A687" s="1" t="n">
-        <v>685</v>
-      </c>
-      <c r="B687" t="n">
-        <v>236</v>
-      </c>
-      <c r="C687" t="n">
-        <v>237</v>
-      </c>
-      <c r="D687" t="n">
-        <v>237</v>
-      </c>
-      <c r="E687" t="n">
-        <v>236</v>
-      </c>
-      <c r="F687" t="n">
-        <v>5378.6483</v>
-      </c>
-      <c r="G687" t="n">
-        <v>-855628.087266526</v>
-      </c>
-      <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>237</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L687" t="n">
-        <v>1</v>
-      </c>
-      <c r="M687" t="inlineStr"/>
-    </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="B688" t="n">
-        <v>237</v>
-      </c>
-      <c r="C688" t="n">
-        <v>238</v>
-      </c>
-      <c r="D688" t="n">
-        <v>238</v>
-      </c>
-      <c r="E688" t="n">
-        <v>237</v>
-      </c>
-      <c r="F688" t="n">
-        <v>1521.181445991561</v>
-      </c>
-      <c r="G688" t="n">
-        <v>-854106.9058205344</v>
-      </c>
-      <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>237</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L688" t="n">
-        <v>1</v>
-      </c>
-      <c r="M688" t="inlineStr"/>
-    </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
-        <v>687</v>
-      </c>
-      <c r="B689" t="n">
-        <v>238</v>
-      </c>
-      <c r="C689" t="n">
-        <v>238</v>
-      </c>
-      <c r="D689" t="n">
-        <v>238</v>
-      </c>
-      <c r="E689" t="n">
-        <v>237</v>
-      </c>
-      <c r="F689" t="n">
-        <v>16536.1235</v>
-      </c>
-      <c r="G689" t="n">
-        <v>-854106.9058205344</v>
-      </c>
-      <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>238</v>
-      </c>
-      <c r="J689" t="n">
-        <v>237</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L689" t="n">
-        <v>1</v>
-      </c>
-      <c r="M689" t="inlineStr"/>
-    </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
-        <v>688</v>
-      </c>
-      <c r="B690" t="n">
-        <v>237</v>
-      </c>
-      <c r="C690" t="n">
-        <v>236</v>
-      </c>
-      <c r="D690" t="n">
-        <v>237</v>
-      </c>
-      <c r="E690" t="n">
-        <v>236</v>
-      </c>
-      <c r="F690" t="n">
-        <v>39109.68215400844</v>
-      </c>
-      <c r="G690" t="n">
-        <v>-893216.5879745429</v>
-      </c>
-      <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>237</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L690" t="n">
-        <v>1</v>
-      </c>
-      <c r="M690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="n">
-        <v>235</v>
-      </c>
-      <c r="C691" t="n">
-        <v>235</v>
-      </c>
-      <c r="D691" t="n">
-        <v>237</v>
-      </c>
-      <c r="E691" t="n">
-        <v>234</v>
-      </c>
-      <c r="F691" t="n">
-        <v>40137.4695</v>
-      </c>
-      <c r="G691" t="n">
-        <v>-933354.0574745429</v>
-      </c>
-      <c r="H691" t="n">
-        <v>1</v>
-      </c>
-      <c r="I691" t="n">
-        <v>236</v>
-      </c>
-      <c r="J691" t="n">
-        <v>237</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L691" t="n">
-        <v>1</v>
-      </c>
-      <c r="M691" t="inlineStr"/>
-    </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="B692" t="n">
-        <v>235</v>
-      </c>
-      <c r="C692" t="n">
-        <v>236</v>
-      </c>
-      <c r="D692" t="n">
-        <v>236</v>
-      </c>
-      <c r="E692" t="n">
-        <v>235</v>
-      </c>
-      <c r="F692" t="n">
-        <v>29438.2218</v>
-      </c>
-      <c r="G692" t="n">
-        <v>-903915.8356745429</v>
-      </c>
-      <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>237</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L692" t="n">
-        <v>1</v>
-      </c>
-      <c r="M692" t="inlineStr"/>
-    </row>
-    <row r="693">
-      <c r="A693" s="1" t="n">
-        <v>691</v>
-      </c>
-      <c r="B693" t="n">
-        <v>236</v>
-      </c>
-      <c r="C693" t="n">
-        <v>237</v>
-      </c>
-      <c r="D693" t="n">
-        <v>237</v>
-      </c>
-      <c r="E693" t="n">
-        <v>236</v>
-      </c>
-      <c r="F693" t="n">
-        <v>3843.2553</v>
-      </c>
-      <c r="G693" t="n">
-        <v>-900072.580374543</v>
-      </c>
-      <c r="H693" t="n">
-        <v>1</v>
-      </c>
-      <c r="I693" t="n">
-        <v>236</v>
-      </c>
-      <c r="J693" t="n">
-        <v>237</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L693" t="n">
-        <v>1</v>
-      </c>
-      <c r="M693" t="inlineStr"/>
-    </row>
-    <row r="694">
-      <c r="A694" s="1" t="n">
-        <v>692</v>
-      </c>
-      <c r="B694" t="n">
-        <v>237</v>
-      </c>
-      <c r="C694" t="n">
-        <v>237</v>
-      </c>
-      <c r="D694" t="n">
-        <v>237</v>
-      </c>
-      <c r="E694" t="n">
-        <v>237</v>
-      </c>
-      <c r="F694" t="n">
-        <v>2305.4259</v>
-      </c>
-      <c r="G694" t="n">
-        <v>-900072.580374543</v>
-      </c>
-      <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>237</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L694" t="n">
-        <v>1</v>
-      </c>
-      <c r="M694" t="inlineStr"/>
-    </row>
-    <row r="695">
-      <c r="A695" s="1" t="n">
-        <v>693</v>
-      </c>
-      <c r="B695" t="n">
-        <v>236</v>
-      </c>
-      <c r="C695" t="n">
-        <v>235</v>
-      </c>
-      <c r="D695" t="n">
-        <v>236</v>
-      </c>
-      <c r="E695" t="n">
-        <v>235</v>
-      </c>
-      <c r="F695" t="n">
-        <v>28352.3175</v>
-      </c>
-      <c r="G695" t="n">
-        <v>-928424.897874543</v>
-      </c>
-      <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>237</v>
-      </c>
-      <c r="J695" t="n">
-        <v>237</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L695" t="n">
-        <v>1</v>
-      </c>
-      <c r="M695" t="inlineStr"/>
-    </row>
-    <row r="696">
-      <c r="A696" s="1" t="n">
-        <v>694</v>
-      </c>
-      <c r="B696" t="n">
-        <v>235</v>
-      </c>
-      <c r="C696" t="n">
-        <v>237</v>
-      </c>
-      <c r="D696" t="n">
-        <v>237</v>
-      </c>
-      <c r="E696" t="n">
-        <v>234</v>
-      </c>
-      <c r="F696" t="n">
-        <v>45671.862</v>
-      </c>
-      <c r="G696" t="n">
-        <v>-882753.035874543</v>
-      </c>
-      <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>237</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L696" t="n">
-        <v>1</v>
-      </c>
-      <c r="M696" t="inlineStr"/>
-    </row>
-    <row r="697">
-      <c r="A697" s="1" t="n">
-        <v>695</v>
-      </c>
-      <c r="B697" t="n">
-        <v>237</v>
-      </c>
-      <c r="C697" t="n">
-        <v>237</v>
-      </c>
-      <c r="D697" t="n">
-        <v>237</v>
-      </c>
-      <c r="E697" t="n">
-        <v>237</v>
-      </c>
-      <c r="F697" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G697" t="n">
-        <v>-882753.035874543</v>
-      </c>
-      <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>237</v>
-      </c>
-      <c r="J697" t="n">
-        <v>237</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L697" t="n">
-        <v>1</v>
-      </c>
-      <c r="M697" t="inlineStr"/>
-    </row>
-    <row r="698">
-      <c r="A698" s="1" t="n">
-        <v>696</v>
-      </c>
-      <c r="B698" t="n">
-        <v>237</v>
-      </c>
-      <c r="C698" t="n">
-        <v>239</v>
-      </c>
-      <c r="D698" t="n">
-        <v>239</v>
-      </c>
-      <c r="E698" t="n">
-        <v>237</v>
-      </c>
-      <c r="F698" t="n">
-        <v>6509.980145991562</v>
-      </c>
-      <c r="G698" t="n">
-        <v>-876243.0557285515</v>
-      </c>
-      <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>237</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L698" t="n">
-        <v>1</v>
-      </c>
-      <c r="M698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="A699" s="1" t="n">
-        <v>697</v>
-      </c>
-      <c r="B699" t="n">
-        <v>238</v>
-      </c>
-      <c r="C699" t="n">
-        <v>238</v>
-      </c>
-      <c r="D699" t="n">
-        <v>239</v>
-      </c>
-      <c r="E699" t="n">
-        <v>238</v>
-      </c>
-      <c r="F699" t="n">
-        <v>32084.5236</v>
-      </c>
-      <c r="G699" t="n">
-        <v>-908327.5793285514</v>
-      </c>
-      <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>239</v>
-      </c>
-      <c r="J699" t="n">
-        <v>237</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L699" t="n">
-        <v>1</v>
-      </c>
-      <c r="M699" t="inlineStr"/>
-    </row>
-    <row r="700">
-      <c r="A700" s="1" t="n">
-        <v>698</v>
-      </c>
-      <c r="B700" t="n">
-        <v>238</v>
-      </c>
-      <c r="C700" t="n">
-        <v>236</v>
-      </c>
-      <c r="D700" t="n">
-        <v>238</v>
-      </c>
-      <c r="E700" t="n">
-        <v>236</v>
-      </c>
-      <c r="F700" t="n">
-        <v>96349.2607</v>
-      </c>
-      <c r="G700" t="n">
-        <v>-1004676.840028551</v>
-      </c>
-      <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>238</v>
-      </c>
-      <c r="J700" t="n">
-        <v>237</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L700" t="n">
-        <v>1</v>
-      </c>
-      <c r="M700" t="inlineStr"/>
-    </row>
-    <row r="701">
-      <c r="A701" s="1" t="n">
-        <v>699</v>
-      </c>
-      <c r="B701" t="n">
-        <v>236</v>
-      </c>
-      <c r="C701" t="n">
-        <v>236</v>
-      </c>
-      <c r="D701" t="n">
-        <v>237</v>
-      </c>
-      <c r="E701" t="n">
-        <v>235</v>
-      </c>
-      <c r="F701" t="n">
-        <v>88361.64320000001</v>
-      </c>
-      <c r="G701" t="n">
-        <v>-1004676.840028551</v>
-      </c>
-      <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>237</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L701" t="n">
-        <v>1</v>
-      </c>
-      <c r="M701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" s="1" t="n">
-        <v>700</v>
-      </c>
-      <c r="B702" t="n">
-        <v>237</v>
-      </c>
-      <c r="C702" t="n">
-        <v>237</v>
-      </c>
-      <c r="D702" t="n">
-        <v>237</v>
-      </c>
-      <c r="E702" t="n">
-        <v>237</v>
-      </c>
-      <c r="F702" t="n">
-        <v>4598.7327</v>
-      </c>
-      <c r="G702" t="n">
-        <v>-1000078.107328551</v>
-      </c>
-      <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>237</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L702" t="n">
-        <v>1</v>
-      </c>
-      <c r="M702" t="inlineStr"/>
-    </row>
-    <row r="703">
-      <c r="A703" s="1" t="n">
-        <v>701</v>
-      </c>
-      <c r="B703" t="n">
-        <v>236</v>
-      </c>
-      <c r="C703" t="n">
-        <v>237</v>
-      </c>
-      <c r="D703" t="n">
-        <v>237</v>
-      </c>
-      <c r="E703" t="n">
-        <v>236</v>
-      </c>
-      <c r="F703" t="n">
-        <v>14651.1707</v>
-      </c>
-      <c r="G703" t="n">
-        <v>-1000078.107328551</v>
-      </c>
-      <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>237</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L703" t="n">
-        <v>1</v>
-      </c>
-      <c r="M703" t="inlineStr"/>
-    </row>
-    <row r="704">
-      <c r="A704" s="1" t="n">
-        <v>702</v>
-      </c>
-      <c r="B704" t="n">
-        <v>237</v>
-      </c>
-      <c r="C704" t="n">
-        <v>238</v>
-      </c>
-      <c r="D704" t="n">
-        <v>238</v>
-      </c>
-      <c r="E704" t="n">
-        <v>237</v>
-      </c>
-      <c r="F704" t="n">
-        <v>10546.5475</v>
-      </c>
-      <c r="G704" t="n">
-        <v>-989531.5598285514</v>
-      </c>
-      <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>237</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L704" t="n">
-        <v>1</v>
-      </c>
-      <c r="M704" t="inlineStr"/>
-    </row>
-    <row r="705">
-      <c r="A705" s="1" t="n">
-        <v>703</v>
-      </c>
-      <c r="B705" t="n">
-        <v>238</v>
-      </c>
-      <c r="C705" t="n">
-        <v>238</v>
-      </c>
-      <c r="D705" t="n">
-        <v>238</v>
-      </c>
-      <c r="E705" t="n">
-        <v>238</v>
-      </c>
-      <c r="F705" t="n">
-        <v>3270.6515</v>
-      </c>
-      <c r="G705" t="n">
-        <v>-989531.5598285514</v>
-      </c>
-      <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>238</v>
-      </c>
-      <c r="J705" t="n">
-        <v>237</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L705" t="n">
-        <v>1</v>
-      </c>
-      <c r="M705" t="inlineStr"/>
-    </row>
-    <row r="706">
-      <c r="A706" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="B706" t="n">
-        <v>238</v>
-      </c>
-      <c r="C706" t="n">
-        <v>238</v>
-      </c>
-      <c r="D706" t="n">
-        <v>238</v>
-      </c>
-      <c r="E706" t="n">
-        <v>237</v>
-      </c>
-      <c r="F706" t="n">
-        <v>42662.79</v>
-      </c>
-      <c r="G706" t="n">
-        <v>-989531.5598285514</v>
-      </c>
-      <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>238</v>
-      </c>
-      <c r="J706" t="n">
-        <v>237</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L706" t="n">
-        <v>1</v>
-      </c>
-      <c r="M706" t="inlineStr"/>
-    </row>
-    <row r="707">
-      <c r="A707" s="1" t="n">
-        <v>705</v>
-      </c>
-      <c r="B707" t="n">
-        <v>238</v>
-      </c>
-      <c r="C707" t="n">
-        <v>238</v>
-      </c>
-      <c r="D707" t="n">
-        <v>238</v>
-      </c>
-      <c r="E707" t="n">
-        <v>237</v>
-      </c>
-      <c r="F707" t="n">
-        <v>1158.1334</v>
-      </c>
-      <c r="G707" t="n">
-        <v>-989531.5598285514</v>
-      </c>
-      <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>238</v>
-      </c>
-      <c r="J707" t="n">
-        <v>237</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L707" t="n">
-        <v>1</v>
-      </c>
-      <c r="M707" t="inlineStr"/>
-    </row>
-    <row r="708">
-      <c r="A708" s="1" t="n">
-        <v>706</v>
-      </c>
-      <c r="B708" t="n">
-        <v>238</v>
-      </c>
-      <c r="C708" t="n">
-        <v>238</v>
-      </c>
-      <c r="D708" t="n">
-        <v>238</v>
-      </c>
-      <c r="E708" t="n">
-        <v>238</v>
-      </c>
-      <c r="F708" t="n">
-        <v>689.9625</v>
-      </c>
-      <c r="G708" t="n">
-        <v>-989531.5598285514</v>
-      </c>
-      <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>237</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L708" t="n">
-        <v>1</v>
-      </c>
-      <c r="M708" t="inlineStr"/>
-    </row>
-    <row r="709">
-      <c r="A709" s="1" t="n">
-        <v>707</v>
-      </c>
-      <c r="B709" t="n">
-        <v>238</v>
-      </c>
-      <c r="C709" t="n">
-        <v>238</v>
-      </c>
-      <c r="D709" t="n">
-        <v>238</v>
-      </c>
-      <c r="E709" t="n">
-        <v>237</v>
-      </c>
-      <c r="F709" t="n">
-        <v>34248.1238</v>
-      </c>
-      <c r="G709" t="n">
-        <v>-989531.5598285514</v>
-      </c>
-      <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>238</v>
-      </c>
-      <c r="J709" t="n">
-        <v>237</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L709" t="n">
-        <v>1</v>
-      </c>
-      <c r="M709" t="inlineStr"/>
-    </row>
-    <row r="710">
-      <c r="A710" s="1" t="n">
-        <v>708</v>
-      </c>
-      <c r="B710" t="n">
-        <v>237</v>
-      </c>
-      <c r="C710" t="n">
-        <v>237</v>
-      </c>
-      <c r="D710" t="n">
-        <v>237</v>
-      </c>
-      <c r="E710" t="n">
-        <v>237</v>
-      </c>
-      <c r="F710" t="n">
-        <v>31257.2452</v>
-      </c>
-      <c r="G710" t="n">
-        <v>-1020788.805028551</v>
-      </c>
-      <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>237</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L710" t="n">
-        <v>1</v>
-      </c>
-      <c r="M710" t="inlineStr"/>
-    </row>
-    <row r="711">
-      <c r="A711" s="1" t="n">
-        <v>709</v>
-      </c>
-      <c r="B711" t="n">
-        <v>236</v>
-      </c>
-      <c r="C711" t="n">
-        <v>237</v>
-      </c>
-      <c r="D711" t="n">
-        <v>237</v>
-      </c>
-      <c r="E711" t="n">
-        <v>236</v>
-      </c>
-      <c r="F711" t="n">
-        <v>10002.2</v>
-      </c>
-      <c r="G711" t="n">
-        <v>-1020788.805028551</v>
-      </c>
-      <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>237</v>
-      </c>
-      <c r="J711" t="n">
-        <v>237</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L711" t="n">
-        <v>1</v>
-      </c>
-      <c r="M711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="A712" s="1" t="n">
-        <v>710</v>
-      </c>
-      <c r="B712" t="n">
-        <v>236</v>
-      </c>
-      <c r="C712" t="n">
-        <v>237</v>
-      </c>
-      <c r="D712" t="n">
-        <v>237</v>
-      </c>
-      <c r="E712" t="n">
-        <v>235</v>
-      </c>
-      <c r="F712" t="n">
-        <v>45457.5815</v>
-      </c>
-      <c r="G712" t="n">
-        <v>-1020788.805028551</v>
-      </c>
-      <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>237</v>
-      </c>
-      <c r="J712" t="n">
-        <v>237</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L712" t="n">
-        <v>1</v>
-      </c>
-      <c r="M712" t="inlineStr"/>
-    </row>
-    <row r="713">
-      <c r="A713" s="1" t="n">
-        <v>711</v>
-      </c>
-      <c r="B713" t="n">
-        <v>237</v>
-      </c>
-      <c r="C713" t="n">
-        <v>237</v>
-      </c>
-      <c r="D713" t="n">
-        <v>237</v>
-      </c>
-      <c r="E713" t="n">
-        <v>237</v>
-      </c>
-      <c r="F713" t="n">
-        <v>2306.7185</v>
-      </c>
-      <c r="G713" t="n">
-        <v>-1020788.805028551</v>
-      </c>
-      <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>237</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L713" t="n">
-        <v>1</v>
-      </c>
-      <c r="M713" t="inlineStr"/>
-    </row>
-    <row r="714">
-      <c r="A714" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="B714" t="n">
-        <v>237</v>
-      </c>
-      <c r="C714" t="n">
-        <v>238</v>
-      </c>
-      <c r="D714" t="n">
-        <v>238</v>
-      </c>
-      <c r="E714" t="n">
-        <v>237</v>
-      </c>
-      <c r="F714" t="n">
-        <v>3105.0738</v>
-      </c>
-      <c r="G714" t="n">
-        <v>-1017683.731228551</v>
-      </c>
-      <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>237</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L714" t="n">
-        <v>1</v>
-      </c>
-      <c r="M714" t="inlineStr"/>
-    </row>
-    <row r="715">
-      <c r="A715" s="1" t="n">
-        <v>713</v>
-      </c>
-      <c r="B715" t="n">
-        <v>238</v>
-      </c>
-      <c r="C715" t="n">
-        <v>237</v>
-      </c>
-      <c r="D715" t="n">
-        <v>238</v>
-      </c>
-      <c r="E715" t="n">
-        <v>237</v>
-      </c>
-      <c r="F715" t="n">
-        <v>27666.4942</v>
-      </c>
-      <c r="G715" t="n">
-        <v>-1045350.225428551</v>
-      </c>
-      <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>237</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L715" t="n">
-        <v>1</v>
-      </c>
-      <c r="M715" t="inlineStr"/>
-    </row>
-    <row r="716">
-      <c r="A716" s="1" t="n">
-        <v>714</v>
-      </c>
-      <c r="B716" t="n">
-        <v>237</v>
-      </c>
-      <c r="C716" t="n">
-        <v>238</v>
-      </c>
-      <c r="D716" t="n">
-        <v>238</v>
-      </c>
-      <c r="E716" t="n">
-        <v>237</v>
-      </c>
-      <c r="F716" t="n">
-        <v>1663.7653</v>
-      </c>
-      <c r="G716" t="n">
-        <v>-1043686.460128551</v>
-      </c>
-      <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>237</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L716" t="n">
-        <v>1</v>
-      </c>
-      <c r="M716" t="inlineStr"/>
-    </row>
-    <row r="717">
-      <c r="A717" s="1" t="n">
-        <v>715</v>
-      </c>
-      <c r="B717" t="n">
-        <v>237</v>
-      </c>
-      <c r="C717" t="n">
-        <v>238</v>
-      </c>
-      <c r="D717" t="n">
-        <v>238</v>
-      </c>
-      <c r="E717" t="n">
-        <v>237</v>
-      </c>
-      <c r="F717" t="n">
-        <v>24813.4443</v>
-      </c>
-      <c r="G717" t="n">
-        <v>-1043686.460128551</v>
-      </c>
-      <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>237</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L717" t="n">
-        <v>1</v>
-      </c>
-      <c r="M717" t="inlineStr"/>
-    </row>
-    <row r="718">
-      <c r="A718" s="1" t="n">
-        <v>716</v>
-      </c>
-      <c r="B718" t="n">
-        <v>237</v>
-      </c>
-      <c r="C718" t="n">
-        <v>237</v>
-      </c>
-      <c r="D718" t="n">
-        <v>237</v>
-      </c>
-      <c r="E718" t="n">
-        <v>237</v>
-      </c>
-      <c r="F718" t="n">
-        <v>16253.9088</v>
-      </c>
-      <c r="G718" t="n">
-        <v>-1059940.368928551</v>
-      </c>
-      <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>237</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L718" t="n">
-        <v>1</v>
-      </c>
-      <c r="M718" t="inlineStr"/>
-    </row>
-    <row r="719">
-      <c r="A719" s="1" t="n">
-        <v>717</v>
-      </c>
-      <c r="B719" t="n">
-        <v>237</v>
-      </c>
-      <c r="C719" t="n">
-        <v>237</v>
-      </c>
-      <c r="D719" t="n">
-        <v>237</v>
-      </c>
-      <c r="E719" t="n">
-        <v>237</v>
-      </c>
-      <c r="F719" t="n">
-        <v>314.6228</v>
-      </c>
-      <c r="G719" t="n">
-        <v>-1059940.368928551</v>
-      </c>
-      <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>237</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L719" t="n">
-        <v>1</v>
-      </c>
-      <c r="M719" t="inlineStr"/>
-    </row>
-    <row r="720">
-      <c r="A720" s="1" t="n">
-        <v>718</v>
-      </c>
-      <c r="B720" t="n">
-        <v>236</v>
-      </c>
-      <c r="C720" t="n">
-        <v>236</v>
-      </c>
-      <c r="D720" t="n">
-        <v>236</v>
-      </c>
-      <c r="E720" t="n">
-        <v>235</v>
-      </c>
-      <c r="F720" t="n">
-        <v>96214.3083</v>
-      </c>
-      <c r="G720" t="n">
-        <v>-1156154.677228551</v>
-      </c>
-      <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>237</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L720" t="n">
-        <v>1</v>
-      </c>
-      <c r="M720" t="inlineStr"/>
-    </row>
-    <row r="721">
-      <c r="A721" s="1" t="n">
-        <v>719</v>
-      </c>
-      <c r="B721" t="n">
-        <v>236</v>
-      </c>
-      <c r="C721" t="n">
-        <v>236</v>
-      </c>
-      <c r="D721" t="n">
-        <v>236</v>
-      </c>
-      <c r="E721" t="n">
-        <v>236</v>
-      </c>
-      <c r="F721" t="n">
-        <v>3346.2174</v>
-      </c>
-      <c r="G721" t="n">
-        <v>-1156154.677228551</v>
-      </c>
-      <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>237</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L721" t="n">
-        <v>1</v>
-      </c>
-      <c r="M721" t="inlineStr"/>
-    </row>
-    <row r="722">
-      <c r="A722" s="1" t="n">
-        <v>720</v>
-      </c>
-      <c r="B722" t="n">
-        <v>237</v>
-      </c>
-      <c r="C722" t="n">
-        <v>237</v>
-      </c>
-      <c r="D722" t="n">
-        <v>237</v>
-      </c>
-      <c r="E722" t="n">
-        <v>237</v>
-      </c>
-      <c r="F722" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G722" t="n">
-        <v>-1156152.477228551</v>
-      </c>
-      <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>237</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L722" t="n">
-        <v>1</v>
-      </c>
-      <c r="M722" t="inlineStr"/>
-    </row>
-    <row r="723">
-      <c r="A723" s="1" t="n">
-        <v>721</v>
-      </c>
-      <c r="B723" t="n">
-        <v>237</v>
-      </c>
-      <c r="C723" t="n">
-        <v>237</v>
-      </c>
-      <c r="D723" t="n">
-        <v>237</v>
-      </c>
-      <c r="E723" t="n">
-        <v>237</v>
-      </c>
-      <c r="F723" t="n">
-        <v>100</v>
-      </c>
-      <c r="G723" t="n">
-        <v>-1156152.477228551</v>
-      </c>
-      <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>237</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L723" t="n">
-        <v>1</v>
-      </c>
-      <c r="M723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" s="1" t="n">
-        <v>722</v>
-      </c>
-      <c r="B724" t="n">
-        <v>237</v>
-      </c>
-      <c r="C724" t="n">
-        <v>237</v>
-      </c>
-      <c r="D724" t="n">
-        <v>237</v>
-      </c>
-      <c r="E724" t="n">
-        <v>237</v>
-      </c>
-      <c r="F724" t="n">
-        <v>2137.2297</v>
-      </c>
-      <c r="G724" t="n">
-        <v>-1156152.477228551</v>
-      </c>
-      <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>237</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L724" t="n">
-        <v>1</v>
-      </c>
-      <c r="M724" t="inlineStr"/>
-    </row>
-    <row r="725">
-      <c r="A725" s="1" t="n">
-        <v>723</v>
-      </c>
-      <c r="B725" t="n">
-        <v>237</v>
-      </c>
-      <c r="C725" t="n">
-        <v>237</v>
-      </c>
-      <c r="D725" t="n">
-        <v>238</v>
-      </c>
-      <c r="E725" t="n">
-        <v>237</v>
-      </c>
-      <c r="F725" t="n">
-        <v>23727.0973</v>
-      </c>
-      <c r="G725" t="n">
-        <v>-1156152.477228551</v>
-      </c>
-      <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>237</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L725" t="n">
-        <v>1</v>
-      </c>
-      <c r="M725" t="inlineStr"/>
-    </row>
-    <row r="726">
-      <c r="A726" s="1" t="n">
-        <v>724</v>
-      </c>
-      <c r="B726" t="n">
-        <v>236</v>
-      </c>
-      <c r="C726" t="n">
-        <v>236</v>
-      </c>
-      <c r="D726" t="n">
-        <v>236</v>
-      </c>
-      <c r="E726" t="n">
-        <v>236</v>
-      </c>
-      <c r="F726" t="n">
-        <v>7537.7488</v>
-      </c>
-      <c r="G726" t="n">
-        <v>-1163690.226028551</v>
-      </c>
-      <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>237</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L726" t="n">
-        <v>1</v>
-      </c>
-      <c r="M726" t="inlineStr"/>
-    </row>
-    <row r="727">
-      <c r="A727" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="B727" t="n">
-        <v>235</v>
-      </c>
-      <c r="C727" t="n">
-        <v>235</v>
-      </c>
-      <c r="D727" t="n">
-        <v>236</v>
-      </c>
-      <c r="E727" t="n">
-        <v>235</v>
-      </c>
-      <c r="F727" t="n">
-        <v>14922.1093</v>
-      </c>
-      <c r="G727" t="n">
-        <v>-1178612.335328551</v>
-      </c>
-      <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>237</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L727" t="n">
-        <v>1</v>
-      </c>
-      <c r="M727" t="inlineStr"/>
-    </row>
-    <row r="728">
-      <c r="A728" s="1" t="n">
-        <v>726</v>
-      </c>
-      <c r="B728" t="n">
-        <v>236</v>
-      </c>
-      <c r="C728" t="n">
-        <v>236</v>
-      </c>
-      <c r="D728" t="n">
-        <v>236</v>
-      </c>
-      <c r="E728" t="n">
-        <v>235</v>
-      </c>
-      <c r="F728" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="G728" t="n">
-        <v>-1178604.135328551</v>
-      </c>
-      <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>235</v>
-      </c>
-      <c r="J728" t="n">
-        <v>237</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L728" t="n">
-        <v>1</v>
-      </c>
-      <c r="M728" t="inlineStr"/>
-    </row>
-    <row r="729">
-      <c r="A729" s="1" t="n">
-        <v>727</v>
-      </c>
-      <c r="B729" t="n">
-        <v>236</v>
-      </c>
-      <c r="C729" t="n">
-        <v>236</v>
-      </c>
-      <c r="D729" t="n">
-        <v>236</v>
-      </c>
-      <c r="E729" t="n">
-        <v>236</v>
-      </c>
-      <c r="F729" t="n">
-        <v>1158.8109</v>
-      </c>
-      <c r="G729" t="n">
-        <v>-1178604.135328551</v>
-      </c>
-      <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>236</v>
-      </c>
-      <c r="J729" t="n">
-        <v>237</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L729" t="n">
-        <v>1</v>
-      </c>
-      <c r="M729" t="inlineStr"/>
-    </row>
-    <row r="730">
-      <c r="A730" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="B730" t="n">
-        <v>236</v>
-      </c>
-      <c r="C730" t="n">
-        <v>236</v>
-      </c>
-      <c r="D730" t="n">
-        <v>236</v>
-      </c>
-      <c r="E730" t="n">
-        <v>235</v>
-      </c>
-      <c r="F730" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G730" t="n">
-        <v>-1178604.135328551</v>
-      </c>
-      <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>236</v>
-      </c>
-      <c r="J730" t="n">
-        <v>237</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L730" t="n">
-        <v>1</v>
-      </c>
-      <c r="M730" t="inlineStr"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="1" t="n">
-        <v>729</v>
-      </c>
-      <c r="B731" t="n">
-        <v>236</v>
-      </c>
-      <c r="C731" t="n">
-        <v>236</v>
-      </c>
-      <c r="D731" t="n">
-        <v>236</v>
-      </c>
-      <c r="E731" t="n">
-        <v>236</v>
-      </c>
-      <c r="F731" t="n">
-        <v>3732.0542</v>
-      </c>
-      <c r="G731" t="n">
-        <v>-1178604.135328551</v>
-      </c>
-      <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>236</v>
-      </c>
-      <c r="J731" t="n">
-        <v>237</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L731" t="n">
-        <v>1</v>
-      </c>
-      <c r="M731" t="inlineStr"/>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B732" t="n">
-        <v>235</v>
-      </c>
-      <c r="C732" t="n">
-        <v>236</v>
-      </c>
-      <c r="D732" t="n">
-        <v>236</v>
-      </c>
-      <c r="E732" t="n">
-        <v>235</v>
-      </c>
-      <c r="F732" t="n">
-        <v>32046.6352</v>
-      </c>
-      <c r="G732" t="n">
-        <v>-1178604.135328551</v>
-      </c>
-      <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>236</v>
-      </c>
-      <c r="J732" t="n">
-        <v>237</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L732" t="n">
-        <v>1</v>
-      </c>
-      <c r="M732" t="inlineStr"/>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B733" t="n">
-        <v>236</v>
-      </c>
-      <c r="C733" t="n">
-        <v>236</v>
-      </c>
-      <c r="D733" t="n">
-        <v>236</v>
-      </c>
-      <c r="E733" t="n">
-        <v>236</v>
-      </c>
-      <c r="F733" t="n">
-        <v>23089.0137</v>
-      </c>
-      <c r="G733" t="n">
-        <v>-1178604.135328551</v>
-      </c>
-      <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>236</v>
-      </c>
-      <c r="J733" t="n">
-        <v>237</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L733" t="n">
-        <v>1</v>
-      </c>
-      <c r="M733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="n">
-        <v>237</v>
-      </c>
-      <c r="C734" t="n">
-        <v>237</v>
-      </c>
-      <c r="D734" t="n">
-        <v>237</v>
-      </c>
-      <c r="E734" t="n">
-        <v>237</v>
-      </c>
-      <c r="F734" t="n">
-        <v>525.2155</v>
-      </c>
-      <c r="G734" t="n">
-        <v>-1178078.919828551</v>
-      </c>
-      <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>236</v>
-      </c>
-      <c r="J734" t="n">
-        <v>237</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L734" t="n">
-        <v>1</v>
-      </c>
-      <c r="M734" t="inlineStr"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="n">
-        <v>236</v>
-      </c>
-      <c r="C735" t="n">
-        <v>235</v>
-      </c>
-      <c r="D735" t="n">
-        <v>236</v>
-      </c>
-      <c r="E735" t="n">
-        <v>235</v>
-      </c>
-      <c r="F735" t="n">
-        <v>18737.1354</v>
-      </c>
-      <c r="G735" t="n">
-        <v>-1196816.055228551</v>
-      </c>
-      <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>237</v>
-      </c>
-      <c r="J735" t="n">
-        <v>237</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L735" t="n">
-        <v>1</v>
-      </c>
-      <c r="M735" t="inlineStr"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="n">
-        <v>236</v>
-      </c>
-      <c r="C736" t="n">
-        <v>236</v>
-      </c>
-      <c r="D736" t="n">
-        <v>236</v>
-      </c>
-      <c r="E736" t="n">
-        <v>236</v>
-      </c>
-      <c r="F736" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="G736" t="n">
-        <v>-1196713.855228551</v>
-      </c>
-      <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>235</v>
-      </c>
-      <c r="J736" t="n">
-        <v>237</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L736" t="n">
-        <v>1</v>
-      </c>
-      <c r="M736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="n">
-        <v>235</v>
-      </c>
-      <c r="C737" t="n">
-        <v>235</v>
-      </c>
-      <c r="D737" t="n">
-        <v>235</v>
-      </c>
-      <c r="E737" t="n">
-        <v>235</v>
-      </c>
-      <c r="F737" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G737" t="n">
-        <v>-1196716.055228551</v>
-      </c>
-      <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>236</v>
-      </c>
-      <c r="J737" t="n">
-        <v>237</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L737" t="n">
-        <v>1</v>
-      </c>
-      <c r="M737" t="inlineStr"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B738" t="n">
-        <v>236</v>
-      </c>
-      <c r="C738" t="n">
-        <v>236</v>
-      </c>
-      <c r="D738" t="n">
-        <v>236</v>
-      </c>
-      <c r="E738" t="n">
-        <v>236</v>
-      </c>
-      <c r="F738" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G738" t="n">
-        <v>-1196713.855228551</v>
-      </c>
-      <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>237</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L738" t="n">
-        <v>1</v>
-      </c>
-      <c r="M738" t="inlineStr"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B739" t="n">
-        <v>236</v>
-      </c>
-      <c r="C739" t="n">
-        <v>236</v>
-      </c>
-      <c r="D739" t="n">
-        <v>236</v>
-      </c>
-      <c r="E739" t="n">
-        <v>236</v>
-      </c>
-      <c r="F739" t="n">
-        <v>20</v>
-      </c>
-      <c r="G739" t="n">
-        <v>-1196713.855228551</v>
-      </c>
-      <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>236</v>
-      </c>
-      <c r="J739" t="n">
-        <v>237</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L739" t="n">
-        <v>1</v>
-      </c>
-      <c r="M739" t="inlineStr"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="n">
-        <v>236</v>
-      </c>
-      <c r="C740" t="n">
-        <v>236</v>
-      </c>
-      <c r="D740" t="n">
-        <v>236</v>
-      </c>
-      <c r="E740" t="n">
-        <v>235</v>
-      </c>
-      <c r="F740" t="n">
-        <v>111</v>
-      </c>
-      <c r="G740" t="n">
-        <v>-1196713.855228551</v>
-      </c>
-      <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>236</v>
-      </c>
-      <c r="J740" t="n">
-        <v>237</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L740" t="n">
-        <v>1</v>
-      </c>
-      <c r="M740" t="inlineStr"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="n">
-        <v>235</v>
-      </c>
-      <c r="C741" t="n">
-        <v>236</v>
-      </c>
-      <c r="D741" t="n">
-        <v>236</v>
-      </c>
-      <c r="E741" t="n">
-        <v>235</v>
-      </c>
-      <c r="F741" t="n">
-        <v>47</v>
-      </c>
-      <c r="G741" t="n">
-        <v>-1196713.855228551</v>
-      </c>
-      <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>236</v>
-      </c>
-      <c r="J741" t="n">
-        <v>237</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L741" t="n">
-        <v>1</v>
-      </c>
-      <c r="M741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="A742" s="1" t="n">
-        <v>740</v>
-      </c>
-      <c r="B742" t="n">
-        <v>236</v>
-      </c>
-      <c r="C742" t="n">
-        <v>236</v>
-      </c>
-      <c r="D742" t="n">
-        <v>236</v>
-      </c>
-      <c r="E742" t="n">
-        <v>236</v>
-      </c>
-      <c r="F742" t="n">
-        <v>30</v>
-      </c>
-      <c r="G742" t="n">
-        <v>-1196713.855228551</v>
-      </c>
-      <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>237</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L742" t="n">
-        <v>1</v>
-      </c>
-      <c r="M742" t="inlineStr"/>
-    </row>
-    <row r="743">
-      <c r="A743" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="B743" t="n">
-        <v>235</v>
-      </c>
-      <c r="C743" t="n">
-        <v>236</v>
-      </c>
-      <c r="D743" t="n">
-        <v>236</v>
-      </c>
-      <c r="E743" t="n">
-        <v>235</v>
-      </c>
-      <c r="F743" t="n">
-        <v>2001.8324</v>
-      </c>
-      <c r="G743" t="n">
-        <v>-1196713.855228551</v>
-      </c>
-      <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>236</v>
-      </c>
-      <c r="J743" t="n">
-        <v>237</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L743" t="n">
-        <v>1</v>
-      </c>
-      <c r="M743" t="inlineStr"/>
-    </row>
-    <row r="744">
-      <c r="A744" s="1" t="n">
-        <v>742</v>
-      </c>
-      <c r="B744" t="n">
-        <v>235</v>
-      </c>
-      <c r="C744" t="n">
-        <v>235</v>
-      </c>
-      <c r="D744" t="n">
-        <v>235</v>
-      </c>
-      <c r="E744" t="n">
-        <v>235</v>
-      </c>
-      <c r="F744" t="n">
-        <v>371.8775</v>
-      </c>
-      <c r="G744" t="n">
-        <v>-1197085.732728551</v>
-      </c>
-      <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>236</v>
-      </c>
-      <c r="J744" t="n">
-        <v>237</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L744" t="n">
-        <v>1</v>
-      </c>
-      <c r="M744" t="inlineStr"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="1" t="n">
-        <v>743</v>
-      </c>
-      <c r="B745" t="n">
-        <v>235</v>
-      </c>
-      <c r="C745" t="n">
-        <v>236</v>
-      </c>
-      <c r="D745" t="n">
-        <v>236</v>
-      </c>
-      <c r="E745" t="n">
-        <v>235</v>
-      </c>
-      <c r="F745" t="n">
-        <v>417.872</v>
-      </c>
-      <c r="G745" t="n">
-        <v>-1196667.860728551</v>
-      </c>
-      <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>235</v>
-      </c>
-      <c r="J745" t="n">
-        <v>237</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L745" t="n">
-        <v>1</v>
-      </c>
-      <c r="M745" t="inlineStr"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="1" t="n">
-        <v>744</v>
-      </c>
-      <c r="B746" t="n">
-        <v>235</v>
-      </c>
-      <c r="C746" t="n">
-        <v>236</v>
-      </c>
-      <c r="D746" t="n">
-        <v>236</v>
-      </c>
-      <c r="E746" t="n">
-        <v>235</v>
-      </c>
-      <c r="F746" t="n">
-        <v>13783.6117</v>
-      </c>
-      <c r="G746" t="n">
-        <v>-1196667.860728551</v>
-      </c>
-      <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>236</v>
-      </c>
-      <c r="J746" t="n">
-        <v>237</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L746" t="n">
-        <v>1</v>
-      </c>
-      <c r="M746" t="inlineStr"/>
-    </row>
-    <row r="747">
-      <c r="A747" s="1" t="n">
-        <v>745</v>
-      </c>
-      <c r="B747" t="n">
-        <v>236</v>
-      </c>
-      <c r="C747" t="n">
-        <v>236</v>
-      </c>
-      <c r="D747" t="n">
-        <v>236</v>
-      </c>
-      <c r="E747" t="n">
-        <v>236</v>
-      </c>
-      <c r="F747" t="n">
-        <v>50</v>
-      </c>
-      <c r="G747" t="n">
-        <v>-1196667.860728551</v>
-      </c>
-      <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>236</v>
-      </c>
-      <c r="J747" t="n">
-        <v>237</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L747" t="n">
-        <v>1</v>
-      </c>
-      <c r="M747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="A748" s="1" t="n">
-        <v>746</v>
-      </c>
-      <c r="B748" t="n">
-        <v>236</v>
-      </c>
-      <c r="C748" t="n">
-        <v>236</v>
-      </c>
-      <c r="D748" t="n">
-        <v>236</v>
-      </c>
-      <c r="E748" t="n">
-        <v>236</v>
-      </c>
-      <c r="F748" t="n">
-        <v>185.8211</v>
-      </c>
-      <c r="G748" t="n">
-        <v>-1196667.860728551</v>
-      </c>
-      <c r="H748" t="n">
-        <v>1</v>
-      </c>
-      <c r="I748" t="n">
-        <v>236</v>
-      </c>
-      <c r="J748" t="n">
-        <v>237</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L748" t="n">
-        <v>1</v>
-      </c>
-      <c r="M748" t="inlineStr"/>
-    </row>
-    <row r="749">
-      <c r="A749" s="1" t="n">
-        <v>747</v>
-      </c>
-      <c r="B749" t="n">
-        <v>236</v>
-      </c>
-      <c r="C749" t="n">
-        <v>236</v>
-      </c>
-      <c r="D749" t="n">
-        <v>236</v>
-      </c>
-      <c r="E749" t="n">
-        <v>236</v>
-      </c>
-      <c r="F749" t="n">
-        <v>2596.2972</v>
-      </c>
-      <c r="G749" t="n">
-        <v>-1196667.860728551</v>
-      </c>
-      <c r="H749" t="n">
-        <v>1</v>
-      </c>
-      <c r="I749" t="n">
-        <v>236</v>
-      </c>
-      <c r="J749" t="n">
-        <v>237</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L749" t="n">
-        <v>1</v>
-      </c>
-      <c r="M749" t="inlineStr"/>
-    </row>
-    <row r="750">
-      <c r="A750" s="1" t="n">
-        <v>748</v>
-      </c>
-      <c r="B750" t="n">
-        <v>237</v>
-      </c>
-      <c r="C750" t="n">
-        <v>237</v>
-      </c>
-      <c r="D750" t="n">
-        <v>237</v>
-      </c>
-      <c r="E750" t="n">
-        <v>237</v>
-      </c>
-      <c r="F750" t="n">
-        <v>10</v>
-      </c>
-      <c r="G750" t="n">
-        <v>-1196657.860728551</v>
-      </c>
-      <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>237</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L750" t="n">
-        <v>1</v>
-      </c>
-      <c r="M750" t="inlineStr"/>
-    </row>
-    <row r="751">
-      <c r="A751" s="1" t="n">
-        <v>749</v>
-      </c>
-      <c r="B751" t="n">
-        <v>236</v>
-      </c>
-      <c r="C751" t="n">
-        <v>235</v>
-      </c>
-      <c r="D751" t="n">
-        <v>236</v>
-      </c>
-      <c r="E751" t="n">
-        <v>235</v>
-      </c>
-      <c r="F751" t="n">
-        <v>892.8387</v>
-      </c>
-      <c r="G751" t="n">
-        <v>-1197550.699428551</v>
-      </c>
-      <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>237</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L751" t="n">
-        <v>1</v>
-      </c>
-      <c r="M751" t="inlineStr"/>
-    </row>
-    <row r="752">
-      <c r="A752" s="1" t="n">
-        <v>750</v>
-      </c>
-      <c r="B752" t="n">
-        <v>235</v>
-      </c>
-      <c r="C752" t="n">
-        <v>234</v>
-      </c>
-      <c r="D752" t="n">
-        <v>236</v>
-      </c>
-      <c r="E752" t="n">
-        <v>234</v>
-      </c>
-      <c r="F752" t="n">
-        <v>8699.562900000001</v>
-      </c>
-      <c r="G752" t="n">
-        <v>-1206250.262328551</v>
-      </c>
-      <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>235</v>
-      </c>
-      <c r="J752" t="n">
-        <v>237</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L752" t="n">
-        <v>1</v>
-      </c>
-      <c r="M752" t="inlineStr"/>
-    </row>
-    <row r="753">
-      <c r="A753" s="1" t="n">
-        <v>751</v>
-      </c>
-      <c r="B753" t="n">
-        <v>234</v>
-      </c>
-      <c r="C753" t="n">
-        <v>234</v>
-      </c>
-      <c r="D753" t="n">
-        <v>234</v>
-      </c>
-      <c r="E753" t="n">
-        <v>234</v>
-      </c>
-      <c r="F753" t="n">
-        <v>3138.1155</v>
-      </c>
-      <c r="G753" t="n">
-        <v>-1206250.262328551</v>
-      </c>
-      <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>237</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L753" t="n">
-        <v>1</v>
-      </c>
-      <c r="M753" t="inlineStr"/>
-    </row>
-    <row r="754">
-      <c r="A754" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="B754" t="n">
-        <v>235</v>
-      </c>
-      <c r="C754" t="n">
-        <v>235</v>
-      </c>
-      <c r="D754" t="n">
-        <v>235</v>
-      </c>
-      <c r="E754" t="n">
-        <v>235</v>
-      </c>
-      <c r="F754" t="n">
-        <v>615.5263</v>
-      </c>
-      <c r="G754" t="n">
-        <v>-1205634.736028551</v>
-      </c>
-      <c r="H754" t="n">
-        <v>1</v>
-      </c>
-      <c r="I754" t="n">
-        <v>234</v>
-      </c>
-      <c r="J754" t="n">
-        <v>237</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L754" t="n">
-        <v>1</v>
-      </c>
-      <c r="M754" t="inlineStr"/>
-    </row>
-    <row r="755">
-      <c r="A755" s="1" t="n">
-        <v>753</v>
-      </c>
-      <c r="B755" t="n">
-        <v>234</v>
-      </c>
-      <c r="C755" t="n">
-        <v>235</v>
-      </c>
-      <c r="D755" t="n">
-        <v>235</v>
-      </c>
-      <c r="E755" t="n">
-        <v>233</v>
-      </c>
-      <c r="F755" t="n">
-        <v>36922.2665</v>
-      </c>
-      <c r="G755" t="n">
-        <v>-1205634.736028551</v>
-      </c>
-      <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>235</v>
-      </c>
-      <c r="J755" t="n">
-        <v>237</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25950,9 +25344,7 @@
       <c r="I756" t="n">
         <v>235</v>
       </c>
-      <c r="J756" t="n">
-        <v>237</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25986,14 +25378,10 @@
         <v>-1132021.702175218</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>237</v>
-      </c>
-      <c r="J757" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26030,9 +25418,7 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>237</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26069,9 +25455,7 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>237</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26108,9 +25492,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>237</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26147,9 +25529,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>237</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26186,9 +25566,7 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>237</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26225,9 +25603,7 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>237</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26264,9 +25640,7 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>237</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26303,9 +25677,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>237</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26342,9 +25714,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>237</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26378,14 +25748,10 @@
         <v>-1125035.983675218</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>236</v>
-      </c>
-      <c r="J767" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26422,9 +25788,7 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>237</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26458,14 +25822,10 @@
         <v>-1125035.983675218</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>236</v>
-      </c>
-      <c r="J769" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26499,14 +25859,10 @@
         <v>-1125035.983675218</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>236</v>
-      </c>
-      <c r="J770" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26543,9 +25899,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>237</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26579,12 +25933,12 @@
         <v>-1125033.783675218</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>237</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>236</v>
+      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26618,12 +25972,12 @@
         <v>-1125035.983675218</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
         <v>237</v>
       </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26657,12 +26011,12 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>237</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>236</v>
+      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26701,9 +26055,7 @@
       <c r="I775" t="n">
         <v>237</v>
       </c>
-      <c r="J775" t="n">
-        <v>237</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26742,9 +26094,7 @@
       <c r="I776" t="n">
         <v>237</v>
       </c>
-      <c r="J776" t="n">
-        <v>237</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26783,9 +26133,7 @@
       <c r="I777" t="n">
         <v>237</v>
       </c>
-      <c r="J777" t="n">
-        <v>237</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26824,9 +26172,7 @@
       <c r="I778" t="n">
         <v>237</v>
       </c>
-      <c r="J778" t="n">
-        <v>237</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26865,9 +26211,7 @@
       <c r="I779" t="n">
         <v>237</v>
       </c>
-      <c r="J779" t="n">
-        <v>237</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26906,9 +26250,7 @@
       <c r="I780" t="n">
         <v>236</v>
       </c>
-      <c r="J780" t="n">
-        <v>237</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26945,9 +26287,7 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>237</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26984,9 +26324,7 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>237</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27023,9 +26361,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>237</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27062,9 +26398,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>237</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27101,9 +26435,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>237</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27140,9 +26472,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>237</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27179,9 +26509,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>237</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27215,14 +26543,10 @@
         <v>-1212342.083875218</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
-      </c>
-      <c r="I788" t="n">
-        <v>236</v>
-      </c>
-      <c r="J788" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27259,9 +26583,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>237</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27298,9 +26620,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>237</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27337,9 +26657,7 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>237</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27376,9 +26694,7 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>237</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27415,9 +26731,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>237</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27454,9 +26768,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>237</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27493,9 +26805,7 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>237</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27532,9 +26842,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>237</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27571,9 +26879,7 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>237</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27607,14 +26913,10 @@
         <v>-1212237.400330914</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>237</v>
-      </c>
-      <c r="J798" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27651,9 +26953,7 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>237</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27690,9 +26990,7 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>237</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27729,9 +27027,7 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>237</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27768,9 +27064,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>237</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27807,9 +27101,7 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>237</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27846,9 +27138,7 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>237</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27885,9 +27175,7 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>237</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27924,9 +27212,7 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>237</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27963,9 +27249,7 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>237</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28002,9 +27286,7 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>237</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28041,9 +27323,7 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>237</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28080,9 +27360,7 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>237</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28119,9 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>237</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28158,9 +27434,7 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>237</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28197,9 +27471,7 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>237</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28236,9 +27508,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>237</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28275,9 +27545,7 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>237</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28314,9 +27582,7 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>237</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28353,9 +27619,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>237</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28392,9 +27656,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>237</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28431,9 +27693,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>237</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28470,9 +27730,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>237</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28509,9 +27767,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>237</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28548,9 +27804,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>237</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28587,9 +27841,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>237</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28626,9 +27878,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>237</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28665,9 +27915,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>237</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28704,9 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>237</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28743,9 +27989,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>237</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28782,9 +28026,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>237</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28821,9 +28063,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>237</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28860,9 +28100,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>237</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28899,9 +28137,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>237</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28938,9 +28174,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>237</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28977,9 +28211,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>237</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29016,9 +28248,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>237</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29055,9 +28285,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>237</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29094,9 +28322,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>237</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29133,9 +28359,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>237</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29172,9 +28396,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>237</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29211,9 +28433,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>237</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29250,9 +28470,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>237</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29289,9 +28507,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>237</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29328,9 +28544,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>237</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29367,9 +28581,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>237</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29406,9 +28618,7 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>237</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29445,9 +28655,7 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>237</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29484,9 +28692,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>237</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29523,9 +28729,7 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>237</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29562,9 +28766,7 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>237</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29601,9 +28803,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>237</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29640,9 +28840,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>237</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29679,9 +28877,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>237</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29718,9 +28914,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>237</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29757,9 +28951,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>237</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29796,9 +28988,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>237</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29835,9 +29025,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>237</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29874,9 +29062,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>237</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29888,6 +29074,6 @@
       <c r="M856" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest FCT.xlsx
+++ b/BackTest/2019-11-13 BackTest FCT.xlsx
@@ -583,7 +583,7 @@
         <v>70740.96858983568</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>59740.96858983568</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>43622.57038983569</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>31977.14378983569</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>31977.14378983569</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>27950.32508983569</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>27950.32508983569</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>29312.81228983569</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>38747.50558983569</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>38747.50558983569</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>38683.5023898357</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>32838.75908983569</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>225112.9129898357</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>225112.9129898357</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>225112.9129898357</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>225112.9129898357</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>193927.4809898357</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>98314.86728983566</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>98314.86728983566</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>98314.86728983566</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>98314.86728983566</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>99978.02318983566</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>99978.02318983566</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>96009.65168983566</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>101964.0312898357</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>39045.98068983566</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>45003.00258983566</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>45003.00258983566</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>45003.00258983566</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>45003.00258983566</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>34119.68618983566</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>34119.68618983566</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>34119.68618983566</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-154313.9260437247</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>59184.52844598936</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>45015.26243570352</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>50695.62872541767</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>49348.62872541767</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-28006.90157458233</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-28006.90157458233</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-26410.02473144508</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-26410.02473144508</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-56265.35423144508</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-61497.23693144508</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-49871.59653144507</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-57526.55803144507</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-57524.55803144507</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -24937,10 +24937,14 @@
         <v>-1197085.732728551</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>236</v>
+      </c>
+      <c r="J744" t="n">
+        <v>236</v>
+      </c>
       <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
@@ -24970,11 +24974,19 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>235</v>
+      </c>
+      <c r="J745" t="n">
+        <v>236</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25003,11 +25015,19 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>236</v>
+      </c>
+      <c r="J746" t="n">
+        <v>236</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25036,11 +25056,19 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>236</v>
+      </c>
+      <c r="J747" t="n">
+        <v>236</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25069,11 +25097,19 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>236</v>
+      </c>
+      <c r="J748" t="n">
+        <v>236</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25102,11 +25138,19 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>236</v>
+      </c>
+      <c r="J749" t="n">
+        <v>236</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25135,11 +25179,19 @@
         <v>-1196657.860728551</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>236</v>
+      </c>
+      <c r="J750" t="n">
+        <v>236</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25168,11 +25220,19 @@
         <v>-1197550.699428551</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>237</v>
+      </c>
+      <c r="J751" t="n">
+        <v>236</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25201,11 +25261,19 @@
         <v>-1206250.262328551</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>235</v>
+      </c>
+      <c r="J752" t="n">
+        <v>236</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25234,11 +25302,19 @@
         <v>-1206250.262328551</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>234</v>
+      </c>
+      <c r="J753" t="n">
+        <v>236</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25267,11 +25343,19 @@
         <v>-1205634.736028551</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>234</v>
+      </c>
+      <c r="J754" t="n">
+        <v>236</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25305,10 +25389,12 @@
       <c r="I755" t="n">
         <v>235</v>
       </c>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>236</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L755" t="n">
@@ -25344,7 +25430,9 @@
       <c r="I756" t="n">
         <v>235</v>
       </c>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>236</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25378,10 +25466,14 @@
         <v>-1132021.702175218</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>237</v>
+      </c>
+      <c r="J757" t="n">
+        <v>236</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25415,10 +25507,14 @@
         <v>-1132021.702175218</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>238</v>
+      </c>
+      <c r="J758" t="n">
+        <v>236</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25455,7 +25551,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>236</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25492,7 +25590,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>236</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25529,7 +25629,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>236</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25566,7 +25668,9 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>236</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25603,7 +25707,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>236</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25640,7 +25746,9 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>236</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25677,7 +25785,9 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>236</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25714,7 +25824,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>236</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25751,7 +25863,9 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>236</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25788,7 +25902,9 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>236</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25825,7 +25941,9 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>236</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25862,7 +25980,9 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>236</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25899,7 +26019,9 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>236</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25933,12 +26055,12 @@
         <v>-1125033.783675218</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>236</v>
-      </c>
-      <c r="J772" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>236</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25972,12 +26094,12 @@
         <v>-1125035.983675218</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>237</v>
-      </c>
-      <c r="J773" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>236</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26011,12 +26133,12 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>236</v>
-      </c>
-      <c r="J774" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>236</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26050,12 +26172,12 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>237</v>
-      </c>
-      <c r="J775" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>236</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26089,12 +26211,12 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>237</v>
-      </c>
-      <c r="J776" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>236</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26128,12 +26250,12 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>237</v>
-      </c>
-      <c r="J777" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>236</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26167,12 +26289,12 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
-      </c>
-      <c r="I778" t="n">
-        <v>237</v>
-      </c>
-      <c r="J778" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>236</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26206,12 +26328,12 @@
         <v>-1174300.914175218</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
-      </c>
-      <c r="I779" t="n">
-        <v>237</v>
-      </c>
-      <c r="J779" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>236</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26245,12 +26367,12 @@
         <v>-1144372.035075218</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>236</v>
-      </c>
-      <c r="J780" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>236</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26287,7 +26409,9 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>236</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26324,7 +26448,9 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>236</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26361,7 +26487,9 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>236</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26398,7 +26526,9 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>236</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26435,7 +26565,9 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>236</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26472,7 +26604,9 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>236</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26509,7 +26643,9 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>236</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26546,7 +26682,9 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>236</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26583,7 +26721,9 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>236</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26620,7 +26760,9 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>236</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26657,7 +26799,9 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>236</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26694,7 +26838,9 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>236</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26731,7 +26877,9 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>236</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26768,7 +26916,9 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>236</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26805,7 +26955,9 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>236</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26842,7 +26994,9 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>236</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26879,7 +27033,9 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>236</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26916,7 +27072,9 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>236</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26953,7 +27111,9 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>236</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26990,7 +27150,9 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>236</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27027,7 +27189,9 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>236</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27064,7 +27228,9 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>236</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27101,7 +27267,9 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>236</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27138,7 +27306,9 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>236</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27175,7 +27345,9 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>236</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27212,7 +27384,9 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>236</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27249,7 +27423,9 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>236</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27286,7 +27462,9 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>236</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27323,7 +27501,9 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>236</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27360,7 +27540,9 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>236</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27397,7 +27579,9 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>236</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27434,7 +27618,9 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>236</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27471,7 +27657,9 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>236</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27508,7 +27696,9 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>236</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27545,7 +27735,9 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>236</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27582,7 +27774,9 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>236</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27619,7 +27813,9 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>236</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27656,7 +27852,9 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>236</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27693,7 +27891,9 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>236</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27730,7 +27930,9 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>236</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27767,7 +27969,9 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>236</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27804,7 +28008,9 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>236</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27841,7 +28047,9 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>236</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27878,7 +28086,9 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>236</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27915,7 +28125,9 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>236</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27952,7 +28164,9 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>236</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27989,7 +28203,9 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>236</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28026,7 +28242,9 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>236</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28063,7 +28281,9 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>236</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28100,7 +28320,9 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>236</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28137,7 +28359,9 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>236</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28174,7 +28398,9 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>236</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28211,7 +28437,9 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>236</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28248,7 +28476,9 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>236</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28285,7 +28515,9 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>236</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28322,7 +28554,9 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>236</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28359,7 +28593,9 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>236</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28396,7 +28632,9 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>236</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28433,7 +28671,9 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>236</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28470,7 +28710,9 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>236</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28507,7 +28749,9 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>236</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28544,7 +28788,9 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>236</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28581,7 +28827,9 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>236</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28618,7 +28866,9 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>236</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28655,7 +28905,9 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>236</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28692,7 +28944,9 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>236</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28729,7 +28983,9 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>236</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28766,7 +29022,9 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>236</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28803,7 +29061,9 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>236</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28840,7 +29100,9 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>236</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28877,7 +29139,9 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>236</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28914,7 +29178,9 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>236</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28951,7 +29217,9 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>236</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28988,7 +29256,9 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>236</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29025,7 +29295,9 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>236</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29062,7 +29334,9 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>236</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
